--- a/data/nzd0042/nzd0042.xlsx
+++ b/data/nzd0042/nzd0042.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O452"/>
+  <dimension ref="A1:O462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22108,6 +22108,480 @@
         </is>
       </c>
     </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>396.58</v>
+      </c>
+      <c r="C453" t="n">
+        <v>386.9009090909091</v>
+      </c>
+      <c r="D453" t="n">
+        <v>392.0171428571429</v>
+      </c>
+      <c r="E453" t="n">
+        <v>394.490909090909</v>
+      </c>
+      <c r="F453" t="n">
+        <v>390.2709090909091</v>
+      </c>
+      <c r="G453" t="n">
+        <v>390.5409090909091</v>
+      </c>
+      <c r="H453" t="n">
+        <v>390.6233333333333</v>
+      </c>
+      <c r="I453" t="n">
+        <v>389.29</v>
+      </c>
+      <c r="J453" t="n">
+        <v>395.08</v>
+      </c>
+      <c r="K453" t="n">
+        <v>385.7000000000001</v>
+      </c>
+      <c r="L453" t="n">
+        <v>388.1144444444445</v>
+      </c>
+      <c r="M453" t="n">
+        <v>392.2144444444445</v>
+      </c>
+      <c r="N453" t="n">
+        <v>390.16</v>
+      </c>
+      <c r="O453" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr"/>
+      <c r="C454" t="inlineStr"/>
+      <c r="D454" t="n">
+        <v>395.0542857142857</v>
+      </c>
+      <c r="E454" t="n">
+        <v>400.9518181818182</v>
+      </c>
+      <c r="F454" t="n">
+        <v>399.0118181818182</v>
+      </c>
+      <c r="G454" t="n">
+        <v>396.1118181818182</v>
+      </c>
+      <c r="H454" t="n">
+        <v>391.6433333333333</v>
+      </c>
+      <c r="I454" t="n">
+        <v>399.42</v>
+      </c>
+      <c r="J454" t="n">
+        <v>396.89</v>
+      </c>
+      <c r="K454" t="n">
+        <v>391.84</v>
+      </c>
+      <c r="L454" t="n">
+        <v>390.5377777777778</v>
+      </c>
+      <c r="M454" t="n">
+        <v>394.2777777777778</v>
+      </c>
+      <c r="N454" t="n">
+        <v>396.29</v>
+      </c>
+      <c r="O454" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>398.22</v>
+      </c>
+      <c r="C455" t="n">
+        <v>393.6054545454546</v>
+      </c>
+      <c r="D455" t="n">
+        <v>394.1057142857143</v>
+      </c>
+      <c r="E455" t="n">
+        <v>405.5654545454545</v>
+      </c>
+      <c r="F455" t="n">
+        <v>401.4654545454546</v>
+      </c>
+      <c r="G455" t="n">
+        <v>397.4454545454545</v>
+      </c>
+      <c r="H455" t="n">
+        <v>395.1366666666667</v>
+      </c>
+      <c r="I455" t="n">
+        <v>393.73</v>
+      </c>
+      <c r="J455" t="n">
+        <v>397.51</v>
+      </c>
+      <c r="K455" t="n">
+        <v>390.0100000000001</v>
+      </c>
+      <c r="L455" t="n">
+        <v>396.7188888888889</v>
+      </c>
+      <c r="M455" t="n">
+        <v>399.1588888888889</v>
+      </c>
+      <c r="N455" t="n">
+        <v>401.39</v>
+      </c>
+      <c r="O455" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr"/>
+      <c r="C456" t="inlineStr"/>
+      <c r="D456" t="inlineStr"/>
+      <c r="E456" t="inlineStr"/>
+      <c r="F456" t="inlineStr"/>
+      <c r="G456" t="inlineStr"/>
+      <c r="H456" t="inlineStr"/>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="inlineStr"/>
+      <c r="M456" t="n">
+        <v>394.2266666666667</v>
+      </c>
+      <c r="N456" t="n">
+        <v>380.85</v>
+      </c>
+      <c r="O456" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>404.14</v>
+      </c>
+      <c r="C457" t="n">
+        <v>404.4081818181818</v>
+      </c>
+      <c r="D457" t="n">
+        <v>413.1457142857143</v>
+      </c>
+      <c r="E457" t="n">
+        <v>413.0981818181818</v>
+      </c>
+      <c r="F457" t="n">
+        <v>408.8781818181818</v>
+      </c>
+      <c r="G457" t="n">
+        <v>407.2981818181818</v>
+      </c>
+      <c r="H457" t="n">
+        <v>408.11</v>
+      </c>
+      <c r="I457" t="n">
+        <v>410.44</v>
+      </c>
+      <c r="J457" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="K457" t="n">
+        <v>404.37</v>
+      </c>
+      <c r="L457" t="n">
+        <v>400.1733333333333</v>
+      </c>
+      <c r="M457" t="n">
+        <v>404.7633333333333</v>
+      </c>
+      <c r="N457" t="n">
+        <v>397.65</v>
+      </c>
+      <c r="O457" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>412.94</v>
+      </c>
+      <c r="C458" t="n">
+        <v>415.4690909090909</v>
+      </c>
+      <c r="D458" t="n">
+        <v>423.97</v>
+      </c>
+      <c r="E458" t="n">
+        <v>422.259090909091</v>
+      </c>
+      <c r="F458" t="n">
+        <v>421.7290909090909</v>
+      </c>
+      <c r="G458" t="n">
+        <v>417.4390909090909</v>
+      </c>
+      <c r="H458" t="n">
+        <v>420.5966666666667</v>
+      </c>
+      <c r="I458" t="n">
+        <v>417.26</v>
+      </c>
+      <c r="J458" t="n">
+        <v>416.73</v>
+      </c>
+      <c r="K458" t="n">
+        <v>415.06</v>
+      </c>
+      <c r="L458" t="n">
+        <v>418.8388888888889</v>
+      </c>
+      <c r="M458" t="n">
+        <v>423.1988888888889</v>
+      </c>
+      <c r="N458" t="n">
+        <v>412.57</v>
+      </c>
+      <c r="O458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>399.01</v>
+      </c>
+      <c r="C459" t="n">
+        <v>400.1981818181818</v>
+      </c>
+      <c r="D459" t="n">
+        <v>405.6971428571428</v>
+      </c>
+      <c r="E459" t="n">
+        <v>404.0581818181818</v>
+      </c>
+      <c r="F459" t="n">
+        <v>405.5581818181818</v>
+      </c>
+      <c r="G459" t="n">
+        <v>401.7981818181818</v>
+      </c>
+      <c r="H459" t="n">
+        <v>400.1233333333333</v>
+      </c>
+      <c r="I459" t="n">
+        <v>395.09</v>
+      </c>
+      <c r="J459" t="n">
+        <v>394.63</v>
+      </c>
+      <c r="K459" t="n">
+        <v>389.02</v>
+      </c>
+      <c r="L459" t="n">
+        <v>388.7477777777778</v>
+      </c>
+      <c r="M459" t="n">
+        <v>399.5677777777778</v>
+      </c>
+      <c r="N459" t="n">
+        <v>384.24</v>
+      </c>
+      <c r="O459" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>402.5</v>
+      </c>
+      <c r="C460" t="n">
+        <v>392.4527272727273</v>
+      </c>
+      <c r="D460" t="n">
+        <v>400.7414285714286</v>
+      </c>
+      <c r="E460" t="n">
+        <v>400.5527272727272</v>
+      </c>
+      <c r="F460" t="n">
+        <v>397.6427272727273</v>
+      </c>
+      <c r="G460" t="n">
+        <v>397.3727272727273</v>
+      </c>
+      <c r="H460" t="n">
+        <v>398.3</v>
+      </c>
+      <c r="I460" t="n">
+        <v>394.11</v>
+      </c>
+      <c r="J460" t="n">
+        <v>395.68</v>
+      </c>
+      <c r="K460" t="n">
+        <v>393.4</v>
+      </c>
+      <c r="L460" t="n">
+        <v>392.8</v>
+      </c>
+      <c r="M460" t="n">
+        <v>392</v>
+      </c>
+      <c r="N460" t="n">
+        <v>386.92</v>
+      </c>
+      <c r="O460" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>416.71</v>
+      </c>
+      <c r="C461" t="n">
+        <v>395.8454545454546</v>
+      </c>
+      <c r="D461" t="n">
+        <v>400.2257142857143</v>
+      </c>
+      <c r="E461" t="n">
+        <v>403.8654545454546</v>
+      </c>
+      <c r="F461" t="n">
+        <v>399.7354545454546</v>
+      </c>
+      <c r="G461" t="n">
+        <v>402.8254545454545</v>
+      </c>
+      <c r="H461" t="n">
+        <v>401.3566666666667</v>
+      </c>
+      <c r="I461" t="n">
+        <v>401.29</v>
+      </c>
+      <c r="J461" t="n">
+        <v>401.97</v>
+      </c>
+      <c r="K461" t="n">
+        <v>395.41</v>
+      </c>
+      <c r="L461" t="n">
+        <v>397.5788888888889</v>
+      </c>
+      <c r="M461" t="n">
+        <v>400.1588888888889</v>
+      </c>
+      <c r="N461" t="n">
+        <v>399.37</v>
+      </c>
+      <c r="O461" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr"/>
+      <c r="C462" t="n">
+        <v>399.9009090909091</v>
+      </c>
+      <c r="D462" t="n">
+        <v>376.6014285714285</v>
+      </c>
+      <c r="E462" t="n">
+        <v>378.4409090909091</v>
+      </c>
+      <c r="F462" t="n">
+        <v>405.120909090909</v>
+      </c>
+      <c r="G462" t="n">
+        <v>400.6609090909091</v>
+      </c>
+      <c r="H462" t="n">
+        <v>399.2766666666667</v>
+      </c>
+      <c r="I462" t="n">
+        <v>403.07</v>
+      </c>
+      <c r="J462" t="n">
+        <v>395.47</v>
+      </c>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
+      <c r="M462" t="inlineStr"/>
+      <c r="N462" t="inlineStr"/>
+      <c r="O462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22119,7 +22593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B504"/>
+  <dimension ref="A1:B514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27167,6 +27641,106 @@
       </c>
       <c r="B504" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -27335,28 +27909,28 @@
         <v>0.0409</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3398806180927865</v>
+        <v>0.3521451664593747</v>
       </c>
       <c r="J2" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="K2" t="n">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04821374308367798</v>
+        <v>0.0533380691177453</v>
       </c>
       <c r="M2" t="n">
-        <v>8.262047508704921</v>
+        <v>8.215654434715139</v>
       </c>
       <c r="N2" t="n">
-        <v>122.7388174100375</v>
+        <v>121.5209257814337</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07875522836557</v>
+        <v>11.02365301437929</v>
       </c>
       <c r="P2" t="n">
-        <v>392.5234761240033</v>
+        <v>392.4080866274413</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -27412,28 +27986,28 @@
         <v>0.0562</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3576612953249119</v>
+        <v>0.3705434446603717</v>
       </c>
       <c r="J3" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="K3" t="n">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07938738556907232</v>
+        <v>0.08671364559371086</v>
       </c>
       <c r="M3" t="n">
-        <v>6.815836734882041</v>
+        <v>6.807897883588859</v>
       </c>
       <c r="N3" t="n">
-        <v>81.08896227216192</v>
+        <v>81.00429092025543</v>
       </c>
       <c r="O3" t="n">
-        <v>9.004940992153248</v>
+        <v>9.000238381301655</v>
       </c>
       <c r="P3" t="n">
-        <v>386.1336532691769</v>
+        <v>386.0130970794016</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -27489,28 +28063,28 @@
         <v>0.0757</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4273168440669568</v>
+        <v>0.426883908470848</v>
       </c>
       <c r="J4" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="K4" t="n">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1023655189924551</v>
+        <v>0.1030079482680113</v>
       </c>
       <c r="M4" t="n">
-        <v>7.058537444131049</v>
+        <v>7.11178646338551</v>
       </c>
       <c r="N4" t="n">
-        <v>87.46540298770475</v>
+        <v>89.0618352611833</v>
       </c>
       <c r="O4" t="n">
-        <v>9.352293996004656</v>
+        <v>9.437257825299852</v>
       </c>
       <c r="P4" t="n">
-        <v>389.3921408577004</v>
+        <v>389.3963526941302</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -27566,28 +28140,28 @@
         <v>0.0609</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4243181338284222</v>
+        <v>0.4312552616091885</v>
       </c>
       <c r="J5" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="K5" t="n">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1032952202685424</v>
+        <v>0.1077999703553557</v>
       </c>
       <c r="M5" t="n">
-        <v>7.120486638593674</v>
+        <v>7.142417063234471</v>
       </c>
       <c r="N5" t="n">
-        <v>84.67216553654217</v>
+        <v>85.69740144388896</v>
       </c>
       <c r="O5" t="n">
-        <v>9.20174796093341</v>
+        <v>9.257289097996722</v>
       </c>
       <c r="P5" t="n">
-        <v>390.1449382885756</v>
+        <v>390.0801679166775</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -27643,28 +28217,28 @@
         <v>0.061</v>
       </c>
       <c r="I6" t="n">
-        <v>0.41606290009401</v>
+        <v>0.4297706518961345</v>
       </c>
       <c r="J6" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="K6" t="n">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1034502798948987</v>
+        <v>0.1123052526439176</v>
       </c>
       <c r="M6" t="n">
-        <v>6.994883422067298</v>
+        <v>6.980672792880102</v>
       </c>
       <c r="N6" t="n">
-        <v>82.42779567117749</v>
+        <v>82.33746300322279</v>
       </c>
       <c r="O6" t="n">
-        <v>9.078975474753607</v>
+        <v>9.073999283845177</v>
       </c>
       <c r="P6" t="n">
-        <v>389.41078298567</v>
+        <v>389.2823617427352</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -27720,28 +28294,28 @@
         <v>0.0593</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3425973423884958</v>
+        <v>0.3598955756110064</v>
       </c>
       <c r="J7" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="K7" t="n">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07849205903774048</v>
+        <v>0.08817345674140897</v>
       </c>
       <c r="M7" t="n">
-        <v>6.739034336564028</v>
+        <v>6.721424045825451</v>
       </c>
       <c r="N7" t="n">
-        <v>76.21576643775296</v>
+        <v>76.03778781214955</v>
       </c>
       <c r="O7" t="n">
-        <v>8.730164170148976</v>
+        <v>8.719964897414986</v>
       </c>
       <c r="P7" t="n">
-        <v>388.4562805947212</v>
+        <v>388.2946341611702</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -27797,28 +28371,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3509201614302622</v>
+        <v>0.363138200402544</v>
       </c>
       <c r="J8" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="K8" t="n">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09158299710429851</v>
+        <v>0.09919128137142241</v>
       </c>
       <c r="M8" t="n">
-        <v>6.412759598785384</v>
+        <v>6.411413685803973</v>
       </c>
       <c r="N8" t="n">
-        <v>65.45244145134149</v>
+        <v>65.82520302385886</v>
       </c>
       <c r="O8" t="n">
-        <v>8.090268317635793</v>
+        <v>8.113273261998444</v>
       </c>
       <c r="P8" t="n">
-        <v>388.8383423563242</v>
+        <v>388.7199475816067</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -27874,28 +28448,28 @@
         <v>0.0528</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2546572866546896</v>
+        <v>0.2746214614399933</v>
       </c>
       <c r="J9" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="K9" t="n">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04292924226234185</v>
+        <v>0.05057536503500049</v>
       </c>
       <c r="M9" t="n">
-        <v>6.989048141855516</v>
+        <v>6.986579995534067</v>
       </c>
       <c r="N9" t="n">
-        <v>75.92218913160683</v>
+        <v>76.22155083672543</v>
       </c>
       <c r="O9" t="n">
-        <v>8.713333984853721</v>
+        <v>8.730495451961787</v>
       </c>
       <c r="P9" t="n">
-        <v>389.3871866729</v>
+        <v>389.1899767667744</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -27951,28 +28525,28 @@
         <v>0.043</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2323039301871558</v>
+        <v>0.2458710466106597</v>
       </c>
       <c r="J10" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="K10" t="n">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03080726255277311</v>
+        <v>0.03550923443607945</v>
       </c>
       <c r="M10" t="n">
-        <v>7.536513388071077</v>
+        <v>7.467080058607607</v>
       </c>
       <c r="N10" t="n">
-        <v>92.99479725345877</v>
+        <v>92.22366110884707</v>
       </c>
       <c r="O10" t="n">
-        <v>9.643381007378002</v>
+        <v>9.603315110358874</v>
       </c>
       <c r="P10" t="n">
-        <v>390.9316541955774</v>
+        <v>390.8029692640247</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -28028,28 +28602,28 @@
         <v>0.052</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1359027854397718</v>
+        <v>0.1521647001991774</v>
       </c>
       <c r="J11" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="K11" t="n">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01381495785859355</v>
+        <v>0.01753046895079857</v>
       </c>
       <c r="M11" t="n">
-        <v>6.617437219732094</v>
+        <v>6.616411258901857</v>
       </c>
       <c r="N11" t="n">
-        <v>72.54144243645047</v>
+        <v>73.0445115449911</v>
       </c>
       <c r="O11" t="n">
-        <v>8.517126418954369</v>
+        <v>8.546608189509515</v>
       </c>
       <c r="P11" t="n">
-        <v>387.9013235308292</v>
+        <v>387.7476699263868</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -28105,28 +28679,28 @@
         <v>0.0475</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2113330048621842</v>
+        <v>0.2321758239282455</v>
       </c>
       <c r="J12" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="K12" t="n">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02938376658206754</v>
+        <v>0.03576169683259467</v>
       </c>
       <c r="M12" t="n">
-        <v>6.881765105878701</v>
+        <v>6.872261928736261</v>
       </c>
       <c r="N12" t="n">
-        <v>81.95689203996172</v>
+        <v>82.60847047848416</v>
       </c>
       <c r="O12" t="n">
-        <v>9.053004586321698</v>
+        <v>9.088920204209307</v>
       </c>
       <c r="P12" t="n">
-        <v>385.8636827963259</v>
+        <v>385.6682857027231</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -28182,28 +28756,28 @@
         <v>0.0497</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2104100879907054</v>
+        <v>0.2227521101410999</v>
       </c>
       <c r="J13" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="K13" t="n">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02725762174264967</v>
+        <v>0.03118179792485554</v>
       </c>
       <c r="M13" t="n">
-        <v>7.263901047440061</v>
+        <v>7.244006549675794</v>
       </c>
       <c r="N13" t="n">
-        <v>86.94242624842083</v>
+        <v>87.04313750479103</v>
       </c>
       <c r="O13" t="n">
-        <v>9.324292265283239</v>
+        <v>9.32969117949737</v>
       </c>
       <c r="P13" t="n">
-        <v>391.6754459677936</v>
+        <v>391.5594828834481</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -28259,28 +28833,28 @@
         <v>0.0452</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2185469533619887</v>
+        <v>0.2373936358176252</v>
       </c>
       <c r="J14" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="K14" t="n">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02351532865762596</v>
+        <v>0.02834401449122426</v>
       </c>
       <c r="M14" t="n">
-        <v>8.039283715266691</v>
+        <v>8.033239428511209</v>
       </c>
       <c r="N14" t="n">
-        <v>108.4245474672554</v>
+        <v>108.3644422964324</v>
       </c>
       <c r="O14" t="n">
-        <v>10.41271086063833</v>
+        <v>10.40982431630968</v>
       </c>
       <c r="P14" t="n">
-        <v>384.2980163033363</v>
+        <v>384.1208632643778</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -28317,7 +28891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O452"/>
+  <dimension ref="A1:O462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60317,6 +60891,704 @@
         </is>
       </c>
     </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>-34.99049173512536,173.4596530187783</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>-34.99109022858336,173.46013224696398</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>-34.99147337517427,173.46082225082827</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>-34.99172914825341,173.46161559098053</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>-34.992039488531084,173.46242427629952</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>-34.99230053428041,173.46325724482892</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>-34.99254343758317,173.464087635496</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>-34.99273860952517,173.46493550024414</t>
+        </is>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>-34.99284946197574,173.46580314955722</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>-34.99302483987505,173.46665699345462</t>
+        </is>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>-34.99305284547579,173.46754049181027</t>
+        </is>
+      </c>
+      <c r="M453" t="inlineStr">
+        <is>
+          <t>-34.993034027866265,173.4683744357007</t>
+        </is>
+      </c>
+      <c r="N453" t="inlineStr">
+        <is>
+          <t>-34.99282893471551,173.46918039724125</t>
+        </is>
+      </c>
+      <c r="O453" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr"/>
+      <c r="C454" t="inlineStr"/>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>-34.99144980984167,173.4608392067086</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>-34.99167539357481,173.4616428880223</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>-34.99196614721961,173.46245935818362</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>-34.99225341166145,173.46327839509578</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>-34.99253464590746,173.46409091920347</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>-34.99264987524452,173.46496184711674</t>
+        </is>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>-34.992833389786,173.46580660096646</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>-34.99296972725194,173.46666342167052</t>
+        </is>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>-34.993031012510684,173.4675415941206</t>
+        </is>
+      </c>
+      <c r="M454" t="inlineStr">
+        <is>
+          <t>-34.993015646522885,173.46837093603975</t>
+        </is>
+      </c>
+      <c r="N454" t="inlineStr">
+        <is>
+          <t>-34.992776593511834,173.46915880255136</t>
+        </is>
+      </c>
+      <c r="O454" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>-34.990482145382664,173.45966669815</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>-34.99104652643349,173.46018300927554</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>-34.99145716985173,173.46083391098787</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>-34.9916370081771,173.46166238040072</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>-34.99194555978145,173.46246920591093</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>-34.9922421308381,173.463283458317</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>-34.99250453585397,173.46410216535966</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>-34.99269971710682,173.4649470481399</t>
+        </is>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>-34.99282788439501,173.4658077832168</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>-34.992986153326974,173.4666615057699</t>
+        </is>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>-34.99297532393404,173.46754440574247</t>
+        </is>
+      </c>
+      <c r="M455" t="inlineStr">
+        <is>
+          <t>-34.992972162816486,173.46836265709595</t>
+        </is>
+      </c>
+      <c r="N455" t="inlineStr">
+        <is>
+          <t>-34.99273304699312,173.46914083635426</t>
+        </is>
+      </c>
+      <c r="O455" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr"/>
+      <c r="C456" t="inlineStr"/>
+      <c r="D456" t="inlineStr"/>
+      <c r="E456" t="inlineStr"/>
+      <c r="F456" t="inlineStr"/>
+      <c r="G456" t="inlineStr"/>
+      <c r="H456" t="inlineStr"/>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="inlineStr"/>
+      <c r="M456" t="inlineStr">
+        <is>
+          <t>-34.99301610184963,173.4683710227303</t>
+        </is>
+      </c>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t>-34.992908428443634,173.4692131944499</t>
+        </is>
+      </c>
+      <c r="O456" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>-34.990447528737775,173.45971607731872</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>-34.990976111114904,173.46026480015172</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>-34.99130943755693,173.46094020804568</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>-34.99157433597205,173.46169420575066</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>-34.99188336267721,173.4624989570367</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>-34.99215878961549,173.46332086467638</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>-34.9923927149203,173.4641439305939</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>-34.99255334495347,173.46499050870545</t>
+        </is>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>-34.99274716825766,173.46582511651505</t>
+        </is>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>-34.992857258004015,173.46667653981203</t>
+        </is>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>-34.992944201197,173.46754597707528</t>
+        </is>
+      </c>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t>-34.992922235245345,173.4683531513041</t>
+        </is>
+      </c>
+      <c r="N457" t="inlineStr">
+        <is>
+          <t>-34.992764981107165,173.4691540115636</t>
+        </is>
+      </c>
+      <c r="O457" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>-34.99039607152606,173.4597894787088</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>-34.99090401283531,173.46034854565926</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>-34.99122545135087,173.46100063800884</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>-34.991498117301205,173.4617329100126</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>-34.99177553603853,173.4625505343059</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>-34.992073010737926,173.46335936505375</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>-34.99228508869351,173.4641841289895</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>-34.992493604787605,173.46500824660657</t>
+        </is>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>-34.992657217266846,173.46584443290183</t>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>-34.99276130458884,173.4666877315594</t>
+        </is>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>-34.992776034304526,173.46755446751033</t>
+        </is>
+      </c>
+      <c r="M458" t="inlineStr">
+        <is>
+          <t>-34.99275800084705,173.46832188253416</t>
+        </is>
+      </c>
+      <c r="N458" t="inlineStr">
+        <is>
+          <t>-34.99263758618233,173.46910145169937</t>
+        </is>
+      </c>
+      <c r="O458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>-34.990477525932896,173.45967328760227</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>-34.991003553126006,173.46023292492242</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>-34.99136723139951,173.46089862399282</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>-34.99164954866797,173.4616560122523</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>-34.99191121941407,173.46248563215732</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>-34.992205312443765,173.46329998366753</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>-34.99246155432529,173.46411821901899</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>-34.99268780411356,173.46495058533105</t>
+        </is>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>-34.992853457823976,173.46580229147185</t>
+        </is>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>-34.99299503956428,173.46666046929874</t>
+        </is>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>-34.993047139473916,173.46754077989692</t>
+        </is>
+      </c>
+      <c r="M459" t="inlineStr">
+        <is>
+          <t>-34.992968520202304,173.46836196357228</t>
+        </is>
+      </c>
+      <c r="N459" t="inlineStr">
+        <is>
+          <t>-34.992879482823106,173.46920125217207</t>
+        </is>
+      </c>
+      <c r="O459" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>-34.990457118486,173.45970239795858</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>-34.99105404024192,173.46017428160334</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>-34.99140568302943,173.46087095708694</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>-34.9916787140061,173.46164120188274</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>-34.99197763468937,173.4624538633029</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>-34.99224274601593,173.4632831822041</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>-34.99247727016526,173.46411234913344</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>-34.99269638847636,173.46494803647283</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>-34.992844134178036,173.4658042936709</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>-34.9929557246961,173.4666650548967</t>
+        </is>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>-34.993010631072295,173.46754262314528</t>
+        </is>
+      </c>
+      <c r="M460" t="inlineStr">
+        <is>
+          <t>-34.99303593825897,173.4683747994243</t>
+        </is>
+      </c>
+      <c r="N460" t="inlineStr">
+        <is>
+          <t>-34.992856599558706,173.46919181108532</t>
+        </is>
+      </c>
+      <c r="O460" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>-34.990374026775264,173.45982092450345</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>-34.99103192546644,173.4601999690379</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>-34.99140968448147,173.46086807794075</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>-34.991651152156535,173.4616551979895</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>-34.99196007548913,173.4624622625157</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>-34.9921966230563,173.46330388375856</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>-34.99245092386664,173.46412218950704</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>-34.99263349487807,173.4649667107485</t>
+        </is>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>-34.9927882810981,173.46581628778753</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>-34.9929376829414,173.46666715924502</t>
+        </is>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>-34.99296757578401,173.46754479693317</t>
+        </is>
+      </c>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>-34.992963254249176,173.46836096097837</t>
+        </is>
+      </c>
+      <c r="N461" t="inlineStr">
+        <is>
+          <t>-34.99275029483032,173.46914795237512</t>
+        </is>
+      </c>
+      <c r="O461" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr"/>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>-34.99100549083624,173.46023067417664</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>-34.991592986381335,173.4607361872245</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>-34.99186268401479,173.4615477803205</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>-34.991914888387235,173.46248387715474</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>-34.99221493228763,173.46329566595517</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>-34.99246885199143,173.464115493332</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>-34.9926179028713,173.4649713403</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>-34.992845998907235,173.46580389323114</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
+      <c r="M462" t="inlineStr"/>
+      <c r="N462" t="inlineStr"/>
+      <c r="O462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0042/nzd0042.xlsx
+++ b/data/nzd0042/nzd0042.xlsx
@@ -27754,7 +27754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27845,35 +27845,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -27932,27 +27937,28 @@
       <c r="P2" t="n">
         <v>392.4080866274413</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.4563450193307 -34.992810653663284, 173.4640797418614 -34.9873882425296)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.4563450193307</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.99281065366328</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.4640797418614</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.9873882425296</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.4602123805961</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.99009944809644</v>
       </c>
     </row>
@@ -28009,27 +28015,28 @@
       <c r="P3" t="n">
         <v>386.0130970794016</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.45720280197034 -34.993612123878314, 173.46422255686986 -34.98756859361708)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.4572028019703</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.99361212387831</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.4642225568699</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.98756859361708</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.4607126794201</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.9905903587477</v>
       </c>
     </row>
@@ -28086,27 +28093,28 @@
       <c r="P4" t="n">
         <v>389.3963526941302</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.45863360096368 -34.994515034396365, 173.46380791509173 -34.98732364625739)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.4586336009637</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.99451503439636</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.4638079150917</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.98732364625739</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.4612207580277</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.99091934032688</v>
       </c>
     </row>
@@ -28163,27 +28171,28 @@
       <c r="P5" t="n">
         <v>390.0801679166775</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.45994881815497 -34.99501129542283, 173.46386391273373 -34.98730138781702)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.459948818155</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.99501129542283</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.4638639127337</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.98730138781702</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.4619063654443</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.99115634161993</v>
       </c>
     </row>
@@ -28240,27 +28249,28 @@
       <c r="P6" t="n">
         <v>389.2823617427352</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.46085784990808 -34.99531407772569, 173.4645769317859 -34.987538941334456)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.4608578499081</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.99531407772569</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.4645769317859</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.98753894133446</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.462717390847</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.99142650953007</v>
       </c>
     </row>
@@ -28317,27 +28327,28 @@
       <c r="P7" t="n">
         <v>388.2946341611702</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.46177447474315 -34.99560399095892, 173.46529241768516 -34.98776592364127)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.4617744747432</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.99560399095892</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.4652924176852</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.98776592364127</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.4635334462142</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.99168495730009</v>
       </c>
     </row>
@@ -28394,27 +28405,28 @@
       <c r="P8" t="n">
         <v>388.7199475816067</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.46283004267198 -34.99591032627825, 173.46581294590456 -34.987923887283614)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.462830042672</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.99591032627825</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.4658129459046</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.98792388728361</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.4643214942883</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.99191710678093</v>
       </c>
     </row>
@@ -28471,27 +28483,28 @@
       <c r="P9" t="n">
         <v>389.1899767667744</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.46392296297563 -34.99614861127372, 173.46633272178087 -34.98803260425317)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.4639229629756</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-34.99614861127372</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.4663327217809</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-34.98803260425317</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.4651278423783</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-34.99209060776344</v>
       </c>
     </row>
@@ -28548,27 +28561,28 @@
       <c r="P10" t="n">
         <v>390.8029692640247</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.4650497574678 -34.99635763605672, 173.46681641973154 -34.98813069472222)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.4650497574678</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-34.99635763605672</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.4668164197315</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-34.98813069472222</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.4659330885997</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-34.99224416538947</v>
       </c>
     </row>
@@ -28625,27 +28639,28 @@
       <c r="P11" t="n">
         <v>387.7476699263868</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.46625317200514 -34.99648688046623, 173.46722310611912 -34.98817097302923)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.4662531720051</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-34.99648688046623</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.4672231061191</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-34.98817097302923</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.4667381390621</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-34.99232892674773</v>
       </c>
     </row>
@@ -28702,27 +28717,28 @@
       <c r="P12" t="n">
         <v>385.6682857027231</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.46736394211365 -34.996549552422394, 173.46778535329526 -34.9882027301217)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.4673639421136</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-34.99654955242239</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.4677853532953</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-34.9882027301217</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.4675746477045</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-34.99237614127205</v>
       </c>
     </row>
@@ -28779,27 +28795,28 @@
       <c r="P13" t="n">
         <v>391.5594828834481</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (173.46903970774122 -34.99652809348374, 173.46746830944764 -34.98827447345078)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>173.4690397077412</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-34.99652809348374</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.4674683094476</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-34.98827447345078</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.4682540085944</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-34.99240128346726</v>
       </c>
     </row>
@@ -28856,27 +28873,28 @@
       <c r="P14" t="n">
         <v>384.1208632643778</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (173.47055490545384 -34.996160319241746, 173.46729074469062 -34.98824852288558)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>173.4705549054538</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-34.99616031924175</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>173.4672907446906</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-34.98824852288558</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>173.4689228250722</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-34.99220442106366</v>
       </c>
     </row>

--- a/data/nzd0042/nzd0042.xlsx
+++ b/data/nzd0042/nzd0042.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O462"/>
+  <dimension ref="A1:O467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22582,6 +22582,257 @@
         </is>
       </c>
     </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>403.55</v>
+      </c>
+      <c r="C463" t="n">
+        <v>398.8827272727273</v>
+      </c>
+      <c r="D463" t="n">
+        <v>403.3042857142857</v>
+      </c>
+      <c r="E463" t="n">
+        <v>402.8527272727272</v>
+      </c>
+      <c r="F463" t="n">
+        <v>400.6427272727273</v>
+      </c>
+      <c r="G463" t="n">
+        <v>397.6827272727273</v>
+      </c>
+      <c r="H463" t="n">
+        <v>394</v>
+      </c>
+      <c r="I463" t="n">
+        <v>399.67</v>
+      </c>
+      <c r="J463" t="n">
+        <v>401.94</v>
+      </c>
+      <c r="K463" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="L463" t="n">
+        <v>392.6</v>
+      </c>
+      <c r="M463" t="n">
+        <v>402.97</v>
+      </c>
+      <c r="N463" t="n">
+        <v>404.02</v>
+      </c>
+      <c r="O463" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr"/>
+      <c r="C464" t="n">
+        <v>410.0027272727273</v>
+      </c>
+      <c r="D464" t="n">
+        <v>425.5028571428572</v>
+      </c>
+      <c r="E464" t="n">
+        <v>419.6427272727273</v>
+      </c>
+      <c r="F464" t="n">
+        <v>411.8927272727273</v>
+      </c>
+      <c r="G464" t="n">
+        <v>409.1227272727273</v>
+      </c>
+      <c r="H464" t="n">
+        <v>401.87</v>
+      </c>
+      <c r="I464" t="n">
+        <v>375.94</v>
+      </c>
+      <c r="J464" t="n">
+        <v>374.53</v>
+      </c>
+      <c r="K464" t="n">
+        <v>375.53</v>
+      </c>
+      <c r="L464" t="n">
+        <v>379.2833333333333</v>
+      </c>
+      <c r="M464" t="n">
+        <v>392.4133333333333</v>
+      </c>
+      <c r="N464" t="n">
+        <v>389.98</v>
+      </c>
+      <c r="O464" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr"/>
+      <c r="C465" t="n">
+        <v>408.3045454545455</v>
+      </c>
+      <c r="D465" t="n">
+        <v>417.5371428571429</v>
+      </c>
+      <c r="E465" t="n">
+        <v>410.1645454545454</v>
+      </c>
+      <c r="F465" t="n">
+        <v>409.2545454545455</v>
+      </c>
+      <c r="G465" t="n">
+        <v>406.3645454545455</v>
+      </c>
+      <c r="H465" t="n">
+        <v>406.97</v>
+      </c>
+      <c r="I465" t="n">
+        <v>402.23</v>
+      </c>
+      <c r="J465" t="n">
+        <v>386.27</v>
+      </c>
+      <c r="K465" t="n">
+        <v>387.13</v>
+      </c>
+      <c r="L465" t="n">
+        <v>371.94</v>
+      </c>
+      <c r="M465" t="n">
+        <v>366.89</v>
+      </c>
+      <c r="N465" t="n">
+        <v>377.15</v>
+      </c>
+      <c r="O465" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:06+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>405.51</v>
+      </c>
+      <c r="C466" t="n">
+        <v>398.6027272727272</v>
+      </c>
+      <c r="D466" t="n">
+        <v>397.3085714285714</v>
+      </c>
+      <c r="E466" t="n">
+        <v>411.1727272727272</v>
+      </c>
+      <c r="F466" t="n">
+        <v>402.1827272727273</v>
+      </c>
+      <c r="G466" t="n">
+        <v>401.5227272727273</v>
+      </c>
+      <c r="H466" t="n">
+        <v>394.3766666666667</v>
+      </c>
+      <c r="I466" t="n">
+        <v>401.64</v>
+      </c>
+      <c r="J466" t="n">
+        <v>401.75</v>
+      </c>
+      <c r="K466" t="n">
+        <v>393.08</v>
+      </c>
+      <c r="L466" t="n">
+        <v>394.9522222222223</v>
+      </c>
+      <c r="M466" t="n">
+        <v>403.4622222222222</v>
+      </c>
+      <c r="N466" t="n">
+        <v>395.41</v>
+      </c>
+      <c r="O466" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>444.09</v>
+      </c>
+      <c r="C467" t="n">
+        <v>394.180909090909</v>
+      </c>
+      <c r="D467" t="n">
+        <v>397.6142857142857</v>
+      </c>
+      <c r="E467" t="n">
+        <v>394.7209090909091</v>
+      </c>
+      <c r="F467" t="n">
+        <v>395.740909090909</v>
+      </c>
+      <c r="G467" t="n">
+        <v>396.5309090909091</v>
+      </c>
+      <c r="H467" t="n">
+        <v>394.8533333333333</v>
+      </c>
+      <c r="I467" t="n">
+        <v>389.54</v>
+      </c>
+      <c r="J467" t="n">
+        <v>394.24</v>
+      </c>
+      <c r="K467" t="n">
+        <v>389.19</v>
+      </c>
+      <c r="L467" t="n">
+        <v>388.5944444444444</v>
+      </c>
+      <c r="M467" t="n">
+        <v>395.8944444444445</v>
+      </c>
+      <c r="N467" t="n">
+        <v>392.17</v>
+      </c>
+      <c r="O467" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22593,7 +22844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B514"/>
+  <dimension ref="A1:B519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27741,6 +27992,56 @@
       </c>
       <c r="B514" t="n">
         <v>-0.38</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>-0.16</v>
       </c>
     </row>
   </sheetData>
@@ -27914,28 +28215,28 @@
         <v>0.0409</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3521451664593747</v>
+        <v>0.3793240648289494</v>
       </c>
       <c r="J2" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K2" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0533380691177453</v>
+        <v>0.06013374273017291</v>
       </c>
       <c r="M2" t="n">
-        <v>8.215654434715139</v>
+        <v>8.278408157982048</v>
       </c>
       <c r="N2" t="n">
-        <v>121.5209257814337</v>
+        <v>125.5048088950225</v>
       </c>
       <c r="O2" t="n">
-        <v>11.02365301437929</v>
+        <v>11.20289288063679</v>
       </c>
       <c r="P2" t="n">
-        <v>392.4080866274413</v>
+        <v>392.149555184947</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27992,28 +28293,28 @@
         <v>0.0562</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3705434446603717</v>
+        <v>0.3856564190962969</v>
       </c>
       <c r="J3" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K3" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08671364559371086</v>
+        <v>0.09454177424295684</v>
       </c>
       <c r="M3" t="n">
-        <v>6.807897883588859</v>
+        <v>6.809025207028203</v>
       </c>
       <c r="N3" t="n">
-        <v>81.00429092025543</v>
+        <v>80.96535610426812</v>
       </c>
       <c r="O3" t="n">
-        <v>9.000238381301655</v>
+        <v>8.998075133286459</v>
       </c>
       <c r="P3" t="n">
-        <v>386.0130970794016</v>
+        <v>385.8707807913863</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28070,28 +28371,28 @@
         <v>0.0757</v>
       </c>
       <c r="I4" t="n">
-        <v>0.426883908470848</v>
+        <v>0.4450873015069672</v>
       </c>
       <c r="J4" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K4" t="n">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1030079482680113</v>
+        <v>0.1110963860321003</v>
       </c>
       <c r="M4" t="n">
-        <v>7.11178646338551</v>
+        <v>7.157827995967597</v>
       </c>
       <c r="N4" t="n">
-        <v>89.0618352611833</v>
+        <v>90.24523695812177</v>
       </c>
       <c r="O4" t="n">
-        <v>9.437257825299852</v>
+        <v>9.499749310277707</v>
       </c>
       <c r="P4" t="n">
-        <v>389.3963526941302</v>
+        <v>389.2249893207086</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28148,28 +28449,28 @@
         <v>0.0609</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4312552616091885</v>
+        <v>0.4464324703751846</v>
       </c>
       <c r="J5" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K5" t="n">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1077999703553557</v>
+        <v>0.1157347076087755</v>
       </c>
       <c r="M5" t="n">
-        <v>7.142417063234471</v>
+        <v>7.163483958900583</v>
       </c>
       <c r="N5" t="n">
-        <v>85.69740144388896</v>
+        <v>86.01334557997093</v>
       </c>
       <c r="O5" t="n">
-        <v>9.257289097996722</v>
+        <v>9.274338013032031</v>
       </c>
       <c r="P5" t="n">
-        <v>390.0801679166775</v>
+        <v>389.9366621337552</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28226,28 +28527,28 @@
         <v>0.061</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4297706518961345</v>
+        <v>0.437999465704054</v>
       </c>
       <c r="J6" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K6" t="n">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1123052526439176</v>
+        <v>0.1180936336340934</v>
       </c>
       <c r="M6" t="n">
-        <v>6.980672792880102</v>
+        <v>6.96389080073759</v>
       </c>
       <c r="N6" t="n">
-        <v>82.33746300322279</v>
+        <v>81.92531789302954</v>
       </c>
       <c r="O6" t="n">
-        <v>9.073999283845177</v>
+        <v>9.051260569281471</v>
       </c>
       <c r="P6" t="n">
-        <v>389.2823617427352</v>
+        <v>389.2048977881748</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28304,28 +28605,28 @@
         <v>0.0593</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3598955756110064</v>
+        <v>0.3706691655098898</v>
       </c>
       <c r="J7" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K7" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08817345674140897</v>
+        <v>0.09461866678491015</v>
       </c>
       <c r="M7" t="n">
-        <v>6.721424045825451</v>
+        <v>6.7053836502259</v>
       </c>
       <c r="N7" t="n">
-        <v>76.03778781214955</v>
+        <v>75.66791175016527</v>
       </c>
       <c r="O7" t="n">
-        <v>8.719964897414986</v>
+        <v>8.698730467727188</v>
       </c>
       <c r="P7" t="n">
-        <v>388.2946341611702</v>
+        <v>388.1932730868825</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28382,28 +28683,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.363138200402544</v>
+        <v>0.3640052355117896</v>
       </c>
       <c r="J8" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K8" t="n">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09919128137142241</v>
+        <v>0.1014970422879934</v>
       </c>
       <c r="M8" t="n">
-        <v>6.411413685803973</v>
+        <v>6.390907090706362</v>
       </c>
       <c r="N8" t="n">
-        <v>65.82520302385886</v>
+        <v>65.34629709131875</v>
       </c>
       <c r="O8" t="n">
-        <v>8.113273261998444</v>
+        <v>8.083705653431398</v>
       </c>
       <c r="P8" t="n">
-        <v>388.7199475816067</v>
+        <v>388.711611452906</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28460,28 +28761,28 @@
         <v>0.0528</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2746214614399933</v>
+        <v>0.268782197415904</v>
       </c>
       <c r="J9" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K9" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05057536503500049</v>
+        <v>0.04893387213760614</v>
       </c>
       <c r="M9" t="n">
-        <v>6.986579995534067</v>
+        <v>7.004672135113613</v>
       </c>
       <c r="N9" t="n">
-        <v>76.22155083672543</v>
+        <v>76.59906035797836</v>
       </c>
       <c r="O9" t="n">
-        <v>8.730495451961787</v>
+        <v>8.752088913966674</v>
       </c>
       <c r="P9" t="n">
-        <v>389.1899767667744</v>
+        <v>389.2483075695283</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28538,28 +28839,28 @@
         <v>0.043</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2458710466106597</v>
+        <v>0.2335576551547935</v>
       </c>
       <c r="J10" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K10" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03550923443607945</v>
+        <v>0.03239305886318189</v>
       </c>
       <c r="M10" t="n">
-        <v>7.467080058607607</v>
+        <v>7.492485532961423</v>
       </c>
       <c r="N10" t="n">
-        <v>92.22366110884707</v>
+        <v>92.74153457737017</v>
       </c>
       <c r="O10" t="n">
-        <v>9.603315110358874</v>
+        <v>9.630240629255853</v>
       </c>
       <c r="P10" t="n">
-        <v>390.8029692640247</v>
+        <v>390.9208750972023</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28616,28 +28917,28 @@
         <v>0.052</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1521647001991774</v>
+        <v>0.1450746823020536</v>
       </c>
       <c r="J11" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K11" t="n">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01753046895079857</v>
+        <v>0.01619678211261311</v>
       </c>
       <c r="M11" t="n">
-        <v>6.616411258901857</v>
+        <v>6.61122262442115</v>
       </c>
       <c r="N11" t="n">
-        <v>73.0445115449911</v>
+        <v>72.95709913207055</v>
       </c>
       <c r="O11" t="n">
-        <v>8.546608189509515</v>
+        <v>8.541492792953147</v>
       </c>
       <c r="P11" t="n">
-        <v>387.7476699263868</v>
+        <v>387.8152886503456</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28694,28 +28995,28 @@
         <v>0.0475</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2321758239282455</v>
+        <v>0.2177950205067544</v>
       </c>
       <c r="J12" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K12" t="n">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03576169683259467</v>
+        <v>0.0318975987868706</v>
       </c>
       <c r="M12" t="n">
-        <v>6.872261928736261</v>
+        <v>6.892105871733511</v>
       </c>
       <c r="N12" t="n">
-        <v>82.60847047848416</v>
+        <v>82.95641989960174</v>
       </c>
       <c r="O12" t="n">
-        <v>9.088920204209307</v>
+        <v>9.108041496370213</v>
       </c>
       <c r="P12" t="n">
-        <v>385.6682857027231</v>
+        <v>385.8043219303117</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28772,28 +29073,28 @@
         <v>0.0497</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2227521101410999</v>
+        <v>0.2114083766407961</v>
       </c>
       <c r="J13" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K13" t="n">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03118179792485554</v>
+        <v>0.02811363574314862</v>
       </c>
       <c r="M13" t="n">
-        <v>7.244006549675794</v>
+        <v>7.272844978682721</v>
       </c>
       <c r="N13" t="n">
-        <v>87.04313750479103</v>
+        <v>88.43611718562228</v>
       </c>
       <c r="O13" t="n">
-        <v>9.32969117949737</v>
+        <v>9.404047914894004</v>
       </c>
       <c r="P13" t="n">
-        <v>391.5594828834481</v>
+        <v>391.6669515787069</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28850,28 +29151,28 @@
         <v>0.0452</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2373936358176252</v>
+        <v>0.2408789563499442</v>
       </c>
       <c r="J14" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K14" t="n">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02834401449122426</v>
+        <v>0.02964241109945231</v>
       </c>
       <c r="M14" t="n">
-        <v>8.033239428511209</v>
+        <v>8.016935815012276</v>
       </c>
       <c r="N14" t="n">
-        <v>108.3644422964324</v>
+        <v>108.0106611044186</v>
       </c>
       <c r="O14" t="n">
-        <v>10.40982431630968</v>
+        <v>10.39281776538098</v>
       </c>
       <c r="P14" t="n">
-        <v>384.1208632643778</v>
+        <v>384.0877689064093</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28909,7 +29210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O462"/>
+  <dimension ref="A1:O467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61607,6 +61908,383 @@
         </is>
       </c>
     </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>-34.990450978708346,173.4597111560859</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>-34.99101212764169,173.46022296519948</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>-34.99138579769608,173.46088526508356</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-34.991659578034984,173.4616509192685</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>-34.99195246294254,173.4624659038762</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>-34.99224012382043,173.46328435913537</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>-34.99251433311387,173.4640985060674</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>-34.99264768535597,173.46496249733502</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>-34.992788547488,173.4658162305819</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>-34.992912550148645,173.46667009067409</t>
+        </is>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>-34.993012432967646,173.46754253217063</t>
+        </is>
+      </c>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>-34.992938211276375,173.46835619300543</t>
+        </is>
+      </c>
+      <c r="N463" t="inlineStr">
+        <is>
+          <t>-34.9927105906499,173.46913157144053</t>
+        </is>
+      </c>
+      <c r="O463" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr"/>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>-34.99093964421877,173.46030715817562</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>-34.99121355782867,173.46100919565373</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>-34.99151988542146,173.46172185604885</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>-34.99185806888089,173.46251105596104</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>-34.99214335633921,173.4633277916439</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>-34.99244649929732,173.46412384208824</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>-34.99285554955923,173.46490077846602</t>
+        </is>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>-34.99303193903785,173.4657639635758</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>-34.99311612576536,173.4666463460497</t>
+        </is>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>-34.9931324091645,173.4675364747667</t>
+        </is>
+      </c>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>-34.99303225605126,173.4683740983612</t>
+        </is>
+      </c>
+      <c r="N464" t="inlineStr">
+        <is>
+          <t>-34.99283047165128,173.46918103134348</t>
+        </is>
+      </c>
+      <c r="O464" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr"/>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>-34.990950713469914,173.46029430072286</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>-34.99127536423374,173.46096472458507</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>-34.99159874379418,173.46168181130741</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>-34.99188020476665,173.4625004675783</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>-34.99216668696198,173.46331732008363</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>-34.99240254091253,173.4641402605804</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>-34.99262526089699,173.46496915556807</t>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>-34.99292769180344,173.46578635013776</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>-34.99301200419905,173.46665849058058</t>
+        </is>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>-34.99319856875333,173.4675331344694</t>
+        </is>
+      </c>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>-34.99325963236435,173.46841738912892</t>
+        </is>
+      </c>
+      <c r="N465" t="inlineStr">
+        <is>
+          <t>-34.992940021007236,173.4692262288042</t>
+        </is>
+      </c>
+      <c r="O465" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:06+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>-34.9904395177884,173.45972750458665</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>-34.99101395276309,173.46022084523057</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>-34.991432318732464,173.46085179201714</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>-34.99159035573274,173.46168607081785</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>-34.991939541445355,173.46247208470098</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>-34.99220764242995,173.46329893789076</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>-34.99251108651457,173.46409971867752</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>-34.992630429034065,173.46496762105372</t>
+        </is>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>-34.99279023462398,173.46581586827975</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>-34.99295859701525,173.46666471987598</t>
+        </is>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>-34.992991240676275,173.46754360213347</t>
+        </is>
+      </c>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>-34.9929338262815,173.46835535813932</t>
+        </is>
+      </c>
+      <c r="N466" t="inlineStr">
+        <is>
+          <t>-34.99278410742065,173.46916190260302</t>
+        </is>
+      </c>
+      <c r="O466" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>-34.99021392433702,173.46004930220826</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>-34.99104277545476,173.46018736622807</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>-34.991429946680796,173.46085349876955</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>-34.99172723465656,173.46161656272048</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>-34.99199359205066,173.4624462303054</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>-34.99224986669926,173.4632799861968</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>-34.99250697798622,173.46410125321947</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>-34.99273641963678,173.46493615046379</t>
+        </is>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>-34.992856920892464,173.46580154779778</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>-34.99299351364474,173.46666064727867</t>
+        </is>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>-34.99304852092699,173.46754071014965</t>
+        </is>
+      </c>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t>-34.993001244339325,173.4683681939802</t>
+        </is>
+      </c>
+      <c r="N467" t="inlineStr">
+        <is>
+          <t>-34.992811772265874,173.46917331643448</t>
+        </is>
+      </c>
+      <c r="O467" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0042/nzd0042.xlsx
+++ b/data/nzd0042/nzd0042.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O467"/>
+  <dimension ref="A1:O472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22833,6 +22833,261 @@
         </is>
       </c>
     </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:48+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>473.52</v>
+      </c>
+      <c r="C468" t="n">
+        <v>396.8881818181818</v>
+      </c>
+      <c r="D468" t="n">
+        <v>399.9514285714286</v>
+      </c>
+      <c r="E468" t="n">
+        <v>399.1581818181818</v>
+      </c>
+      <c r="F468" t="n">
+        <v>399.2381818181818</v>
+      </c>
+      <c r="G468" t="n">
+        <v>394.4481818181818</v>
+      </c>
+      <c r="H468" t="n">
+        <v>394.54</v>
+      </c>
+      <c r="I468" t="n">
+        <v>387.63</v>
+      </c>
+      <c r="J468" t="n">
+        <v>392.53</v>
+      </c>
+      <c r="K468" t="n">
+        <v>395.21</v>
+      </c>
+      <c r="L468" t="n">
+        <v>392.02</v>
+      </c>
+      <c r="M468" t="n">
+        <v>401.01</v>
+      </c>
+      <c r="N468" t="n">
+        <v>395.28</v>
+      </c>
+      <c r="O468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>386.01</v>
+      </c>
+      <c r="C469" t="n">
+        <v>383.8027272727272</v>
+      </c>
+      <c r="D469" t="n">
+        <v>394.2114285714285</v>
+      </c>
+      <c r="E469" t="n">
+        <v>397.2227272727272</v>
+      </c>
+      <c r="F469" t="n">
+        <v>392.7927272727272</v>
+      </c>
+      <c r="G469" t="n">
+        <v>387.6627272727272</v>
+      </c>
+      <c r="H469" t="n">
+        <v>389.08</v>
+      </c>
+      <c r="I469" t="n">
+        <v>388.4500000000001</v>
+      </c>
+      <c r="J469" t="n">
+        <v>386.97</v>
+      </c>
+      <c r="K469" t="n">
+        <v>383.75</v>
+      </c>
+      <c r="L469" t="n">
+        <v>381.95</v>
+      </c>
+      <c r="M469" t="n">
+        <v>384.32</v>
+      </c>
+      <c r="N469" t="n">
+        <v>384.84</v>
+      </c>
+      <c r="O469" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>393.38</v>
+      </c>
+      <c r="C470" t="n">
+        <v>391.0281818181818</v>
+      </c>
+      <c r="D470" t="n">
+        <v>392.5528571428572</v>
+      </c>
+      <c r="E470" t="n">
+        <v>401.6381818181818</v>
+      </c>
+      <c r="F470" t="n">
+        <v>392.4681818181818</v>
+      </c>
+      <c r="G470" t="n">
+        <v>392.3281818181818</v>
+      </c>
+      <c r="H470" t="n">
+        <v>387.8566666666667</v>
+      </c>
+      <c r="I470" t="n">
+        <v>392.49</v>
+      </c>
+      <c r="J470" t="n">
+        <v>393.58</v>
+      </c>
+      <c r="K470" t="n">
+        <v>386.1</v>
+      </c>
+      <c r="L470" t="n">
+        <v>387.3455555555556</v>
+      </c>
+      <c r="M470" t="n">
+        <v>393.9255555555556</v>
+      </c>
+      <c r="N470" t="n">
+        <v>391.95</v>
+      </c>
+      <c r="O470" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>401.44</v>
+      </c>
+      <c r="C471" t="n">
+        <v>396.4454545454545</v>
+      </c>
+      <c r="D471" t="n">
+        <v>399.9657142857143</v>
+      </c>
+      <c r="E471" t="n">
+        <v>398.3454545454546</v>
+      </c>
+      <c r="F471" t="n">
+        <v>397.1454545454546</v>
+      </c>
+      <c r="G471" t="n">
+        <v>395.4354545454545</v>
+      </c>
+      <c r="H471" t="n">
+        <v>396.0033333333333</v>
+      </c>
+      <c r="I471" t="n">
+        <v>388.79</v>
+      </c>
+      <c r="J471" t="n">
+        <v>394.75</v>
+      </c>
+      <c r="K471" t="n">
+        <v>388.12</v>
+      </c>
+      <c r="L471" t="n">
+        <v>393.2677777777778</v>
+      </c>
+      <c r="M471" t="n">
+        <v>397.1877777777778</v>
+      </c>
+      <c r="N471" t="n">
+        <v>395.08</v>
+      </c>
+      <c r="O471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>402.93</v>
+      </c>
+      <c r="C472" t="n">
+        <v>400.55</v>
+      </c>
+      <c r="D472" t="n">
+        <v>400.8228571428572</v>
+      </c>
+      <c r="E472" t="n">
+        <v>403.78</v>
+      </c>
+      <c r="F472" t="n">
+        <v>397.98</v>
+      </c>
+      <c r="G472" t="n">
+        <v>395.91</v>
+      </c>
+      <c r="H472" t="n">
+        <v>393.2433333333333</v>
+      </c>
+      <c r="I472" t="n">
+        <v>383.33</v>
+      </c>
+      <c r="J472" t="n">
+        <v>391.96</v>
+      </c>
+      <c r="K472" t="n">
+        <v>392.83</v>
+      </c>
+      <c r="L472" t="n">
+        <v>396.4577777777778</v>
+      </c>
+      <c r="M472" t="n">
+        <v>401.8477777777778</v>
+      </c>
+      <c r="N472" t="n">
+        <v>396.66</v>
+      </c>
+      <c r="O472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22844,7 +23099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B519"/>
+  <dimension ref="A1:B524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28042,6 +28297,56 @@
       </c>
       <c r="B519" t="n">
         <v>-0.16</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>-0.55</v>
       </c>
     </row>
   </sheetData>
@@ -28215,28 +28520,28 @@
         <v>0.0409</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3793240648289494</v>
+        <v>0.4046994575117302</v>
       </c>
       <c r="J2" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K2" t="n">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06013374273017291</v>
+        <v>0.06290304100006228</v>
       </c>
       <c r="M2" t="n">
-        <v>8.278408157982048</v>
+        <v>8.433140423857965</v>
       </c>
       <c r="N2" t="n">
-        <v>125.5048088950225</v>
+        <v>138.5299460143481</v>
       </c>
       <c r="O2" t="n">
-        <v>11.20289288063679</v>
+        <v>11.76987451141039</v>
       </c>
       <c r="P2" t="n">
-        <v>392.149555184947</v>
+        <v>391.9080739442176</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28293,28 +28598,28 @@
         <v>0.0562</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3856564190962969</v>
+        <v>0.3809110430287292</v>
       </c>
       <c r="J3" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K3" t="n">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09454177424295684</v>
+        <v>0.09417072864105647</v>
       </c>
       <c r="M3" t="n">
-        <v>6.809025207028203</v>
+        <v>6.783640192170786</v>
       </c>
       <c r="N3" t="n">
-        <v>80.96535610426812</v>
+        <v>80.45725498661182</v>
       </c>
       <c r="O3" t="n">
-        <v>8.998075133286459</v>
+        <v>8.969796819695071</v>
       </c>
       <c r="P3" t="n">
-        <v>385.8707807913863</v>
+        <v>385.9158371724364</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28371,28 +28676,28 @@
         <v>0.0757</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4450873015069672</v>
+        <v>0.4378462752548248</v>
       </c>
       <c r="J4" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K4" t="n">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1110963860321003</v>
+        <v>0.1101164927076462</v>
       </c>
       <c r="M4" t="n">
-        <v>7.157827995967597</v>
+        <v>7.107559927468641</v>
       </c>
       <c r="N4" t="n">
-        <v>90.24523695812177</v>
+        <v>89.43945658181099</v>
       </c>
       <c r="O4" t="n">
-        <v>9.499749310277707</v>
+        <v>9.457243603810308</v>
       </c>
       <c r="P4" t="n">
-        <v>389.2249893207086</v>
+        <v>389.2937847960305</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28449,28 +28754,28 @@
         <v>0.0609</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4464324703751846</v>
+        <v>0.4431980365757385</v>
       </c>
       <c r="J5" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K5" t="n">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1157347076087755</v>
+        <v>0.116781814258779</v>
       </c>
       <c r="M5" t="n">
-        <v>7.163483958900583</v>
+        <v>7.108433038475554</v>
       </c>
       <c r="N5" t="n">
-        <v>86.01334557997093</v>
+        <v>85.09486993543004</v>
       </c>
       <c r="O5" t="n">
-        <v>9.274338013032031</v>
+        <v>9.224688067107204</v>
       </c>
       <c r="P5" t="n">
-        <v>389.9366621337552</v>
+        <v>389.967530448939</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28527,28 +28832,28 @@
         <v>0.061</v>
       </c>
       <c r="I6" t="n">
-        <v>0.437999465704054</v>
+        <v>0.4278020557332455</v>
       </c>
       <c r="J6" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K6" t="n">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1180936336340934</v>
+        <v>0.1154163716233827</v>
       </c>
       <c r="M6" t="n">
-        <v>6.96389080073759</v>
+        <v>6.9329522990462</v>
       </c>
       <c r="N6" t="n">
-        <v>81.92531789302954</v>
+        <v>81.29449898788013</v>
       </c>
       <c r="O6" t="n">
-        <v>9.051260569281471</v>
+        <v>9.016346210515662</v>
       </c>
       <c r="P6" t="n">
-        <v>389.2048977881748</v>
+        <v>389.3019255104213</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28605,28 +28910,28 @@
         <v>0.0593</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3706691655098898</v>
+        <v>0.3603771119627993</v>
       </c>
       <c r="J7" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K7" t="n">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09461866678491015</v>
+        <v>0.09160305946043645</v>
       </c>
       <c r="M7" t="n">
-        <v>6.7053836502259</v>
+        <v>6.675576502924124</v>
       </c>
       <c r="N7" t="n">
-        <v>75.66791175016527</v>
+        <v>75.12029995102728</v>
       </c>
       <c r="O7" t="n">
-        <v>8.698730467727188</v>
+        <v>8.667196775834</v>
       </c>
       <c r="P7" t="n">
-        <v>388.1932730868825</v>
+        <v>388.2909710086324</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28683,28 +28988,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3640052355117896</v>
+        <v>0.3502654225331955</v>
       </c>
       <c r="J8" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K8" t="n">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1014970422879934</v>
+        <v>0.09615900646959297</v>
       </c>
       <c r="M8" t="n">
-        <v>6.390907090706362</v>
+        <v>6.381785005021437</v>
       </c>
       <c r="N8" t="n">
-        <v>65.34629709131875</v>
+        <v>65.08817524628051</v>
       </c>
       <c r="O8" t="n">
-        <v>8.083705653431398</v>
+        <v>8.067724291662458</v>
       </c>
       <c r="P8" t="n">
-        <v>388.711611452906</v>
+        <v>388.8466762005136</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28761,28 +29066,28 @@
         <v>0.0528</v>
       </c>
       <c r="I9" t="n">
-        <v>0.268782197415904</v>
+        <v>0.2499855573280348</v>
       </c>
       <c r="J9" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K9" t="n">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04893387213760614</v>
+        <v>0.04317302887855679</v>
       </c>
       <c r="M9" t="n">
-        <v>7.004672135113613</v>
+        <v>7.018536468827733</v>
       </c>
       <c r="N9" t="n">
-        <v>76.59906035797836</v>
+        <v>76.52945043340272</v>
       </c>
       <c r="O9" t="n">
-        <v>8.752088913966674</v>
+        <v>8.748111249487097</v>
       </c>
       <c r="P9" t="n">
-        <v>389.2483075695283</v>
+        <v>389.4370395259688</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28839,28 +29144,28 @@
         <v>0.043</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2335576551547935</v>
+        <v>0.2223549101567403</v>
       </c>
       <c r="J10" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K10" t="n">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03239305886318189</v>
+        <v>0.03005131052214283</v>
       </c>
       <c r="M10" t="n">
-        <v>7.492485532961423</v>
+        <v>7.466520139429257</v>
       </c>
       <c r="N10" t="n">
-        <v>92.74153457737017</v>
+        <v>92.00439658410123</v>
       </c>
       <c r="O10" t="n">
-        <v>9.630240629255853</v>
+        <v>9.591892231676773</v>
       </c>
       <c r="P10" t="n">
-        <v>390.9208750972023</v>
+        <v>391.0290206554823</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28917,28 +29222,28 @@
         <v>0.052</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1450746823020536</v>
+        <v>0.1396772912036489</v>
       </c>
       <c r="J11" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K11" t="n">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01619678211261311</v>
+        <v>0.0153551567624558</v>
       </c>
       <c r="M11" t="n">
-        <v>6.61122262442115</v>
+        <v>6.583076711505676</v>
       </c>
       <c r="N11" t="n">
-        <v>72.95709913207055</v>
+        <v>72.35308942274898</v>
       </c>
       <c r="O11" t="n">
-        <v>8.541492792953147</v>
+        <v>8.506061922108785</v>
       </c>
       <c r="P11" t="n">
-        <v>387.8152886503456</v>
+        <v>387.8671616447128</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28995,28 +29300,28 @@
         <v>0.0475</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2177950205067544</v>
+        <v>0.2150227832083006</v>
       </c>
       <c r="J12" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K12" t="n">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0318975987868706</v>
+        <v>0.03177239425316469</v>
       </c>
       <c r="M12" t="n">
-        <v>6.892105871733511</v>
+        <v>6.860967825365085</v>
       </c>
       <c r="N12" t="n">
-        <v>82.95641989960174</v>
+        <v>82.27269398934187</v>
       </c>
       <c r="O12" t="n">
-        <v>9.108041496370213</v>
+        <v>9.070429647450107</v>
       </c>
       <c r="P12" t="n">
-        <v>385.8043219303117</v>
+        <v>385.8307270203464</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29073,28 +29378,28 @@
         <v>0.0497</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2114083766407961</v>
+        <v>0.2081270423864517</v>
       </c>
       <c r="J13" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K13" t="n">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02811363574314862</v>
+        <v>0.02779248739991358</v>
       </c>
       <c r="M13" t="n">
-        <v>7.272844978682721</v>
+        <v>7.245181251319647</v>
       </c>
       <c r="N13" t="n">
-        <v>88.43611718562228</v>
+        <v>87.887334988826</v>
       </c>
       <c r="O13" t="n">
-        <v>9.404047914894004</v>
+        <v>9.374824531095289</v>
       </c>
       <c r="P13" t="n">
-        <v>391.6669515787069</v>
+        <v>391.6982865889276</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29151,28 +29456,28 @@
         <v>0.0452</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2408789563499442</v>
+        <v>0.2463460123576823</v>
       </c>
       <c r="J14" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K14" t="n">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02964241109945231</v>
+        <v>0.03164060906352262</v>
       </c>
       <c r="M14" t="n">
-        <v>8.016935815012276</v>
+        <v>7.973662043098031</v>
       </c>
       <c r="N14" t="n">
-        <v>108.0106611044186</v>
+        <v>107.0301323982684</v>
       </c>
       <c r="O14" t="n">
-        <v>10.39281776538098</v>
+        <v>10.34553683470647</v>
       </c>
       <c r="P14" t="n">
-        <v>384.0877689064093</v>
+        <v>384.0354151728288</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29210,7 +29515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O467"/>
+  <dimension ref="A1:O472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62285,6 +62590,391 @@
         </is>
       </c>
     </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:48+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>-34.990041834205854,173.46029477805402</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>-34.99102512866807,173.46020786386026</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>-34.99141181267755,173.46086654664958</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>-34.99169031660639,173.46163530999527</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>-34.99196424789688,173.4624602666996</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>-34.99226748385389,173.4632720790101</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>-34.99250967869717,173.4641002444996</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>-34.992753150383955,173.46493118278488</t>
+        </is>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>-34.99287210511574,173.46579828707237</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>-34.992939478140876,173.46666694985717</t>
+        </is>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>-34.99301765846414,173.46754226834412</t>
+        </is>
+      </c>
+      <c r="M468" t="inlineStr">
+        <is>
+          <t>-34.992955672068504,173.46835951739416</t>
+        </is>
+      </c>
+      <c r="N468" t="inlineStr">
+        <is>
+          <t>-34.99278521742988,173.46916236056526</t>
+        </is>
+      </c>
+      <c r="O468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>-34.99055354214973,173.45956485348296</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>-34.99111042341376,173.46010878959555</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>-34.99145634960964,173.46083450117365</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>-34.991706419562874,173.4616271327902</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>-34.99201832901078,173.46243439769395</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>-34.99232487994007,173.46324631764185</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>-34.992556740020426,173.46408266700925</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>-34.99274596755012,173.46493331550593</t>
+        </is>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>-34.99292147603972,173.46578768493953</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>-34.99304234306952,173.46665495191857</t>
+        </is>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>-34.993108383893755,173.46753768776497</t>
+        </is>
+      </c>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>-34.99310435605253,173.46838782564075</t>
+        </is>
+      </c>
+      <c r="N469" t="inlineStr">
+        <is>
+          <t>-34.99287435970429,173.4691991384955</t>
+        </is>
+      </c>
+      <c r="O469" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>-34.99051044681401,173.45962632731218</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>-34.99106332583868,173.46016349590522</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>-34.991469218542406,173.46082524163572</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>-34.99166968303801,173.46164578787483</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>-34.992021052135826,173.46243309512113</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>-34.99228541628657,173.46326403031208</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>-34.992567284284775,173.46407872870435</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>-34.992710578953506,173.46494382305298</t>
+        </is>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>-34.99286278146989,173.46580028927232</t>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>-34.99302124947617,173.46665741223117</t>
+        </is>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>-34.99305977276227,173.46754014206292</t>
+        </is>
+      </c>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t>-34.993018784318174,173.4683715334508</t>
+        </is>
+      </c>
+      <c r="N470" t="inlineStr">
+        <is>
+          <t>-34.992813650742974,173.469174091448</t>
+        </is>
+      </c>
+      <c r="O470" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>-34.990463316737085,173.4596935564192</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-34.99102801449273,173.46020451183034</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>-34.991411701834004,173.46086662640434</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>-34.99169707848672,173.4616318762609</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>-34.99198180709698,173.46245186748595</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>-34.992259132815136,173.46327582724481</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>-34.99249706580237,173.46410495543535</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>-34.99274298930194,173.4649341998048</t>
+        </is>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>-34.992852392264446,173.4658025202946</t>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>-34.9930031179618,173.46665952705212</t>
+        </is>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>-34.993006416639304,173.46754283592492</t>
+        </is>
+      </c>
+      <c r="M471" t="inlineStr">
+        <is>
+          <t>-34.99298972259242,173.46836600033328</t>
+        </is>
+      </c>
+      <c r="N471" t="inlineStr">
+        <is>
+          <t>-34.992786925136414,173.46916306512253</t>
+        </is>
+      </c>
+      <c r="O471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>-34.99045460410093,173.4597059846204</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-34.99100125987253,173.46023558864894</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>-34.99140505122121,173.46087141168894</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>-34.9916518631373,173.46165483694847</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>-34.99197480477486,173.4624552169556</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>-34.9922551187799,173.46327762888222</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>-34.99252085504341,173.46409607011572</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>-34.99279081646314,173.46491999899789</t>
+        </is>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>-34.99287716652347,173.46579720016365</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>-34.992960841014586,173.46666445814103</t>
+        </is>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>-34.99297767640852,173.4675442869701</t>
+        </is>
+      </c>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t>-34.992948208668714,173.4683580964251</t>
+        </is>
+      </c>
+      <c r="N472" t="inlineStr">
+        <is>
+          <t>-34.992773434254715,173.46915749912074</t>
+        </is>
+      </c>
+      <c r="O472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0042/nzd0042.xlsx
+++ b/data/nzd0042/nzd0042.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O472"/>
+  <dimension ref="A1:O473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23088,6 +23088,53 @@
         </is>
       </c>
     </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>381.15</v>
+      </c>
+      <c r="C473" t="n">
+        <v>373.27</v>
+      </c>
+      <c r="D473" t="n">
+        <v>381.7714285714285</v>
+      </c>
+      <c r="E473" t="n">
+        <v>382.87</v>
+      </c>
+      <c r="F473" t="n">
+        <v>378.34</v>
+      </c>
+      <c r="G473" t="n">
+        <v>377.69</v>
+      </c>
+      <c r="H473" t="n">
+        <v>377.16</v>
+      </c>
+      <c r="I473" t="n">
+        <v>372.71</v>
+      </c>
+      <c r="J473" t="n">
+        <v>372.81</v>
+      </c>
+      <c r="K473" t="n">
+        <v>375.8</v>
+      </c>
+      <c r="L473" t="n">
+        <v>381.8633333333333</v>
+      </c>
+      <c r="M473" t="inlineStr"/>
+      <c r="N473" t="inlineStr"/>
+      <c r="O473" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23099,7 +23146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B524"/>
+  <dimension ref="A1:B525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28347,6 +28394,16 @@
       </c>
       <c r="B524" t="n">
         <v>-0.55</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -28520,28 +28577,28 @@
         <v>0.0409</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4046994575117302</v>
+        <v>0.3933851706058694</v>
       </c>
       <c r="J2" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K2" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06290304100006228</v>
+        <v>0.05949197199472678</v>
       </c>
       <c r="M2" t="n">
-        <v>8.433140423857965</v>
+        <v>8.465303138934653</v>
       </c>
       <c r="N2" t="n">
-        <v>138.5299460143481</v>
+        <v>139.362574366504</v>
       </c>
       <c r="O2" t="n">
-        <v>11.76987451141039</v>
+        <v>11.80519268654705</v>
       </c>
       <c r="P2" t="n">
-        <v>391.9080739442176</v>
+        <v>392.016228379412</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28598,28 +28655,28 @@
         <v>0.0562</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3809110430287292</v>
+        <v>0.3706515440456749</v>
       </c>
       <c r="J3" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K3" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09417072864105647</v>
+        <v>0.08883636126646244</v>
       </c>
       <c r="M3" t="n">
-        <v>6.783640192170786</v>
+        <v>6.822171596348936</v>
       </c>
       <c r="N3" t="n">
-        <v>80.45725498661182</v>
+        <v>81.4547206267805</v>
       </c>
       <c r="O3" t="n">
-        <v>8.969796819695071</v>
+        <v>9.025226901678456</v>
       </c>
       <c r="P3" t="n">
-        <v>385.9158371724364</v>
+        <v>386.0136062527513</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28676,28 +28733,28 @@
         <v>0.0757</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4378462752548248</v>
+        <v>0.429355710963282</v>
       </c>
       <c r="J4" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K4" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1101164927076462</v>
+        <v>0.1059412483674369</v>
       </c>
       <c r="M4" t="n">
-        <v>7.107559927468641</v>
+        <v>7.129654772286953</v>
       </c>
       <c r="N4" t="n">
-        <v>89.43945658181099</v>
+        <v>90.05574930137054</v>
       </c>
       <c r="O4" t="n">
-        <v>9.457243603810308</v>
+        <v>9.489770771803213</v>
       </c>
       <c r="P4" t="n">
-        <v>389.2937847960305</v>
+        <v>389.3747065115793</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28754,28 +28811,28 @@
         <v>0.0609</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4431980365757385</v>
+        <v>0.4347981584106312</v>
       </c>
       <c r="J5" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K5" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L5" t="n">
-        <v>0.116781814258779</v>
+        <v>0.1124613986384509</v>
       </c>
       <c r="M5" t="n">
-        <v>7.108433038475554</v>
+        <v>7.136112367000897</v>
       </c>
       <c r="N5" t="n">
-        <v>85.09486993543004</v>
+        <v>85.69501511300729</v>
       </c>
       <c r="O5" t="n">
-        <v>9.224688067107204</v>
+        <v>9.257160207807106</v>
       </c>
       <c r="P5" t="n">
-        <v>389.967530448939</v>
+        <v>390.0479698639655</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28832,28 +28889,28 @@
         <v>0.061</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4278020557332455</v>
+        <v>0.418017091246803</v>
       </c>
       <c r="J6" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K6" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1154163716233827</v>
+        <v>0.109910791868997</v>
       </c>
       <c r="M6" t="n">
-        <v>6.9329522990462</v>
+        <v>6.965334799323021</v>
       </c>
       <c r="N6" t="n">
-        <v>81.29449898788013</v>
+        <v>82.22775715651018</v>
       </c>
       <c r="O6" t="n">
-        <v>9.016346210515662</v>
+        <v>9.067952203034055</v>
       </c>
       <c r="P6" t="n">
-        <v>389.3019255104213</v>
+        <v>389.395305831094</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28910,28 +28967,28 @@
         <v>0.0593</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3603771119627993</v>
+        <v>0.3514790939406168</v>
       </c>
       <c r="J7" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K7" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09160305946043645</v>
+        <v>0.08693778220222936</v>
       </c>
       <c r="M7" t="n">
-        <v>6.675576502924124</v>
+        <v>6.703732289102804</v>
       </c>
       <c r="N7" t="n">
-        <v>75.12029995102728</v>
+        <v>75.87412136809498</v>
       </c>
       <c r="O7" t="n">
-        <v>8.667196775834</v>
+        <v>8.710575260457542</v>
       </c>
       <c r="P7" t="n">
-        <v>388.2909710086324</v>
+        <v>388.3757066851289</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28988,28 +29045,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3502654225331955</v>
+        <v>0.3407159916669145</v>
       </c>
       <c r="J8" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K8" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09615900646959297</v>
+        <v>0.09056014180986494</v>
       </c>
       <c r="M8" t="n">
-        <v>6.381785005021437</v>
+        <v>6.41393578213334</v>
       </c>
       <c r="N8" t="n">
-        <v>65.08817524628051</v>
+        <v>65.96716112657103</v>
       </c>
       <c r="O8" t="n">
-        <v>8.067724291662458</v>
+        <v>8.122017060224081</v>
       </c>
       <c r="P8" t="n">
-        <v>388.8466762005136</v>
+        <v>388.9408367722937</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29066,28 +29123,28 @@
         <v>0.0528</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2499855573280348</v>
+        <v>0.2391702665967195</v>
       </c>
       <c r="J9" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K9" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04317302887855679</v>
+        <v>0.03920639391927483</v>
       </c>
       <c r="M9" t="n">
-        <v>7.018536468827733</v>
+        <v>7.05907521371207</v>
       </c>
       <c r="N9" t="n">
-        <v>76.52945043340272</v>
+        <v>77.65056280280388</v>
       </c>
       <c r="O9" t="n">
-        <v>8.748111249487097</v>
+        <v>8.811955674128409</v>
       </c>
       <c r="P9" t="n">
-        <v>389.4370395259688</v>
+        <v>389.5459431386006</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29144,28 +29201,28 @@
         <v>0.043</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2223549101567403</v>
+        <v>0.2116086617306365</v>
       </c>
       <c r="J10" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K10" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03005131052214283</v>
+        <v>0.0270343357240419</v>
       </c>
       <c r="M10" t="n">
-        <v>7.466520139429257</v>
+        <v>7.50949271433298</v>
       </c>
       <c r="N10" t="n">
-        <v>92.00439658410123</v>
+        <v>93.14614837331816</v>
       </c>
       <c r="O10" t="n">
-        <v>9.591892231676773</v>
+        <v>9.651225226535653</v>
       </c>
       <c r="P10" t="n">
-        <v>391.0290206554823</v>
+        <v>391.1330848893222</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29222,28 +29279,28 @@
         <v>0.052</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1396772912036489</v>
+        <v>0.1325132296484594</v>
       </c>
       <c r="J11" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K11" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0153551567624558</v>
+        <v>0.0137985738931512</v>
       </c>
       <c r="M11" t="n">
-        <v>6.583076711505676</v>
+        <v>6.604599658181527</v>
       </c>
       <c r="N11" t="n">
-        <v>72.35308942274898</v>
+        <v>72.76979216097585</v>
       </c>
       <c r="O11" t="n">
-        <v>8.506061922108785</v>
+        <v>8.530521212738167</v>
       </c>
       <c r="P11" t="n">
-        <v>387.8671616447128</v>
+        <v>387.9362041236785</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29300,28 +29357,28 @@
         <v>0.0475</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2150227832083006</v>
+        <v>0.2106759729103465</v>
       </c>
       <c r="J12" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K12" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03177239425316469</v>
+        <v>0.03060912080299016</v>
       </c>
       <c r="M12" t="n">
-        <v>6.860967825365085</v>
+        <v>6.869982275470738</v>
       </c>
       <c r="N12" t="n">
-        <v>82.27269398934187</v>
+        <v>82.29184328656017</v>
       </c>
       <c r="O12" t="n">
-        <v>9.070429647450107</v>
+        <v>9.071485175348091</v>
       </c>
       <c r="P12" t="n">
-        <v>385.8307270203464</v>
+        <v>385.8723186520851</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29381,7 +29438,7 @@
         <v>0.2081270423864517</v>
       </c>
       <c r="J13" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K13" t="n">
         <v>421</v>
@@ -29459,7 +29516,7 @@
         <v>0.2463460123576823</v>
       </c>
       <c r="J14" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K14" t="n">
         <v>429</v>
@@ -29515,7 +29572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O472"/>
+  <dimension ref="A1:O473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38445,7 +38502,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>-34.993021069956214,173.46665743316998</t>
+          <t>-34.99302106995622,173.46665743316998</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -60568,7 +60625,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>-34.992469139301114,173.4641153860215</t>
+          <t>-34.99246913930112,173.4641153860215</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -62884,7 +62941,7 @@
       </c>
       <c r="M471" t="inlineStr">
         <is>
-          <t>-34.99298972259242,173.46836600033328</t>
+          <t>-34.99298972259241,173.46836600033328</t>
         </is>
       </c>
       <c r="N471" t="inlineStr">
@@ -62972,6 +63029,75 @@
       <c r="O472" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>-34.9905819604953,173.45952431575293</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>-34.99117907869252,173.46002904271631</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>-34.99155287213015,173.46076505058116</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>-34.99182583404819,173.46156649308858</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>-34.992139595781026,173.46237639116086</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>-34.99240923618174,173.4632084555449</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>-34.992659481947356,173.46404429263902</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>-34.99288384291408,173.46489237760173</t>
+        </is>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>-34.9930472120564,173.46576068376822</t>
+        </is>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>-34.993113702246184,173.46664662872448</t>
+        </is>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>-34.99310916471506,173.46753764834253</t>
+        </is>
+      </c>
+      <c r="M473" t="inlineStr"/>
+      <c r="N473" t="inlineStr"/>
+      <c r="O473" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0042/nzd0042.xlsx
+++ b/data/nzd0042/nzd0042.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O473"/>
+  <dimension ref="A1:O476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23135,6 +23135,155 @@
         </is>
       </c>
     </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr"/>
+      <c r="C474" t="n">
+        <v>386.0163636363636</v>
+      </c>
+      <c r="D474" t="n">
+        <v>393.6057142857143</v>
+      </c>
+      <c r="E474" t="n">
+        <v>396.6563636363636</v>
+      </c>
+      <c r="F474" t="n">
+        <v>388.5763636363636</v>
+      </c>
+      <c r="G474" t="n">
+        <v>394.2063636363636</v>
+      </c>
+      <c r="H474" t="n">
+        <v>394.1366666666667</v>
+      </c>
+      <c r="I474" t="n">
+        <v>382.21</v>
+      </c>
+      <c r="J474" t="n">
+        <v>378.49</v>
+      </c>
+      <c r="K474" t="n">
+        <v>382.44</v>
+      </c>
+      <c r="L474" t="n">
+        <v>383.7088888888889</v>
+      </c>
+      <c r="M474" t="n">
+        <v>394.9588888888889</v>
+      </c>
+      <c r="N474" t="n">
+        <v>390.7</v>
+      </c>
+      <c r="O474" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>394.23</v>
+      </c>
+      <c r="C475" t="n">
+        <v>390.03</v>
+      </c>
+      <c r="D475" t="n">
+        <v>401.0671428571428</v>
+      </c>
+      <c r="E475" t="n">
+        <v>404.65</v>
+      </c>
+      <c r="F475" t="n">
+        <v>399.38</v>
+      </c>
+      <c r="G475" t="n">
+        <v>390.25</v>
+      </c>
+      <c r="H475" t="n">
+        <v>396.4066666666667</v>
+      </c>
+      <c r="I475" t="n">
+        <v>394.68</v>
+      </c>
+      <c r="J475" t="n">
+        <v>392.56</v>
+      </c>
+      <c r="K475" t="n">
+        <v>385.87</v>
+      </c>
+      <c r="L475" t="n">
+        <v>384.9822222222222</v>
+      </c>
+      <c r="M475" t="n">
+        <v>390.3922222222222</v>
+      </c>
+      <c r="N475" t="n">
+        <v>388.11</v>
+      </c>
+      <c r="O475" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr"/>
+      <c r="C476" t="n">
+        <v>380.7990909090909</v>
+      </c>
+      <c r="D476" t="n">
+        <v>387.4014285714285</v>
+      </c>
+      <c r="E476" t="n">
+        <v>382.8590909090909</v>
+      </c>
+      <c r="F476" t="n">
+        <v>384.7190909090909</v>
+      </c>
+      <c r="G476" t="n">
+        <v>384.449090909091</v>
+      </c>
+      <c r="H476" t="n">
+        <v>384.1733333333333</v>
+      </c>
+      <c r="I476" t="n">
+        <v>377.49</v>
+      </c>
+      <c r="J476" t="n">
+        <v>380.68</v>
+      </c>
+      <c r="K476" t="n">
+        <v>384.79</v>
+      </c>
+      <c r="L476" t="n">
+        <v>381.4111111111111</v>
+      </c>
+      <c r="M476" t="n">
+        <v>396.4211111111111</v>
+      </c>
+      <c r="N476" t="n">
+        <v>393.11</v>
+      </c>
+      <c r="O476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23146,7 +23295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B525"/>
+  <dimension ref="A1:B528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28404,6 +28553,36 @@
       </c>
       <c r="B525" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -28577,28 +28756,28 @@
         <v>0.0409</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3933851706058694</v>
+        <v>0.389165466906902</v>
       </c>
       <c r="J2" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K2" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05949197199472678</v>
+        <v>0.05855826925593965</v>
       </c>
       <c r="M2" t="n">
-        <v>8.465303138934653</v>
+        <v>8.463370155508407</v>
       </c>
       <c r="N2" t="n">
-        <v>139.362574366504</v>
+        <v>139.1566507817165</v>
       </c>
       <c r="O2" t="n">
-        <v>11.80519268654705</v>
+        <v>11.79646772477747</v>
       </c>
       <c r="P2" t="n">
-        <v>392.016228379412</v>
+        <v>392.0566065900652</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28655,28 +28834,28 @@
         <v>0.0562</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3706515440456749</v>
+        <v>0.3572473989711101</v>
       </c>
       <c r="J3" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K3" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08883636126646244</v>
+        <v>0.08346269563999076</v>
       </c>
       <c r="M3" t="n">
-        <v>6.822171596348936</v>
+        <v>6.847015882442719</v>
       </c>
       <c r="N3" t="n">
-        <v>81.4547206267805</v>
+        <v>81.66977524091294</v>
       </c>
       <c r="O3" t="n">
-        <v>9.025226901678456</v>
+        <v>9.037133131746646</v>
       </c>
       <c r="P3" t="n">
-        <v>386.0136062527513</v>
+        <v>386.1415085001267</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28733,28 +28912,28 @@
         <v>0.0757</v>
       </c>
       <c r="I4" t="n">
-        <v>0.429355710963282</v>
+        <v>0.420784783517443</v>
       </c>
       <c r="J4" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K4" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1059412483674369</v>
+        <v>0.1030363482744483</v>
       </c>
       <c r="M4" t="n">
-        <v>7.129654772286953</v>
+        <v>7.122581919541166</v>
       </c>
       <c r="N4" t="n">
-        <v>90.05574930137054</v>
+        <v>89.93075641889723</v>
       </c>
       <c r="O4" t="n">
-        <v>9.489770771803213</v>
+        <v>9.483182821125892</v>
       </c>
       <c r="P4" t="n">
-        <v>389.3747065115793</v>
+        <v>389.4565140942229</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28811,28 +28990,28 @@
         <v>0.0609</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4347981584106312</v>
+        <v>0.426025987918093</v>
       </c>
       <c r="J5" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K5" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1124613986384509</v>
+        <v>0.1089312186662965</v>
       </c>
       <c r="M5" t="n">
-        <v>7.136112367000897</v>
+        <v>7.14847485511309</v>
       </c>
       <c r="N5" t="n">
-        <v>85.69501511300729</v>
+        <v>85.9580039704239</v>
       </c>
       <c r="O5" t="n">
-        <v>9.257160207807106</v>
+        <v>9.271353944835884</v>
       </c>
       <c r="P5" t="n">
-        <v>390.0479698639655</v>
+        <v>390.132129429797</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28889,28 +29068,28 @@
         <v>0.061</v>
       </c>
       <c r="I6" t="n">
-        <v>0.418017091246803</v>
+        <v>0.405826614316398</v>
       </c>
       <c r="J6" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K6" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L6" t="n">
-        <v>0.109910791868997</v>
+        <v>0.1046404581293758</v>
       </c>
       <c r="M6" t="n">
-        <v>6.965334799323021</v>
+        <v>6.977687596488471</v>
       </c>
       <c r="N6" t="n">
-        <v>82.22775715651018</v>
+        <v>82.51523875861101</v>
       </c>
       <c r="O6" t="n">
-        <v>9.067952203034055</v>
+        <v>9.08378988961166</v>
       </c>
       <c r="P6" t="n">
-        <v>389.395305831094</v>
+        <v>389.5117932177292</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28967,28 +29146,28 @@
         <v>0.0593</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3514790939406168</v>
+        <v>0.3411712711992498</v>
       </c>
       <c r="J7" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K7" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08693778220222936</v>
+        <v>0.08289931184979138</v>
       </c>
       <c r="M7" t="n">
-        <v>6.703732289102804</v>
+        <v>6.708388165462987</v>
       </c>
       <c r="N7" t="n">
-        <v>75.87412136809498</v>
+        <v>75.87668328264627</v>
       </c>
       <c r="O7" t="n">
-        <v>8.710575260457542</v>
+        <v>8.710722316929077</v>
       </c>
       <c r="P7" t="n">
-        <v>388.3757066851289</v>
+        <v>388.4740233639727</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29045,28 +29224,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3407159916669145</v>
+        <v>0.3323284279630239</v>
       </c>
       <c r="J8" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K8" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09056014180986494</v>
+        <v>0.08712691931842842</v>
       </c>
       <c r="M8" t="n">
-        <v>6.41393578213334</v>
+        <v>6.409619734752375</v>
       </c>
       <c r="N8" t="n">
-        <v>65.96716112657103</v>
+        <v>65.9655807493513</v>
       </c>
       <c r="O8" t="n">
-        <v>8.122017060224081</v>
+        <v>8.121919769940559</v>
       </c>
       <c r="P8" t="n">
-        <v>388.9408367722937</v>
+        <v>389.0236825130761</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29123,28 +29302,28 @@
         <v>0.0528</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2391702665967195</v>
+        <v>0.2241545729926304</v>
       </c>
       <c r="J9" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K9" t="n">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03920639391927483</v>
+        <v>0.03455770643256073</v>
       </c>
       <c r="M9" t="n">
-        <v>7.05907521371207</v>
+        <v>7.088934638711918</v>
       </c>
       <c r="N9" t="n">
-        <v>77.65056280280388</v>
+        <v>78.32303220187652</v>
       </c>
       <c r="O9" t="n">
-        <v>8.811955674128409</v>
+        <v>8.85003006785155</v>
       </c>
       <c r="P9" t="n">
-        <v>389.5459431386006</v>
+        <v>389.6973384971551</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29201,28 +29380,28 @@
         <v>0.043</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2116086617306365</v>
+        <v>0.1948573471224611</v>
       </c>
       <c r="J10" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K10" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0270343357240419</v>
+        <v>0.02300684865551605</v>
       </c>
       <c r="M10" t="n">
-        <v>7.50949271433298</v>
+        <v>7.551011496417394</v>
       </c>
       <c r="N10" t="n">
-        <v>93.14614837331816</v>
+        <v>93.87789055177205</v>
       </c>
       <c r="O10" t="n">
-        <v>9.651225226535653</v>
+        <v>9.689060354429218</v>
       </c>
       <c r="P10" t="n">
-        <v>391.1330848893222</v>
+        <v>391.2954805947355</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29279,28 +29458,28 @@
         <v>0.052</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1325132296484594</v>
+        <v>0.1231101051602417</v>
       </c>
       <c r="J11" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K11" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0137985738931512</v>
+        <v>0.01204859146559678</v>
       </c>
       <c r="M11" t="n">
-        <v>6.604599658181527</v>
+        <v>6.605839256822079</v>
       </c>
       <c r="N11" t="n">
-        <v>72.76979216097585</v>
+        <v>72.60502353963496</v>
       </c>
       <c r="O11" t="n">
-        <v>8.530521212738167</v>
+        <v>8.520858145728925</v>
       </c>
       <c r="P11" t="n">
-        <v>387.9362041236785</v>
+        <v>388.0269191781241</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29357,28 +29536,28 @@
         <v>0.0475</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2106759729103465</v>
+        <v>0.1999982855118208</v>
       </c>
       <c r="J12" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K12" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03060912080299016</v>
+        <v>0.02791565479819602</v>
       </c>
       <c r="M12" t="n">
-        <v>6.869982275470738</v>
+        <v>6.884164408951246</v>
       </c>
       <c r="N12" t="n">
-        <v>82.29184328656017</v>
+        <v>82.16003582059167</v>
       </c>
       <c r="O12" t="n">
-        <v>9.071485175348091</v>
+        <v>9.064217330834012</v>
       </c>
       <c r="P12" t="n">
-        <v>385.8723186520851</v>
+        <v>385.9746158123284</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29435,28 +29614,28 @@
         <v>0.0497</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2081270423864517</v>
+        <v>0.203932801821696</v>
       </c>
       <c r="J13" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K13" t="n">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02779248739991358</v>
+        <v>0.02706460307192571</v>
       </c>
       <c r="M13" t="n">
-        <v>7.245181251319647</v>
+        <v>7.21594592561027</v>
       </c>
       <c r="N13" t="n">
-        <v>87.887334988826</v>
+        <v>87.38132363002413</v>
       </c>
       <c r="O13" t="n">
-        <v>9.374824531095289</v>
+        <v>9.347797795739066</v>
       </c>
       <c r="P13" t="n">
-        <v>391.6982865889276</v>
+        <v>391.7385195906593</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29513,28 +29692,28 @@
         <v>0.0452</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2463460123576823</v>
+        <v>0.246646997701031</v>
       </c>
       <c r="J14" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K14" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03164060906352262</v>
+        <v>0.0321602614778288</v>
       </c>
       <c r="M14" t="n">
-        <v>7.973662043098031</v>
+        <v>7.930301187927754</v>
       </c>
       <c r="N14" t="n">
-        <v>107.0301323982684</v>
+        <v>106.3161062075061</v>
       </c>
       <c r="O14" t="n">
-        <v>10.34553683470647</v>
+        <v>10.31097018749963</v>
       </c>
       <c r="P14" t="n">
-        <v>384.0354151728288</v>
+        <v>384.0325111223149</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29572,7 +29751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O473"/>
+  <dimension ref="A1:O476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63101,6 +63280,229 @@
         </is>
       </c>
     </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr"/>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>-34.991095994302704,173.46012554977634</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>-34.991461049375005,173.4608311195684</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>-34.991711131700804,173.46162473992968</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>-34.99205370675187,173.46241747518658</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>-34.992269529320076,173.46327116093408</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>-34.99251315514421,173.46409894604096</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>-34.99280062716264,173.46491708600982</t>
+        </is>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>-34.99299677557609,173.4657715147562</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>-34.993054101625766,173.46665358042463</t>
+        </is>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>-34.99309253722553,173.46753848783808</t>
+        </is>
+      </c>
+      <c r="M474" t="inlineStr">
+        <is>
+          <t>-34.993009578798834,173.46836978079392</t>
+        </is>
+      </c>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>-34.992824323908195,173.46917849493468</t>
+        </is>
+      </c>
+      <c r="O474" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>-34.99050547652227,173.45963341723404</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>-34.99106983227414,173.46015593834375</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>-34.99140315579653,173.46087277549492</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>-34.99164462474789,173.4616585126534</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>-34.99196305795976,173.4624608358903</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>-34.992302994991476,173.46325614037568</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>-34.992493589355256,173.46410625389348</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>-34.992691395530656,173.46494951897208</t>
+        </is>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>-34.992871838725854,173.46579834427808</t>
+        </is>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>-34.993023313955526,173.46665717143466</t>
+        </is>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>-34.99308106515868,173.46753906704436</t>
+        </is>
+      </c>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>-34.99305026125501,173.4683775264096</t>
+        </is>
+      </c>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>-34.992846438705946,173.46918761896268</t>
+        </is>
+      </c>
+      <c r="O475" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr"/>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>-34.991130001965686,173.4600860480513</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>-34.99150918871145,173.4607964820189</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>-34.991825924811664,173.46156644699803</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>-34.9920860715094,173.46240199388916</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>-34.9923520631059,173.46323411687422</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>-34.99259903200089,173.46406687085934</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>-34.99284197225249,173.4649048098385</t>
+        </is>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>-34.99297732911591,173.46577569078505</t>
+        </is>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>-34.993033008032484,173.4666560407379</t>
+        </is>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>-34.99311323900056,173.46753744263827</t>
+        </is>
+      </c>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t>-34.99299655249394,173.46836730069091</t>
+        </is>
+      </c>
+      <c r="N476" t="inlineStr">
+        <is>
+          <t>-34.99280374604548,173.46917000501344</t>
+        </is>
+      </c>
+      <c r="O476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0042/nzd0042.xlsx
+++ b/data/nzd0042/nzd0042.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O476"/>
+  <dimension ref="A1:O481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23284,6 +23284,257 @@
         </is>
       </c>
     </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr"/>
+      <c r="C477" t="n">
+        <v>392.21</v>
+      </c>
+      <c r="D477" t="n">
+        <v>390.8485714285715</v>
+      </c>
+      <c r="E477" t="n">
+        <v>392.89</v>
+      </c>
+      <c r="F477" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="G477" t="n">
+        <v>387.47</v>
+      </c>
+      <c r="H477" t="n">
+        <v>387.8133333333333</v>
+      </c>
+      <c r="I477" t="n">
+        <v>377.22</v>
+      </c>
+      <c r="J477" t="n">
+        <v>383.45</v>
+      </c>
+      <c r="K477" t="n">
+        <v>391.65</v>
+      </c>
+      <c r="L477" t="n">
+        <v>384.6644444444445</v>
+      </c>
+      <c r="M477" t="n">
+        <v>397.0544444444445</v>
+      </c>
+      <c r="N477" t="n">
+        <v>392.3</v>
+      </c>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>397.59</v>
+      </c>
+      <c r="C478" t="n">
+        <v>389.4936363636364</v>
+      </c>
+      <c r="D478" t="n">
+        <v>396.7242857142857</v>
+      </c>
+      <c r="E478" t="n">
+        <v>402.0736363636364</v>
+      </c>
+      <c r="F478" t="n">
+        <v>394.0636363636364</v>
+      </c>
+      <c r="G478" t="n">
+        <v>392.0636363636364</v>
+      </c>
+      <c r="H478" t="n">
+        <v>393.9933333333333</v>
+      </c>
+      <c r="I478" t="n">
+        <v>392.14</v>
+      </c>
+      <c r="J478" t="n">
+        <v>391.43</v>
+      </c>
+      <c r="K478" t="n">
+        <v>386.48</v>
+      </c>
+      <c r="L478" t="n">
+        <v>386.7611111111111</v>
+      </c>
+      <c r="M478" t="n">
+        <v>391.5211111111111</v>
+      </c>
+      <c r="N478" t="n">
+        <v>387.26</v>
+      </c>
+      <c r="O478" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>401.04</v>
+      </c>
+      <c r="C479" t="n">
+        <v>390.3809090909091</v>
+      </c>
+      <c r="D479" t="n">
+        <v>391.1214285714286</v>
+      </c>
+      <c r="E479" t="n">
+        <v>401.3109090909091</v>
+      </c>
+      <c r="F479" t="n">
+        <v>393.9509090909091</v>
+      </c>
+      <c r="G479" t="n">
+        <v>392.6909090909091</v>
+      </c>
+      <c r="H479" t="n">
+        <v>389.14</v>
+      </c>
+      <c r="I479" t="n">
+        <v>392.32</v>
+      </c>
+      <c r="J479" t="n">
+        <v>394</v>
+      </c>
+      <c r="K479" t="n">
+        <v>386.35</v>
+      </c>
+      <c r="L479" t="n">
+        <v>387.2166666666667</v>
+      </c>
+      <c r="M479" t="n">
+        <v>390.9166666666667</v>
+      </c>
+      <c r="N479" t="n">
+        <v>387.51</v>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>385.52</v>
+      </c>
+      <c r="C480" t="n">
+        <v>391.0118181818182</v>
+      </c>
+      <c r="D480" t="n">
+        <v>387.0771428571429</v>
+      </c>
+      <c r="E480" t="n">
+        <v>408.1318181818182</v>
+      </c>
+      <c r="F480" t="n">
+        <v>394.1918181818182</v>
+      </c>
+      <c r="G480" t="n">
+        <v>387.6818181818182</v>
+      </c>
+      <c r="H480" t="n">
+        <v>394.7766666666667</v>
+      </c>
+      <c r="I480" t="n">
+        <v>385.77</v>
+      </c>
+      <c r="J480" t="n">
+        <v>384.04</v>
+      </c>
+      <c r="K480" t="n">
+        <v>378.76</v>
+      </c>
+      <c r="L480" t="n">
+        <v>383.4955555555555</v>
+      </c>
+      <c r="M480" t="n">
+        <v>386.0055555555555</v>
+      </c>
+      <c r="N480" t="inlineStr"/>
+      <c r="O480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>389.67</v>
+      </c>
+      <c r="C481" t="n">
+        <v>384.1654545454546</v>
+      </c>
+      <c r="D481" t="n">
+        <v>393.3028571428572</v>
+      </c>
+      <c r="E481" t="n">
+        <v>390.4754545454546</v>
+      </c>
+      <c r="F481" t="n">
+        <v>392.2854545454546</v>
+      </c>
+      <c r="G481" t="n">
+        <v>391.9654545454546</v>
+      </c>
+      <c r="H481" t="n">
+        <v>390.4866666666667</v>
+      </c>
+      <c r="I481" t="n">
+        <v>384.63</v>
+      </c>
+      <c r="J481" t="n">
+        <v>387.4</v>
+      </c>
+      <c r="K481" t="n">
+        <v>383.09</v>
+      </c>
+      <c r="L481" t="n">
+        <v>381.7388888888889</v>
+      </c>
+      <c r="M481" t="n">
+        <v>390.1988888888889</v>
+      </c>
+      <c r="N481" t="n">
+        <v>377.12</v>
+      </c>
+      <c r="O481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23295,7 +23546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B528"/>
+  <dimension ref="A1:B533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28583,6 +28834,56 @@
       </c>
       <c r="B528" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>-0.88</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>-0.41</v>
       </c>
     </row>
   </sheetData>
@@ -28756,28 +29057,28 @@
         <v>0.0409</v>
       </c>
       <c r="I2" t="n">
-        <v>0.389165466906902</v>
+        <v>0.3712097042948542</v>
       </c>
       <c r="J2" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K2" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05855826925593965</v>
+        <v>0.05432563941554824</v>
       </c>
       <c r="M2" t="n">
-        <v>8.463370155508407</v>
+        <v>8.460955914485714</v>
       </c>
       <c r="N2" t="n">
-        <v>139.1566507817165</v>
+        <v>138.8594816945461</v>
       </c>
       <c r="O2" t="n">
-        <v>11.79646772477747</v>
+        <v>11.78386531213532</v>
       </c>
       <c r="P2" t="n">
-        <v>392.0566065900652</v>
+        <v>392.2291544011527</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28834,28 +29135,28 @@
         <v>0.0562</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3572473989711101</v>
+        <v>0.3443179209840129</v>
       </c>
       <c r="J3" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K3" t="n">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08346269563999076</v>
+        <v>0.07933052776872818</v>
       </c>
       <c r="M3" t="n">
-        <v>6.847015882442719</v>
+        <v>6.837431124782865</v>
       </c>
       <c r="N3" t="n">
-        <v>81.66977524091294</v>
+        <v>81.21037894221631</v>
       </c>
       <c r="O3" t="n">
-        <v>9.037133131746646</v>
+        <v>9.011680139808353</v>
       </c>
       <c r="P3" t="n">
-        <v>386.1415085001267</v>
+        <v>386.2653048124521</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28912,28 +29213,28 @@
         <v>0.0757</v>
       </c>
       <c r="I4" t="n">
-        <v>0.420784783517443</v>
+        <v>0.4024377517699513</v>
       </c>
       <c r="J4" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K4" t="n">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1030363482744483</v>
+        <v>0.09627462666143083</v>
       </c>
       <c r="M4" t="n">
-        <v>7.122581919541166</v>
+        <v>7.126501226687687</v>
       </c>
       <c r="N4" t="n">
-        <v>89.93075641889723</v>
+        <v>89.82542792898752</v>
       </c>
       <c r="O4" t="n">
-        <v>9.483182821125892</v>
+        <v>9.477627758515711</v>
       </c>
       <c r="P4" t="n">
-        <v>389.4565140942229</v>
+        <v>389.6321313231984</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28990,28 +29291,28 @@
         <v>0.0609</v>
       </c>
       <c r="I5" t="n">
-        <v>0.426025987918093</v>
+        <v>0.4212671258973227</v>
       </c>
       <c r="J5" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K5" t="n">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1089312186662965</v>
+        <v>0.1085000473579102</v>
       </c>
       <c r="M5" t="n">
-        <v>7.14847485511309</v>
+        <v>7.129213225816982</v>
       </c>
       <c r="N5" t="n">
-        <v>85.9580039704239</v>
+        <v>85.5038160375624</v>
       </c>
       <c r="O5" t="n">
-        <v>9.271353944835884</v>
+        <v>9.246827349829909</v>
       </c>
       <c r="P5" t="n">
-        <v>390.132129429797</v>
+        <v>390.1778929428569</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29068,28 +29369,28 @@
         <v>0.061</v>
       </c>
       <c r="I6" t="n">
-        <v>0.405826614316398</v>
+        <v>0.3904686889092975</v>
       </c>
       <c r="J6" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K6" t="n">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1046404581293758</v>
+        <v>0.09905929364774235</v>
       </c>
       <c r="M6" t="n">
-        <v>6.977687596488471</v>
+        <v>6.974222599001714</v>
       </c>
       <c r="N6" t="n">
-        <v>82.51523875861101</v>
+        <v>82.19201222880397</v>
       </c>
       <c r="O6" t="n">
-        <v>9.08378988961166</v>
+        <v>9.065981040615736</v>
       </c>
       <c r="P6" t="n">
-        <v>389.5117932177292</v>
+        <v>389.658959590995</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29146,28 +29447,28 @@
         <v>0.0593</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3411712711992498</v>
+        <v>0.3263951108454315</v>
       </c>
       <c r="J7" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K7" t="n">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08289931184979138</v>
+        <v>0.07753166187824878</v>
       </c>
       <c r="M7" t="n">
-        <v>6.708388165462987</v>
+        <v>6.705988444542042</v>
       </c>
       <c r="N7" t="n">
-        <v>75.87668328264627</v>
+        <v>75.59900019393272</v>
       </c>
       <c r="O7" t="n">
-        <v>8.710722316929077</v>
+        <v>8.694768553212485</v>
       </c>
       <c r="P7" t="n">
-        <v>388.4740233639727</v>
+        <v>388.6153338314475</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29224,28 +29525,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3323284279630239</v>
+        <v>0.318309365192619</v>
       </c>
       <c r="J8" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K8" t="n">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08712691931842842</v>
+        <v>0.08164749856143816</v>
       </c>
       <c r="M8" t="n">
-        <v>6.409619734752375</v>
+        <v>6.403338495719314</v>
       </c>
       <c r="N8" t="n">
-        <v>65.9655807493513</v>
+        <v>65.73892877875178</v>
       </c>
       <c r="O8" t="n">
-        <v>8.121919769940559</v>
+        <v>8.107954660625069</v>
       </c>
       <c r="P8" t="n">
-        <v>389.0236825130761</v>
+        <v>389.1624657091888</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29302,28 +29603,28 @@
         <v>0.0528</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2241545729926304</v>
+        <v>0.2039704888009793</v>
       </c>
       <c r="J9" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K9" t="n">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03455770643256073</v>
+        <v>0.02897004066699571</v>
       </c>
       <c r="M9" t="n">
-        <v>7.088934638711918</v>
+        <v>7.115800386785968</v>
       </c>
       <c r="N9" t="n">
-        <v>78.32303220187652</v>
+        <v>78.71603044209084</v>
       </c>
       <c r="O9" t="n">
-        <v>8.85003006785155</v>
+        <v>8.872205500442989</v>
       </c>
       <c r="P9" t="n">
-        <v>389.6973384971551</v>
+        <v>389.9014313956192</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29380,28 +29681,28 @@
         <v>0.043</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1948573471224611</v>
+        <v>0.1771626258463836</v>
       </c>
       <c r="J10" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K10" t="n">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02300684865551605</v>
+        <v>0.01933958525531243</v>
       </c>
       <c r="M10" t="n">
-        <v>7.551011496417394</v>
+        <v>7.562504428352503</v>
       </c>
       <c r="N10" t="n">
-        <v>93.87789055177205</v>
+        <v>93.75306106556467</v>
       </c>
       <c r="O10" t="n">
-        <v>9.689060354429218</v>
+        <v>9.682616436974289</v>
       </c>
       <c r="P10" t="n">
-        <v>391.2954805947355</v>
+        <v>391.467602262868</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29458,28 +29759,28 @@
         <v>0.052</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1231101051602417</v>
+        <v>0.1101488957642533</v>
       </c>
       <c r="J11" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K11" t="n">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01204859146559678</v>
+        <v>0.00981661855495719</v>
       </c>
       <c r="M11" t="n">
-        <v>6.605839256822079</v>
+        <v>6.597833482444767</v>
       </c>
       <c r="N11" t="n">
-        <v>72.60502353963496</v>
+        <v>72.36369222825817</v>
       </c>
       <c r="O11" t="n">
-        <v>8.520858145728925</v>
+        <v>8.506685149237521</v>
       </c>
       <c r="P11" t="n">
-        <v>388.0269191781241</v>
+        <v>388.1524954614883</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29536,28 +29837,28 @@
         <v>0.0475</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1999982855118208</v>
+        <v>0.186132218642994</v>
       </c>
       <c r="J12" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K12" t="n">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02791565479819602</v>
+        <v>0.02469112913388372</v>
       </c>
       <c r="M12" t="n">
-        <v>6.884164408951246</v>
+        <v>6.886564785112884</v>
       </c>
       <c r="N12" t="n">
-        <v>82.16003582059167</v>
+        <v>81.69816465197273</v>
       </c>
       <c r="O12" t="n">
-        <v>9.064217330834012</v>
+        <v>9.038703704180856</v>
       </c>
       <c r="P12" t="n">
-        <v>385.9746158123284</v>
+        <v>386.1079257082152</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29614,28 +29915,28 @@
         <v>0.0497</v>
       </c>
       <c r="I13" t="n">
-        <v>0.203932801821696</v>
+        <v>0.191273777887643</v>
       </c>
       <c r="J13" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K13" t="n">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02706460307192571</v>
+        <v>0.0243039984658604</v>
       </c>
       <c r="M13" t="n">
-        <v>7.21594592561027</v>
+        <v>7.198674878859246</v>
       </c>
       <c r="N13" t="n">
-        <v>87.38132363002413</v>
+        <v>86.89909209928936</v>
       </c>
       <c r="O13" t="n">
-        <v>9.347797795739066</v>
+        <v>9.321968252428741</v>
       </c>
       <c r="P13" t="n">
-        <v>391.7385195906593</v>
+        <v>391.860442033513</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29692,28 +29993,28 @@
         <v>0.0452</v>
       </c>
       <c r="I14" t="n">
-        <v>0.246646997701031</v>
+        <v>0.2391127472615481</v>
       </c>
       <c r="J14" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K14" t="n">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0321602614778288</v>
+        <v>0.03072208196567605</v>
       </c>
       <c r="M14" t="n">
-        <v>7.930301187927754</v>
+        <v>7.911441852728614</v>
       </c>
       <c r="N14" t="n">
-        <v>106.3161062075061</v>
+        <v>105.7936161191698</v>
       </c>
       <c r="O14" t="n">
-        <v>10.31097018749963</v>
+        <v>10.28560237026348</v>
       </c>
       <c r="P14" t="n">
-        <v>384.0325111223149</v>
+        <v>384.1052734444185</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29751,7 +30052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O476"/>
+  <dimension ref="A1:O481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63503,6 +63804,383 @@
         </is>
       </c>
     </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr"/>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>-34.99105562240812,173.46017244383617</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>-34.9914824421737,173.46081572687928</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>-34.991742467795014,173.46160882720824</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>-34.99204679596435,173.46242078087803</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>-34.99232651016108,173.46324558594117</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>-34.992567657787326,173.46407858920034</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>-34.99284433733174,173.4649041075995</t>
+        </is>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>-34.992952732451386,173.46578097279146</t>
+        </is>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>-34.99297143269142,173.46666322275192</t>
+        </is>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>-34.993083928170115,173.4675389224955</t>
+        </is>
+      </c>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>-34.99299091040137,173.4683662264824</t>
+        </is>
+      </c>
+      <c r="N477" t="inlineStr">
+        <is>
+          <t>-34.99281066225667,173.46917285847198</t>
+        </is>
+      </c>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>-34.990485829247426,173.4596614432698</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>-34.99107332844601,173.46015187735853</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>-34.991436852233015,173.460848530046</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>-34.99166606006165,173.46164762764863</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>-34.992007665344495,173.46243949852453</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>-34.99228765399575,173.46326302595028</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>-34.992514390575806,173.46409848460527</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>-34.99271364479731,173.46494291274604</t>
+        </is>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>-34.99288187274468,173.4657961895291</t>
+        </is>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>-34.99301783859724,173.46665781006885</t>
+        </is>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>-34.993065038300834,173.46753987621446</t>
+        </is>
+      </c>
+      <c r="M478" t="inlineStr">
+        <is>
+          <t>-34.99304020447273,173.4683756116776</t>
+        </is>
+      </c>
+      <c r="N478" t="inlineStr">
+        <is>
+          <t>-34.992853696457935,173.46919061333588</t>
+        </is>
+      </c>
+      <c r="O478" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>-34.99046565569958,173.45969021998894</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>-34.99106754494806,173.46015859519156</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>-34.991480325062604,173.46081725019758</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>-34.99167240594298,173.46164440516375</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>-34.992008611191864,173.4624390460904</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>-34.992282348087365,173.4632654074266</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>-34.992556222863044,173.4640828601686</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>-34.992712068077644,173.46494338090392</t>
+        </is>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>-34.992859052011525,173.46580109015218</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>-34.99301900547687,173.46665767396647</t>
+        </is>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>-34.9930609339837,173.46754008343476</t>
+        </is>
+      </c>
+      <c r="M479" t="inlineStr">
+        <is>
+          <t>-34.99304558920655,173.4683766368884</t>
+        </is>
+      </c>
+      <c r="N479" t="inlineStr">
+        <is>
+          <t>-34.992851561825,173.46918973263783</t>
+        </is>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>-34.99055640737449,173.45956076634684</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-34.99106343250157,173.46016337201078</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>-34.991511704858844,173.46079467158177</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>-34.99161565606186,173.46167322314847</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>-34.99200658982449,173.46244001298592</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>-34.99232471845591,173.46324639012164</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>-34.99250763879847,173.46410100640503</t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>-34.992769443153236,173.46492634514803</t>
+        </is>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>-34.99294749345059,173.46578209783934</t>
+        </is>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>-34.99308713329503,173.46664972767633</t>
+        </is>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>-34.993094459247196,173.46753839079827</t>
+        </is>
+      </c>
+      <c r="M480" t="inlineStr">
+        <is>
+          <t>-34.99308934016834,173.4683849667311</t>
+        </is>
+      </c>
+      <c r="N480" t="inlineStr"/>
+      <c r="O480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>-34.99053214067072,173.4595953818784</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-34.99110805905445,173.46011153592536</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>-34.99146339925765,173.46082942876563</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>-34.99176255677921,173.46159862585316</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>-34.99202258532388,173.4624323617398</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>-34.992288484485755,173.46326265319743</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>-34.99254461555279,173.46408719552207</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>-34.992779429043985,173.46492338014383</t>
+        </is>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>-34.992917657784844,173.4657885048891</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>-34.99304826722763,173.46665426093693</t>
+        </is>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>-34.993110285894346,173.46753759173598</t>
+        </is>
+      </c>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>-34.99305198357795,173.46837785432638</t>
+        </is>
+      </c>
+      <c r="N481" t="inlineStr">
+        <is>
+          <t>-34.99294027716314,173.46922633448816</t>
+        </is>
+      </c>
+      <c r="O481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0042/nzd0042.xlsx
+++ b/data/nzd0042/nzd0042.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O481"/>
+  <dimension ref="A1:O485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23535,6 +23535,208 @@
         </is>
       </c>
     </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>384.65</v>
+      </c>
+      <c r="C482" t="n">
+        <v>381.8163636363636</v>
+      </c>
+      <c r="D482" t="n">
+        <v>391.9257142857143</v>
+      </c>
+      <c r="E482" t="n">
+        <v>395.4363636363637</v>
+      </c>
+      <c r="F482" t="n">
+        <v>395.8363636363636</v>
+      </c>
+      <c r="G482" t="n">
+        <v>392.1963636363636</v>
+      </c>
+      <c r="H482" t="n">
+        <v>392.6</v>
+      </c>
+      <c r="I482" t="n">
+        <v>391.43</v>
+      </c>
+      <c r="J482" t="n">
+        <v>384.26</v>
+      </c>
+      <c r="K482" t="n">
+        <v>377.37</v>
+      </c>
+      <c r="L482" t="n">
+        <v>377.8</v>
+      </c>
+      <c r="M482" t="n">
+        <v>380.9</v>
+      </c>
+      <c r="N482" t="n">
+        <v>373.3</v>
+      </c>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>396.31</v>
+      </c>
+      <c r="C483" t="n">
+        <v>386.6281818181818</v>
+      </c>
+      <c r="D483" t="n">
+        <v>400.1342857142857</v>
+      </c>
+      <c r="E483" t="n">
+        <v>399.6181818181818</v>
+      </c>
+      <c r="F483" t="n">
+        <v>396.3281818181818</v>
+      </c>
+      <c r="G483" t="n">
+        <v>396.6281818181818</v>
+      </c>
+      <c r="H483" t="n">
+        <v>394.5166666666667</v>
+      </c>
+      <c r="I483" t="n">
+        <v>386.95</v>
+      </c>
+      <c r="J483" t="n">
+        <v>388.62</v>
+      </c>
+      <c r="K483" t="n">
+        <v>381.52</v>
+      </c>
+      <c r="L483" t="n">
+        <v>380.8388888888889</v>
+      </c>
+      <c r="M483" t="n">
+        <v>389.8088888888889</v>
+      </c>
+      <c r="N483" t="n">
+        <v>382.63</v>
+      </c>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>403.41</v>
+      </c>
+      <c r="C484" t="n">
+        <v>395.2790909090909</v>
+      </c>
+      <c r="D484" t="n">
+        <v>391.7871428571429</v>
+      </c>
+      <c r="E484" t="n">
+        <v>404.4790909090909</v>
+      </c>
+      <c r="F484" t="n">
+        <v>392.1190909090909</v>
+      </c>
+      <c r="G484" t="n">
+        <v>391.9890909090909</v>
+      </c>
+      <c r="H484" t="n">
+        <v>390.52</v>
+      </c>
+      <c r="I484" t="n">
+        <v>391.54</v>
+      </c>
+      <c r="J484" t="n">
+        <v>395.95</v>
+      </c>
+      <c r="K484" t="n">
+        <v>384.45</v>
+      </c>
+      <c r="L484" t="n">
+        <v>385.41</v>
+      </c>
+      <c r="M484" t="n">
+        <v>388.63</v>
+      </c>
+      <c r="N484" t="n">
+        <v>380.85</v>
+      </c>
+      <c r="O484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr"/>
+      <c r="C485" t="n">
+        <v>368.1772727272728</v>
+      </c>
+      <c r="D485" t="n">
+        <v>381.4028571428572</v>
+      </c>
+      <c r="E485" t="n">
+        <v>377.3372727272728</v>
+      </c>
+      <c r="F485" t="n">
+        <v>374.3272727272728</v>
+      </c>
+      <c r="G485" t="n">
+        <v>372.2072727272728</v>
+      </c>
+      <c r="H485" t="n">
+        <v>374.8766666666667</v>
+      </c>
+      <c r="I485" t="n">
+        <v>374.96</v>
+      </c>
+      <c r="J485" t="n">
+        <v>362.2</v>
+      </c>
+      <c r="K485" t="n">
+        <v>367.05</v>
+      </c>
+      <c r="L485" t="n">
+        <v>363.8922222222222</v>
+      </c>
+      <c r="M485" t="n">
+        <v>370.8822222222223</v>
+      </c>
+      <c r="N485" t="n">
+        <v>372.98</v>
+      </c>
+      <c r="O485" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23546,7 +23748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B533"/>
+  <dimension ref="A1:B537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28884,6 +29086,46 @@
       </c>
       <c r="B533" t="n">
         <v>-0.41</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>-0.62</v>
       </c>
     </row>
   </sheetData>
@@ -29057,28 +29299,28 @@
         <v>0.0409</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3712097042948542</v>
+        <v>0.3604577308430783</v>
       </c>
       <c r="J2" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K2" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05432563941554824</v>
+        <v>0.05191925147105148</v>
       </c>
       <c r="M2" t="n">
-        <v>8.460955914485714</v>
+        <v>8.456023387081476</v>
       </c>
       <c r="N2" t="n">
-        <v>138.8594816945461</v>
+        <v>138.6219082182858</v>
       </c>
       <c r="O2" t="n">
-        <v>11.78386531213532</v>
+        <v>11.77378054060317</v>
       </c>
       <c r="P2" t="n">
-        <v>392.2291544011527</v>
+        <v>392.3326764245124</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29135,28 +29377,28 @@
         <v>0.0562</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3443179209840129</v>
+        <v>0.3234845332172893</v>
       </c>
       <c r="J3" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K3" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07933052776872818</v>
+        <v>0.07013878360445691</v>
       </c>
       <c r="M3" t="n">
-        <v>6.837431124782865</v>
+        <v>6.889022144475726</v>
       </c>
       <c r="N3" t="n">
-        <v>81.21037894221631</v>
+        <v>82.69179238851778</v>
       </c>
       <c r="O3" t="n">
-        <v>9.011680139808353</v>
+        <v>9.093502756832363</v>
       </c>
       <c r="P3" t="n">
-        <v>386.2653048124521</v>
+        <v>386.4656187511334</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29213,28 +29455,28 @@
         <v>0.0757</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4024377517699513</v>
+        <v>0.3876415690095901</v>
       </c>
       <c r="J4" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K4" t="n">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09627462666143083</v>
+        <v>0.09049774188209581</v>
       </c>
       <c r="M4" t="n">
-        <v>7.126501226687687</v>
+        <v>7.133552488387171</v>
       </c>
       <c r="N4" t="n">
-        <v>89.82542792898752</v>
+        <v>90.09582511838533</v>
       </c>
       <c r="O4" t="n">
-        <v>9.477627758515711</v>
+        <v>9.491882064079038</v>
       </c>
       <c r="P4" t="n">
-        <v>389.6321313231984</v>
+        <v>389.7744514529967</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29291,28 +29533,28 @@
         <v>0.0609</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4212671258973227</v>
+        <v>0.4095557996105396</v>
       </c>
       <c r="J5" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K5" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1085000473579102</v>
+        <v>0.1034165803726188</v>
       </c>
       <c r="M5" t="n">
-        <v>7.129213225816982</v>
+        <v>7.144163276731052</v>
       </c>
       <c r="N5" t="n">
-        <v>85.5038160375624</v>
+        <v>86.10838040929322</v>
       </c>
       <c r="O5" t="n">
-        <v>9.246827349829909</v>
+        <v>9.279460135659468</v>
       </c>
       <c r="P5" t="n">
-        <v>390.1778929428569</v>
+        <v>390.2911050421009</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29369,28 +29611,28 @@
         <v>0.061</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3904686889092975</v>
+        <v>0.373570879777113</v>
       </c>
       <c r="J6" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K6" t="n">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09905929364774235</v>
+        <v>0.09130942215895366</v>
       </c>
       <c r="M6" t="n">
-        <v>6.974222599001714</v>
+        <v>6.994710872026349</v>
       </c>
       <c r="N6" t="n">
-        <v>82.19201222880397</v>
+        <v>83.09477044839771</v>
       </c>
       <c r="O6" t="n">
-        <v>9.065981040615736</v>
+        <v>9.115633299359827</v>
       </c>
       <c r="P6" t="n">
-        <v>389.658959590995</v>
+        <v>389.8217559401783</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29447,28 +29689,28 @@
         <v>0.0593</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3263951108454315</v>
+        <v>0.3116049543570739</v>
       </c>
       <c r="J7" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K7" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07753166187824878</v>
+        <v>0.07104687577635327</v>
       </c>
       <c r="M7" t="n">
-        <v>6.705988444542042</v>
+        <v>6.719917389740192</v>
       </c>
       <c r="N7" t="n">
-        <v>75.59900019393272</v>
+        <v>76.42748746630951</v>
       </c>
       <c r="O7" t="n">
-        <v>8.694768553212485</v>
+        <v>8.742281593858065</v>
       </c>
       <c r="P7" t="n">
-        <v>388.6153338314475</v>
+        <v>388.7575568998049</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29525,28 +29767,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.318309365192619</v>
+        <v>0.3022787817764813</v>
       </c>
       <c r="J8" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K8" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08164749856143816</v>
+        <v>0.0740705052220787</v>
       </c>
       <c r="M8" t="n">
-        <v>6.403338495719314</v>
+        <v>6.42354072837192</v>
       </c>
       <c r="N8" t="n">
-        <v>65.73892877875178</v>
+        <v>66.48769848087389</v>
       </c>
       <c r="O8" t="n">
-        <v>8.107954660625069</v>
+        <v>8.153998925734163</v>
       </c>
       <c r="P8" t="n">
-        <v>389.1624657091888</v>
+        <v>389.3220351629724</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29603,28 +29845,28 @@
         <v>0.0528</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2039704888009793</v>
+        <v>0.1883050226193729</v>
       </c>
       <c r="J9" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K9" t="n">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02897004066699571</v>
+        <v>0.02487893303925026</v>
       </c>
       <c r="M9" t="n">
-        <v>7.115800386785968</v>
+        <v>7.137869628339067</v>
       </c>
       <c r="N9" t="n">
-        <v>78.71603044209084</v>
+        <v>79.15065177775278</v>
       </c>
       <c r="O9" t="n">
-        <v>8.872205500442989</v>
+        <v>8.896665205443711</v>
       </c>
       <c r="P9" t="n">
-        <v>389.9014313956192</v>
+        <v>390.0606333990575</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29681,28 +29923,28 @@
         <v>0.043</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1771626258463836</v>
+        <v>0.1548302250180381</v>
       </c>
       <c r="J10" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K10" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01933958525531243</v>
+        <v>0.01463206999160704</v>
       </c>
       <c r="M10" t="n">
-        <v>7.562504428352503</v>
+        <v>7.618009753309416</v>
       </c>
       <c r="N10" t="n">
-        <v>93.75306106556467</v>
+        <v>95.95515620125688</v>
       </c>
       <c r="O10" t="n">
-        <v>9.682616436974289</v>
+        <v>9.795670278304435</v>
       </c>
       <c r="P10" t="n">
-        <v>391.467602262868</v>
+        <v>391.6859181182658</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29759,28 +30001,28 @@
         <v>0.052</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1101488957642533</v>
+        <v>0.08727317973279564</v>
       </c>
       <c r="J11" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K11" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00981661855495719</v>
+        <v>0.006126086467398206</v>
       </c>
       <c r="M11" t="n">
-        <v>6.597833482444767</v>
+        <v>6.658097686133018</v>
       </c>
       <c r="N11" t="n">
-        <v>72.36369222825817</v>
+        <v>73.74319900393523</v>
       </c>
       <c r="O11" t="n">
-        <v>8.506685149237521</v>
+        <v>8.587386040229893</v>
       </c>
       <c r="P11" t="n">
-        <v>388.1524954614883</v>
+        <v>388.3749792529648</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29837,28 +30079,28 @@
         <v>0.0475</v>
       </c>
       <c r="I12" t="n">
-        <v>0.186132218642994</v>
+        <v>0.162367352530193</v>
       </c>
       <c r="J12" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K12" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02469112913388372</v>
+        <v>0.01870433535176774</v>
       </c>
       <c r="M12" t="n">
-        <v>6.886564785112884</v>
+        <v>6.969022825290915</v>
       </c>
       <c r="N12" t="n">
-        <v>81.69816465197273</v>
+        <v>83.33329953966417</v>
       </c>
       <c r="O12" t="n">
-        <v>9.038703704180856</v>
+        <v>9.12870744079709</v>
       </c>
       <c r="P12" t="n">
-        <v>386.1079257082152</v>
+        <v>386.3374387354081</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29915,28 +30157,28 @@
         <v>0.0497</v>
       </c>
       <c r="I13" t="n">
-        <v>0.191273777887643</v>
+        <v>0.1672191224960961</v>
       </c>
       <c r="J13" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K13" t="n">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0243039984658604</v>
+        <v>0.01852900107841438</v>
       </c>
       <c r="M13" t="n">
-        <v>7.198674878859246</v>
+        <v>7.2590946399584</v>
       </c>
       <c r="N13" t="n">
-        <v>86.89909209928936</v>
+        <v>88.45759177059645</v>
       </c>
       <c r="O13" t="n">
-        <v>9.321968252428741</v>
+        <v>9.40518961906651</v>
       </c>
       <c r="P13" t="n">
-        <v>391.860442033513</v>
+        <v>392.0930633435532</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29993,28 +30235,28 @@
         <v>0.0452</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2391127472615481</v>
+        <v>0.2174561228333811</v>
       </c>
       <c r="J14" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K14" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03072208196567605</v>
+        <v>0.02562419420715911</v>
       </c>
       <c r="M14" t="n">
-        <v>7.911441852728614</v>
+        <v>7.971708111601042</v>
       </c>
       <c r="N14" t="n">
-        <v>105.7936161191698</v>
+        <v>106.4729573182587</v>
       </c>
       <c r="O14" t="n">
-        <v>10.28560237026348</v>
+        <v>10.31857341487954</v>
       </c>
       <c r="P14" t="n">
-        <v>384.1052734444185</v>
+        <v>384.3150077034695</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30052,7 +30294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O481"/>
+  <dimension ref="A1:O485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64181,6 +64423,310 @@
         </is>
       </c>
     </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>-34.99056149460992,173.45955350959426</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>-34.99112337109461,173.46009375016752</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>-34.99147408457278,173.4608217403971</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>-34.991721282084434,173.4616195854844</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>-34.99199279113148,173.46244661341478</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>-34.992286531296294,173.46326352985687</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>-34.992526400120035,173.46409399901995</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>-34.99271986408044,173.4649410661232</t>
+        </is>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>-34.99294553992488,173.4657825173487</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>-34.993099609930894,173.46664827242552</t>
+        </is>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>-34.99314577322132,173.4675358000361</t>
+        </is>
+      </c>
+      <c r="M482" t="inlineStr">
+        <is>
+          <t>-34.99313482335045,173.46839362638497</t>
+        </is>
+      </c>
+      <c r="N482" t="inlineStr">
+        <is>
+          <t>-34.99297289434869,173.46923979158896</t>
+        </is>
+      </c>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-34.99049331392432,173.45965076668634</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-34.9910920062975,173.46013018205522</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-34.991410393880166,173.46086756751035</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>-34.99168648941233,173.46163725347333</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>-34.991988664490776,173.4624485873403</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>-34.99224904389894,173.4632803554979</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>-34.99250987981394,173.46410016938216</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>-34.99275910688027,173.46492941418668</t>
+        </is>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>-34.99290682459658,173.4657908312572</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>-34.9930623595431,173.46665261723783</t>
+        </is>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>-34.99311839442324,173.4675371823491</t>
+        </is>
+      </c>
+      <c r="M483" t="inlineStr">
+        <is>
+          <t>-34.993055457919056,173.46837851581364</t>
+        </is>
+      </c>
+      <c r="N483" t="inlineStr">
+        <is>
+          <t>-34.99289322985839,173.4692069238723</t>
+        </is>
+      </c>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>-34.9904517973454,173.45970998833562</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-34.991035617188444,173.4601956809167</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>-34.99147515975488,173.46082096677486</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>-34.99164604670946,173.4616577905714</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>-34.99202398121149,173.4624316940343</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>-34.992288284552984,173.4632627429342</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>-34.99254432824313,173.4640873028328</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>-34.99271890052955,173.4649413522197</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>-34.992841736669085,173.46580480852202</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>-34.993036059871514,173.46665568477775</t>
+        </is>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>-34.99307721110478,173.4675392616293</t>
+        </is>
+      </c>
+      <c r="M484" t="inlineStr">
+        <is>
+          <t>-34.99306596012961,173.4683805153525</t>
+        </is>
+      </c>
+      <c r="N484" t="inlineStr">
+        <is>
+          <t>-34.992908428443634,173.4692131944499</t>
+        </is>
+      </c>
+      <c r="O484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr"/>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-34.99121227450253,173.45999048388924</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-34.991555731891864,173.4607629929015</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>-34.99187186625149,173.46154311748944</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>-34.99217326488675,173.4623602859077</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>-34.9924556128851,173.4631876399874</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>-34.99267916265614,173.46403694183303</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>-34.99286413392084,173.46489822959757</t>
+        </is>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>-34.99314142526707,173.46574045190562</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>-34.993192242219,173.4666374679604</t>
+        </is>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>-34.99327107501692,173.4675294737326</t>
+        </is>
+      </c>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t>-34.99322406738878,173.4684106178041</t>
+        </is>
+      </c>
+      <c r="N485" t="inlineStr">
+        <is>
+          <t>-34.992975626678295,173.46924091888584</t>
+        </is>
+      </c>
+      <c r="O485" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0042/nzd0042.xlsx
+++ b/data/nzd0042/nzd0042.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O485"/>
+  <dimension ref="A1:O486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23694,7 +23694,9 @@
           <t>2025-08-17 22:11:30+00:00</t>
         </is>
       </c>
-      <c r="B485" t="inlineStr"/>
+      <c r="B485" t="n">
+        <v>361.95</v>
+      </c>
       <c r="C485" t="n">
         <v>368.1772727272728</v>
       </c>
@@ -23734,6 +23736,55 @@
       <c r="O485" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:27+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>377.91</v>
+      </c>
+      <c r="C486" t="n">
+        <v>382.0318181818182</v>
+      </c>
+      <c r="D486" t="n">
+        <v>381.3628571428572</v>
+      </c>
+      <c r="E486" t="n">
+        <v>389.3318181818182</v>
+      </c>
+      <c r="F486" t="n">
+        <v>383.3918181818182</v>
+      </c>
+      <c r="G486" t="n">
+        <v>380.3518181818182</v>
+      </c>
+      <c r="H486" t="n">
+        <v>380.08</v>
+      </c>
+      <c r="I486" t="n">
+        <v>380.96</v>
+      </c>
+      <c r="J486" t="n">
+        <v>387.09</v>
+      </c>
+      <c r="K486" t="n">
+        <v>381.13</v>
+      </c>
+      <c r="L486" t="n">
+        <v>379.1333333333333</v>
+      </c>
+      <c r="M486" t="n">
+        <v>387.8933333333333</v>
+      </c>
+      <c r="N486" t="inlineStr"/>
+      <c r="O486" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -23748,7 +23799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B537"/>
+  <dimension ref="A1:B538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29126,6 +29177,16 @@
       </c>
       <c r="B537" t="n">
         <v>-0.62</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -29299,28 +29360,28 @@
         <v>0.0409</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3604577308430783</v>
+        <v>0.3287224143051383</v>
       </c>
       <c r="J2" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K2" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05191925147105148</v>
+        <v>0.04239411568059681</v>
       </c>
       <c r="M2" t="n">
-        <v>8.456023387081476</v>
+        <v>8.572211114029116</v>
       </c>
       <c r="N2" t="n">
-        <v>138.6219082182858</v>
+        <v>143.4628279006165</v>
       </c>
       <c r="O2" t="n">
-        <v>11.77378054060317</v>
+        <v>11.97759691676993</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3326764245124</v>
+        <v>392.6390575477435</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29377,28 +29438,28 @@
         <v>0.0562</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3234845332172893</v>
+        <v>0.318031040499109</v>
       </c>
       <c r="J3" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K3" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07013878360445691</v>
+        <v>0.06796165633519669</v>
       </c>
       <c r="M3" t="n">
-        <v>6.889022144475726</v>
+        <v>6.903057129616166</v>
       </c>
       <c r="N3" t="n">
-        <v>82.69179238851778</v>
+        <v>82.87952040423625</v>
       </c>
       <c r="O3" t="n">
-        <v>9.093502756832363</v>
+        <v>9.103819001069619</v>
       </c>
       <c r="P3" t="n">
-        <v>386.4656187511334</v>
+        <v>386.5181671032888</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29455,28 +29516,28 @@
         <v>0.0757</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3876415690095901</v>
+        <v>0.379880172781665</v>
       </c>
       <c r="J4" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K4" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09049774188209581</v>
+        <v>0.08691001969821632</v>
       </c>
       <c r="M4" t="n">
-        <v>7.133552488387171</v>
+        <v>7.155456212306289</v>
       </c>
       <c r="N4" t="n">
-        <v>90.09582511838533</v>
+        <v>90.66552284670016</v>
       </c>
       <c r="O4" t="n">
-        <v>9.491882064079038</v>
+        <v>9.521844508639077</v>
       </c>
       <c r="P4" t="n">
-        <v>389.7744514529967</v>
+        <v>389.849250116412</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29533,28 +29594,28 @@
         <v>0.0609</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4095557996105396</v>
+        <v>0.4046557219384584</v>
       </c>
       <c r="J5" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K5" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1034165803726188</v>
+        <v>0.1013067758187977</v>
       </c>
       <c r="M5" t="n">
-        <v>7.144163276731052</v>
+        <v>7.154968091060782</v>
       </c>
       <c r="N5" t="n">
-        <v>86.10838040929322</v>
+        <v>86.21839525841547</v>
       </c>
       <c r="O5" t="n">
-        <v>9.279460135659468</v>
+        <v>9.28538611251118</v>
       </c>
       <c r="P5" t="n">
-        <v>390.2911050421009</v>
+        <v>390.3385481443664</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29611,28 +29672,28 @@
         <v>0.061</v>
       </c>
       <c r="I6" t="n">
-        <v>0.373570879777113</v>
+        <v>0.3668785079193701</v>
       </c>
       <c r="J6" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K6" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09130942215895366</v>
+        <v>0.08815185089052513</v>
       </c>
       <c r="M6" t="n">
-        <v>6.994710872026349</v>
+        <v>7.012416277169961</v>
       </c>
       <c r="N6" t="n">
-        <v>83.09477044839771</v>
+        <v>83.49467253790239</v>
       </c>
       <c r="O6" t="n">
-        <v>9.115633299359827</v>
+        <v>9.137541930842364</v>
       </c>
       <c r="P6" t="n">
-        <v>389.8217559401783</v>
+        <v>389.8863456309513</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29689,28 +29750,28 @@
         <v>0.0593</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3116049543570739</v>
+        <v>0.3047303759474949</v>
       </c>
       <c r="J7" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K7" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07104687577635327</v>
+        <v>0.06793182989590207</v>
       </c>
       <c r="M7" t="n">
-        <v>6.719917389740192</v>
+        <v>6.739713227037486</v>
       </c>
       <c r="N7" t="n">
-        <v>76.42748746630951</v>
+        <v>76.87493395936505</v>
       </c>
       <c r="O7" t="n">
-        <v>8.742281593858065</v>
+        <v>8.767835192301749</v>
       </c>
       <c r="P7" t="n">
-        <v>388.7575568998049</v>
+        <v>388.8237741908717</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29767,28 +29828,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3022787817764813</v>
+        <v>0.2949416878832402</v>
       </c>
       <c r="J8" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K8" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0740705052220787</v>
+        <v>0.07039519939819783</v>
       </c>
       <c r="M8" t="n">
-        <v>6.42354072837192</v>
+        <v>6.445396182805645</v>
       </c>
       <c r="N8" t="n">
-        <v>66.48769848087389</v>
+        <v>67.01671861823993</v>
       </c>
       <c r="O8" t="n">
-        <v>8.153998925734163</v>
+        <v>8.186373960322111</v>
       </c>
       <c r="P8" t="n">
-        <v>389.3220351629724</v>
+        <v>389.3952031333895</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29845,28 +29906,28 @@
         <v>0.0528</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1883050226193729</v>
+        <v>0.1822213410234933</v>
       </c>
       <c r="J9" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K9" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02487893303925026</v>
+        <v>0.02330467367341515</v>
       </c>
       <c r="M9" t="n">
-        <v>7.137869628339067</v>
+        <v>7.155926580198348</v>
       </c>
       <c r="N9" t="n">
-        <v>79.15065177775278</v>
+        <v>79.42583534317863</v>
       </c>
       <c r="O9" t="n">
-        <v>8.896665205443711</v>
+        <v>8.912117332215653</v>
       </c>
       <c r="P9" t="n">
-        <v>390.0606333990575</v>
+        <v>390.1225837901806</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29923,28 +29984,28 @@
         <v>0.043</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1548302250180381</v>
+        <v>0.1512234248762144</v>
       </c>
       <c r="J10" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K10" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01463206999160704</v>
+        <v>0.01400523861076886</v>
       </c>
       <c r="M10" t="n">
-        <v>7.618009753309416</v>
+        <v>7.621067038178773</v>
       </c>
       <c r="N10" t="n">
-        <v>95.95515620125688</v>
+        <v>95.90445766990248</v>
       </c>
       <c r="O10" t="n">
-        <v>9.795670278304435</v>
+        <v>9.793082133317503</v>
       </c>
       <c r="P10" t="n">
-        <v>391.6859181182658</v>
+        <v>391.7212484647519</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30001,28 +30062,28 @@
         <v>0.052</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08727317973279564</v>
+        <v>0.08322806839833628</v>
       </c>
       <c r="J11" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K11" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006126086467398206</v>
+        <v>0.005584072408457486</v>
       </c>
       <c r="M11" t="n">
-        <v>6.658097686133018</v>
+        <v>6.664715239983273</v>
       </c>
       <c r="N11" t="n">
-        <v>73.74319900393523</v>
+        <v>73.7815250295066</v>
       </c>
       <c r="O11" t="n">
-        <v>8.587386040229893</v>
+        <v>8.589617280735306</v>
       </c>
       <c r="P11" t="n">
-        <v>388.3749792529648</v>
+        <v>388.4144124044557</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30079,28 +30140,28 @@
         <v>0.0475</v>
       </c>
       <c r="I12" t="n">
-        <v>0.162367352530193</v>
+        <v>0.1575165000983523</v>
       </c>
       <c r="J12" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K12" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01870433535176774</v>
+        <v>0.01763885352282679</v>
       </c>
       <c r="M12" t="n">
-        <v>6.969022825290915</v>
+        <v>6.983541130446987</v>
       </c>
       <c r="N12" t="n">
-        <v>83.33329953966417</v>
+        <v>83.44351721541075</v>
       </c>
       <c r="O12" t="n">
-        <v>9.12870744079709</v>
+        <v>9.134742317953515</v>
       </c>
       <c r="P12" t="n">
-        <v>386.3374387354081</v>
+        <v>386.3843935624824</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30157,28 +30218,28 @@
         <v>0.0497</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1672191224960961</v>
+        <v>0.1636253575637839</v>
       </c>
       <c r="J13" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K13" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01852900107841438</v>
+        <v>0.01780225806169011</v>
       </c>
       <c r="M13" t="n">
-        <v>7.2590946399584</v>
+        <v>7.261641379637757</v>
       </c>
       <c r="N13" t="n">
-        <v>88.45759177059645</v>
+        <v>88.42151626388684</v>
       </c>
       <c r="O13" t="n">
-        <v>9.40518961906651</v>
+        <v>9.403271572377713</v>
       </c>
       <c r="P13" t="n">
-        <v>392.0930633435532</v>
+        <v>392.127895285294</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30238,7 +30299,7 @@
         <v>0.2174561228333811</v>
       </c>
       <c r="J14" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K14" t="n">
         <v>440</v>
@@ -30294,7 +30355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O485"/>
+  <dimension ref="A1:O486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64660,7 +64721,11 @@
           <t>2025-08-17 22:11:30+00:00</t>
         </is>
       </c>
-      <c r="B485" t="inlineStr"/>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-34.99069423037097,173.4593641664216</t>
+        </is>
+      </c>
       <c r="C485" t="inlineStr">
         <is>
           <t>-34.99121227450253,173.45999048388924</t>
@@ -64724,6 +64789,79 @@
       <c r="O485" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:27+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-34.990600906051554,173.45949729058398</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-34.99112196670094,173.46009538144668</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-34.991556042253606,173.46076276958743</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>-34.99177207181735,173.46159379403488</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>-34.99209720809766,173.4623966668314</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>-34.99238672067925,173.4632185613154</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>-34.99263431362418,173.46405369308076</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>-34.99281157660394,173.46491383490633</t>
+        </is>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>-34.99292041048021,173.46578791376265</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>-34.993065860181964,173.46665220893033</t>
+        </is>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>-34.99313376058598,173.4675364065355</t>
+        </is>
+      </c>
+      <c r="M486" t="inlineStr">
+        <is>
+          <t>-34.993072522773865,173.46838176482893</t>
+        </is>
+      </c>
+      <c r="N486" t="inlineStr"/>
+      <c r="O486" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0042/nzd0042.xlsx
+++ b/data/nzd0042/nzd0042.xlsx
@@ -29351,13 +29351,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0348</v>
+        <v>0.0338</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0409</v>
+        <v>0.0407</v>
       </c>
       <c r="I2" t="n">
         <v>0.3287224143051383</v>
@@ -29429,13 +29429,13 @@
         <v>0.08294453301417118</v>
       </c>
       <c r="F3" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0498</v>
+        <v>0.054</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0562</v>
+        <v>0.0677</v>
       </c>
       <c r="I3" t="n">
         <v>0.3180341516818952</v>
@@ -29510,10 +29510,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06270000000000001</v>
+        <v>0.0636</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0757</v>
+        <v>0.0741</v>
       </c>
       <c r="I4" t="n">
         <v>0.3798709901911276</v>
@@ -29585,13 +29585,13 @@
         <v>0.2495326455831314</v>
       </c>
       <c r="F5" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0526</v>
+        <v>0.0561</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0609</v>
+        <v>0.0687</v>
       </c>
       <c r="I5" t="n">
         <v>0.4046640228424064</v>
@@ -29663,13 +29663,13 @@
         <v>0.3329866070905674</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0529</v>
+        <v>0.0591</v>
       </c>
       <c r="H6" t="n">
-        <v>0.061</v>
+        <v>0.075</v>
       </c>
       <c r="I6" t="n">
         <v>0.3668875815235271</v>
@@ -29741,13 +29741,13 @@
         <v>0.4164224127229912</v>
       </c>
       <c r="F7" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05</v>
+        <v>0.0575</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0593</v>
+        <v>0.0659</v>
       </c>
       <c r="I7" t="n">
         <v>0.3047390987796687</v>
@@ -29822,10 +29822,10 @@
         <v>0.06</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0543</v>
+        <v>0.0589</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06320000000000001</v>
+        <v>0.0667</v>
       </c>
       <c r="I8" t="n">
         <v>0.2949354898833281</v>
@@ -29897,13 +29897,13 @@
         <v>0.5832794627492793</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0469</v>
+        <v>0.0565</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0528</v>
+        <v>0.068</v>
       </c>
       <c r="I9" t="n">
         <v>0.1822213410234933</v>
@@ -29975,13 +29975,13 @@
         <v>0.6666649359969774</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G10" t="n">
-        <v>0.039</v>
+        <v>0.0488</v>
       </c>
       <c r="H10" t="n">
-        <v>0.043</v>
+        <v>0.0582</v>
       </c>
       <c r="I10" t="n">
         <v>0.1512234248762144</v>
@@ -30053,13 +30053,13 @@
         <v>0.7501188980460916</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0446</v>
+        <v>0.0583</v>
       </c>
       <c r="H11" t="n">
-        <v>0.052</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I11" t="n">
         <v>0.08322806839833639</v>
@@ -30131,13 +30131,13 @@
         <v>0.8335191111664821</v>
       </c>
       <c r="F12" t="n">
-        <v>0.045</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.044</v>
+        <v>0.0557</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0475</v>
+        <v>0.093</v>
       </c>
       <c r="I12" t="n">
         <v>0.1574898012542456</v>
@@ -30209,13 +30209,13 @@
         <v>0.9165949287475413</v>
       </c>
       <c r="F13" t="n">
-        <v>0.045</v>
+        <v>0.12</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0439</v>
+        <v>0.0611</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0497</v>
+        <v>0.2</v>
       </c>
       <c r="I13" t="n">
         <v>0.1636003316304953</v>
@@ -30287,13 +30287,13 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="G14" t="n">
-        <v>0.039</v>
+        <v>0.0509</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0452</v>
+        <v>0.1658</v>
       </c>
       <c r="I14" t="n">
         <v>0.2174561228333811</v>

--- a/data/nzd0042/nzd0042.xlsx
+++ b/data/nzd0042/nzd0042.xlsx
@@ -556,7 +556,7 @@
         <v>392.62</v>
       </c>
       <c r="N2" t="n">
-        <v>386.79</v>
+        <v>386.41</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         <v>383.31</v>
       </c>
       <c r="N3" t="n">
-        <v>376.86</v>
+        <v>377.01</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -656,7 +656,7 @@
         <v>407.38</v>
       </c>
       <c r="N4" t="n">
-        <v>392.14</v>
+        <v>391.47</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
         <v>380.72</v>
       </c>
       <c r="N5" t="n">
-        <v>363.69</v>
+        <v>363.92</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>375.05</v>
       </c>
       <c r="N6" t="n">
-        <v>358.15</v>
+        <v>357.83</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>376.54</v>
       </c>
       <c r="N7" t="n">
-        <v>358.92</v>
+        <v>359.22</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>383.08</v>
       </c>
       <c r="N8" t="n">
-        <v>375.33</v>
+        <v>376.08</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>380.26</v>
       </c>
       <c r="N9" t="n">
-        <v>372.41</v>
+        <v>372.21</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>392.2</v>
       </c>
       <c r="N10" t="n">
-        <v>384.13</v>
+        <v>383.58</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>394.34</v>
       </c>
       <c r="N11" t="n">
-        <v>380.69</v>
+        <v>380.2</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>353.27</v>
       </c>
       <c r="N12" t="n">
-        <v>336.87</v>
+        <v>337.39</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>381.53</v>
       </c>
       <c r="N13" t="n">
-        <v>375.19</v>
+        <v>375.32</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>378.48</v>
+        <v>378.6</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>382.12</v>
       </c>
       <c r="N15" t="n">
-        <v>368.61</v>
+        <v>369.38</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>394.24</v>
       </c>
       <c r="N16" t="n">
-        <v>383.91</v>
+        <v>383.68</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>384.81</v>
       </c>
       <c r="N17" t="n">
-        <v>374.38</v>
+        <v>374.78</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>390.19</v>
       </c>
       <c r="N18" t="n">
-        <v>380.11</v>
+        <v>379.66</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>381.99</v>
       </c>
       <c r="N19" t="n">
-        <v>369.9</v>
+        <v>369.5</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>387.09</v>
       </c>
       <c r="N20" t="n">
-        <v>376.79</v>
+        <v>376.08</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>384.31</v>
       </c>
       <c r="N21" t="n">
-        <v>379.07</v>
+        <v>378.84</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>387.68</v>
       </c>
       <c r="N22" t="n">
-        <v>382.06</v>
+        <v>382.6</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>382.97</v>
       </c>
       <c r="N23" t="n">
-        <v>376.7</v>
+        <v>377.03</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>381.96</v>
       </c>
       <c r="N24" t="n">
-        <v>369.82</v>
+        <v>370.57</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>387.54</v>
       </c>
       <c r="N25" t="n">
-        <v>380.2</v>
+        <v>380.85</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>369.14</v>
       </c>
       <c r="N26" t="n">
-        <v>365.02</v>
+        <v>364.72</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>371.88</v>
       </c>
       <c r="N27" t="n">
-        <v>371.83</v>
+        <v>371.94</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>387.31</v>
       </c>
       <c r="N28" t="n">
-        <v>384.11</v>
+        <v>383.88</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>397.43</v>
       </c>
       <c r="N29" t="n">
-        <v>388.83</v>
+        <v>388.41</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>385.05</v>
       </c>
       <c r="N30" t="n">
-        <v>379.21</v>
+        <v>379.29</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>382</v>
       </c>
       <c r="N31" t="n">
-        <v>376.69</v>
+        <v>377.09</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>370.58</v>
       </c>
       <c r="N32" t="n">
-        <v>373.83</v>
+        <v>374.63</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>398.07</v>
       </c>
       <c r="N33" t="n">
-        <v>400.12</v>
+        <v>399.6</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>374.15</v>
       </c>
       <c r="N34" t="n">
-        <v>369.63</v>
+        <v>369.85</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>388.2</v>
       </c>
       <c r="N35" t="n">
-        <v>383.33</v>
+        <v>383.4</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>386.41</v>
       </c>
       <c r="N36" t="n">
-        <v>379.27</v>
+        <v>378.97</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>394.63</v>
       </c>
       <c r="N38" t="n">
-        <v>385.98</v>
+        <v>385.8</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>387.15</v>
       </c>
       <c r="N40" t="n">
-        <v>384.99</v>
+        <v>385.49</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>384.72</v>
       </c>
       <c r="N41" t="n">
-        <v>382.07</v>
+        <v>382.19</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>391.26</v>
       </c>
       <c r="N42" t="n">
-        <v>387.72</v>
+        <v>387.77</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>411.55</v>
       </c>
       <c r="N43" t="n">
-        <v>408.07</v>
+        <v>407.59</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>392.39</v>
       </c>
       <c r="N44" t="n">
-        <v>372.69</v>
+        <v>372.78</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>389.91</v>
       </c>
       <c r="N45" t="n">
-        <v>389.94</v>
+        <v>390.54</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>394.48</v>
       </c>
       <c r="N46" t="n">
-        <v>393.56</v>
+        <v>394.31</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>393.74</v>
       </c>
       <c r="N47" t="n">
-        <v>393.46</v>
+        <v>393.94</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>387.86</v>
       </c>
       <c r="N49" t="n">
-        <v>381.45</v>
+        <v>382.12</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>411.63</v>
       </c>
       <c r="N50" t="n">
-        <v>399.24</v>
+        <v>398.66</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>407.72</v>
       </c>
       <c r="N51" t="n">
-        <v>396.48</v>
+        <v>396.38</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>397.06</v>
       </c>
       <c r="N52" t="n">
-        <v>387.02</v>
+        <v>386.72</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>395.97</v>
       </c>
       <c r="N53" t="n">
-        <v>387.53</v>
+        <v>387.2</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>387.21</v>
+        <v>387.16</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>401.23</v>
       </c>
       <c r="N57" t="n">
-        <v>393.73</v>
+        <v>393.16</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>421.95</v>
       </c>
       <c r="N58" t="n">
-        <v>410.23</v>
+        <v>409.63</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>384.42</v>
       </c>
       <c r="N59" t="n">
-        <v>382.64</v>
+        <v>383.14</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         <v>391.55</v>
       </c>
       <c r="N60" t="n">
-        <v>386.66</v>
+        <v>387.19</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>387.66</v>
       </c>
       <c r="N61" t="n">
-        <v>383.8</v>
+        <v>383.47</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>391.99</v>
       </c>
       <c r="N63" t="n">
-        <v>386.76</v>
+        <v>386.16</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>400.19</v>
       </c>
       <c r="N64" t="n">
-        <v>387.49</v>
+        <v>387.62</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>387.91</v>
       </c>
       <c r="N65" t="n">
-        <v>382.45</v>
+        <v>382.63</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>403.62</v>
       </c>
       <c r="N66" t="n">
-        <v>392.48</v>
+        <v>392.83</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>396.09</v>
       </c>
       <c r="N67" t="n">
-        <v>389.88</v>
+        <v>390.57</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>389.7</v>
       </c>
       <c r="N68" t="n">
-        <v>391.58</v>
+        <v>392.43</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>389.79</v>
       </c>
       <c r="N69" t="n">
-        <v>380.15</v>
+        <v>380.16</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>409.67</v>
       </c>
       <c r="N70" t="n">
-        <v>395.35</v>
+        <v>395.08</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>390.8</v>
       </c>
       <c r="N71" t="n">
-        <v>390.37</v>
+        <v>391.26</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>399</v>
       </c>
       <c r="N72" t="n">
-        <v>404.92</v>
+        <v>405.87</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>382.52</v>
       </c>
       <c r="N73" t="n">
-        <v>384.88</v>
+        <v>385.6</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>382.13</v>
       </c>
       <c r="N74" t="n">
-        <v>376.04</v>
+        <v>375.79</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>384.89</v>
       </c>
       <c r="N76" t="n">
-        <v>377.12</v>
+        <v>377.29</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>405.24</v>
       </c>
       <c r="N79" t="n">
-        <v>391.54</v>
+        <v>391.08</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>402.8</v>
       </c>
       <c r="N80" t="n">
-        <v>394.38</v>
+        <v>393.98</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>404.4</v>
       </c>
       <c r="N81" t="n">
-        <v>401.16</v>
+        <v>401.24</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>401.62</v>
       </c>
       <c r="N83" t="n">
-        <v>388.45</v>
+        <v>388.53</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>398.65</v>
       </c>
       <c r="N84" t="n">
-        <v>392.88</v>
+        <v>392.76</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>391.33</v>
       </c>
       <c r="N85" t="n">
-        <v>384.32</v>
+        <v>384.8</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>401.16</v>
       </c>
       <c r="N87" t="n">
-        <v>406.81</v>
+        <v>406.29</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>404.47</v>
       </c>
       <c r="N88" t="n">
-        <v>392.3</v>
+        <v>392.65</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>394.97</v>
       </c>
       <c r="N89" t="n">
-        <v>384.81</v>
+        <v>385.01</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>398.98</v>
       </c>
       <c r="N91" t="n">
-        <v>390.31</v>
+        <v>390.54</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>391.17</v>
       </c>
       <c r="N94" t="n">
-        <v>384.98</v>
+        <v>385.73</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>401.29</v>
       </c>
       <c r="N95" t="n">
-        <v>394.46</v>
+        <v>394.09</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>400.24</v>
       </c>
       <c r="N96" t="n">
-        <v>388.93</v>
+        <v>389.06</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>384.38</v>
       </c>
       <c r="N97" t="n">
-        <v>384.74</v>
+        <v>385.61</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>395.5</v>
       </c>
       <c r="N98" t="n">
-        <v>382.86</v>
+        <v>382.43</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>396.44</v>
       </c>
       <c r="N100" t="n">
-        <v>384.32</v>
+        <v>384.74</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="n">
-        <v>382.76</v>
+        <v>382.74</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>400.19</v>
       </c>
       <c r="N102" t="n">
-        <v>390.74</v>
+        <v>390.46</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>400.85</v>
       </c>
       <c r="N105" t="n">
-        <v>388.85</v>
+        <v>389.45</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>400.71</v>
       </c>
       <c r="N106" t="n">
-        <v>392.08</v>
+        <v>392.59</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>390.13</v>
       </c>
       <c r="N107" t="n">
-        <v>383.94</v>
+        <v>384.07</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>391.57</v>
       </c>
       <c r="N108" t="n">
-        <v>385.27</v>
+        <v>385.37</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>385.51</v>
       </c>
       <c r="N109" t="n">
-        <v>384.3</v>
+        <v>384.68</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>398.11</v>
       </c>
       <c r="N110" t="n">
-        <v>390.11</v>
+        <v>389.91</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>405.16</v>
       </c>
       <c r="N111" t="n">
-        <v>398.11</v>
+        <v>397.71</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>403.82</v>
       </c>
       <c r="N112" t="n">
-        <v>392.27</v>
+        <v>392.82</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>388.24</v>
       </c>
       <c r="N113" t="n">
-        <v>386.66</v>
+        <v>387.33</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>403.1</v>
       </c>
       <c r="N114" t="n">
-        <v>390.56</v>
+        <v>390.29</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>386.74</v>
       </c>
       <c r="N115" t="n">
-        <v>386.77</v>
+        <v>387.28</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>395.58</v>
       </c>
       <c r="N116" t="n">
-        <v>386.82</v>
+        <v>387.04</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>396.07</v>
       </c>
       <c r="N117" t="n">
-        <v>388.23</v>
+        <v>388.36</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="n">
-        <v>405.58</v>
+        <v>405.08</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>412.68</v>
       </c>
       <c r="N120" t="n">
-        <v>419.57</v>
+        <v>420.2</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>424.02</v>
       </c>
       <c r="N121" t="n">
-        <v>407.57</v>
+        <v>407.13</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>386.58</v>
       </c>
       <c r="N122" t="n">
-        <v>376.29</v>
+        <v>376.68</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>398.23</v>
       </c>
       <c r="N124" t="n">
-        <v>391.47</v>
+        <v>391.15</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>397.19</v>
       </c>
       <c r="N126" t="n">
-        <v>390.38</v>
+        <v>390.73</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>391.26</v>
       </c>
       <c r="N127" t="n">
-        <v>385.26</v>
+        <v>385.69</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>393.82</v>
       </c>
       <c r="N128" t="n">
-        <v>383.74</v>
+        <v>383.06</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>413.05</v>
       </c>
       <c r="N129" t="n">
-        <v>405.21</v>
+        <v>404.72</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>406.65</v>
       </c>
       <c r="N130" t="n">
-        <v>399.25</v>
+        <v>399.07</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>403.66</v>
       </c>
       <c r="N131" t="n">
-        <v>397.9</v>
+        <v>398.15</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>399.7</v>
       </c>
       <c r="N132" t="n">
-        <v>386</v>
+        <v>386.93</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>389.13</v>
       </c>
       <c r="N133" t="n">
-        <v>382.19</v>
+        <v>382.59</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>389.06</v>
       </c>
       <c r="N134" t="n">
-        <v>382.04</v>
+        <v>382.81</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>392.97</v>
       </c>
       <c r="N135" t="n">
-        <v>387.61</v>
+        <v>388.39</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>389.72</v>
       </c>
       <c r="N136" t="n">
-        <v>374.65</v>
+        <v>374.3</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>390.04</v>
       </c>
       <c r="N137" t="n">
-        <v>388.53</v>
+        <v>389.28</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>388.93</v>
       </c>
       <c r="N139" t="n">
-        <v>381.21</v>
+        <v>380.91</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>394.33</v>
       </c>
       <c r="N140" t="n">
-        <v>389.5</v>
+        <v>390.1</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>397.96</v>
       </c>
       <c r="N141" t="n">
-        <v>391.45</v>
+        <v>390.9</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>380.97</v>
       </c>
       <c r="N143" t="n">
-        <v>392.07</v>
+        <v>391.92</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>403.32</v>
       </c>
       <c r="N144" t="n">
-        <v>395.92</v>
+        <v>396.39</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>384.03</v>
       </c>
       <c r="N145" t="n">
-        <v>371.71</v>
+        <v>371.52</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>392.09</v>
       </c>
       <c r="N147" t="n">
-        <v>379.89</v>
+        <v>379.4</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>383.46</v>
       </c>
       <c r="N148" t="n">
-        <v>384.57</v>
+        <v>385.22</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>388.08</v>
       </c>
       <c r="N149" t="n">
-        <v>388.54</v>
+        <v>389.23</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>392.63</v>
       </c>
       <c r="N150" t="n">
-        <v>387.5</v>
+        <v>387.57</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>397.17</v>
       </c>
       <c r="N151" t="n">
-        <v>385.06</v>
+        <v>385.21</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>388.14</v>
       </c>
       <c r="N152" t="n">
-        <v>387.24</v>
+        <v>387.59</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>405.32</v>
       </c>
       <c r="N153" t="n">
-        <v>395.67</v>
+        <v>395.75</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>386.59</v>
       </c>
       <c r="N154" t="n">
-        <v>382.31</v>
+        <v>382.18</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>383.21</v>
       </c>
       <c r="N155" t="n">
-        <v>388.85</v>
+        <v>389.55</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>395.51</v>
       </c>
       <c r="N156" t="n">
-        <v>386.19</v>
+        <v>386.07</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>384.12</v>
       </c>
       <c r="N157" t="n">
-        <v>385.82</v>
+        <v>386.27</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>383.07</v>
       </c>
       <c r="N159" t="n">
-        <v>375.93</v>
+        <v>375.52</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>388.39</v>
       </c>
       <c r="N161" t="n">
-        <v>383.83</v>
+        <v>383.28</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>388.07</v>
       </c>
       <c r="N162" t="n">
-        <v>380.08</v>
+        <v>379.66</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>383</v>
       </c>
       <c r="N163" t="n">
-        <v>380.44</v>
+        <v>380.79</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>393.31</v>
       </c>
       <c r="N164" t="n">
-        <v>380.44</v>
+        <v>380.24</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>375.33</v>
       </c>
       <c r="N165" t="n">
-        <v>374.94</v>
+        <v>375.59</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>394.27</v>
       </c>
       <c r="N166" t="n">
-        <v>387.8</v>
+        <v>387.45</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>387.93</v>
       </c>
       <c r="N167" t="n">
-        <v>366.36</v>
+        <v>365.93</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>387.04</v>
       </c>
       <c r="N169" t="n">
-        <v>383.37</v>
+        <v>383.4</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
         <v>392.61</v>
       </c>
       <c r="N170" t="n">
-        <v>387.73</v>
+        <v>387.88</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>388.8</v>
       </c>
       <c r="N171" t="n">
-        <v>377.8</v>
+        <v>377.17</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>395.66</v>
       </c>
       <c r="N172" t="n">
-        <v>393.04</v>
+        <v>392.64</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>387.37</v>
       </c>
       <c r="N173" t="n">
-        <v>390.26</v>
+        <v>390.78</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>389.89</v>
       </c>
       <c r="N174" t="n">
-        <v>378.42</v>
+        <v>377.95</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>385.15</v>
       </c>
       <c r="N175" t="n">
-        <v>379.33</v>
+        <v>379.48</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>398.75</v>
       </c>
       <c r="N176" t="n">
-        <v>389.44</v>
+        <v>389.82</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>379.99</v>
       </c>
       <c r="N177" t="n">
-        <v>372.38</v>
+        <v>373.18</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>391.39</v>
       </c>
       <c r="N178" t="n">
-        <v>378.71</v>
+        <v>378.42</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>383.37</v>
       </c>
       <c r="N179" t="n">
-        <v>374.92</v>
+        <v>374.57</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>382.72</v>
       </c>
       <c r="N180" t="n">
-        <v>379.33</v>
+        <v>380</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>395.29</v>
       </c>
       <c r="N181" t="n">
-        <v>385.77</v>
+        <v>385.8</v>
       </c>
       <c r="O181" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>395.96</v>
       </c>
       <c r="N182" t="n">
-        <v>387.76</v>
+        <v>387.34</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>388.85</v>
       </c>
       <c r="N183" t="n">
-        <v>379.06</v>
+        <v>378.68</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>384.05</v>
       </c>
       <c r="N184" t="n">
-        <v>374.45</v>
+        <v>375</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         <v>392.58</v>
       </c>
       <c r="N185" t="n">
-        <v>384.81</v>
+        <v>384.85</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>388.23</v>
       </c>
       <c r="N186" t="n">
-        <v>379.62</v>
+        <v>379.29</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>397.02</v>
       </c>
       <c r="N187" t="n">
-        <v>382.33</v>
+        <v>382.95</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>394.35</v>
       </c>
       <c r="N189" t="n">
-        <v>382.98</v>
+        <v>383.51</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         <v>393.53</v>
       </c>
       <c r="N190" t="n">
-        <v>389.13</v>
+        <v>389.45</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>399.9</v>
       </c>
       <c r="N191" t="n">
-        <v>387.99</v>
+        <v>387.91</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="n">
-        <v>391.61</v>
+        <v>391.18</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>393.34</v>
       </c>
       <c r="N194" t="n">
-        <v>375.96</v>
+        <v>376.13</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -9631,7 +9631,7 @@
         <v>418.34</v>
       </c>
       <c r="N197" t="n">
-        <v>405.06</v>
+        <v>404.51</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="n">
-        <v>388.93</v>
+        <v>388.17</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>384.65</v>
       </c>
       <c r="N199" t="n">
-        <v>373.48</v>
+        <v>373.82</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>399.18</v>
       </c>
       <c r="N200" t="n">
-        <v>388.97</v>
+        <v>388.49</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
       <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="n">
-        <v>377.85</v>
+        <v>377.52</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>384.51</v>
       </c>
       <c r="N202" t="n">
-        <v>380.95</v>
+        <v>381.31</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>387.36</v>
       </c>
       <c r="N203" t="n">
-        <v>380.82</v>
+        <v>380.92</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>389.88</v>
       </c>
       <c r="N204" t="n">
-        <v>383.73</v>
+        <v>384.2</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>407.83</v>
       </c>
       <c r="N205" t="n">
-        <v>397.75</v>
+        <v>397.15</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>388.06</v>
       </c>
       <c r="N206" t="n">
-        <v>379.32</v>
+        <v>380.1</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>393.41</v>
       </c>
       <c r="N207" t="n">
-        <v>386.35</v>
+        <v>385.74</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>385.12</v>
       </c>
       <c r="N208" t="n">
-        <v>380.3</v>
+        <v>380.7</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
       <c r="L209" t="inlineStr"/>
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="n">
-        <v>389.02</v>
+        <v>389.03</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>399.16</v>
       </c>
       <c r="N210" t="n">
-        <v>382.05</v>
+        <v>381.84</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>389.51</v>
       </c>
       <c r="N211" t="n">
-        <v>382.44</v>
+        <v>382.74</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>387.09</v>
       </c>
       <c r="N213" t="n">
-        <v>382.45</v>
+        <v>383.28</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>403.73</v>
       </c>
       <c r="N214" t="n">
-        <v>386.28</v>
+        <v>385.73</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>386.45</v>
       </c>
       <c r="N215" t="n">
-        <v>379.67</v>
+        <v>379.95</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>394.49</v>
       </c>
       <c r="N216" t="n">
-        <v>384.89</v>
+        <v>384.62</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>386.15</v>
       </c>
       <c r="N217" t="n">
-        <v>381.53</v>
+        <v>382.1</v>
       </c>
       <c r="O217" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>396.51</v>
       </c>
       <c r="N218" t="n">
-        <v>392.24</v>
+        <v>392.54</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>387.53</v>
       </c>
       <c r="N219" t="n">
-        <v>381.85</v>
+        <v>382.55</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>406.26</v>
       </c>
       <c r="N220" t="n">
-        <v>384.67</v>
+        <v>384.49</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>396.92</v>
       </c>
       <c r="N221" t="n">
-        <v>382.62</v>
+        <v>382.4</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>387.63</v>
       </c>
       <c r="N222" t="n">
-        <v>379.17</v>
+        <v>378.69</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>382.1</v>
       </c>
       <c r="N223" t="n">
-        <v>371.55</v>
+        <v>372.28</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>396.71</v>
       </c>
       <c r="N224" t="n">
-        <v>392.06</v>
+        <v>391.46</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>383.57</v>
       </c>
       <c r="N225" t="n">
-        <v>374.14</v>
+        <v>374.42</v>
       </c>
       <c r="O225" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>395.15</v>
       </c>
       <c r="N226" t="n">
-        <v>384.48</v>
+        <v>384.15</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>398.74</v>
       </c>
       <c r="N228" t="n">
-        <v>391.43</v>
+        <v>391.15</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>387.4</v>
       </c>
       <c r="N229" t="n">
-        <v>382.94</v>
+        <v>383.04</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>391.08</v>
       </c>
       <c r="N230" t="n">
-        <v>380.79</v>
+        <v>381.41</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>380.89</v>
       </c>
       <c r="N231" t="n">
-        <v>376.21</v>
+        <v>376.64</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
       <c r="L232" t="inlineStr"/>
       <c r="M232" t="inlineStr"/>
       <c r="N232" t="n">
-        <v>377.52</v>
+        <v>377.62</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>371.83</v>
       </c>
       <c r="N233" t="n">
-        <v>367.16</v>
+        <v>367.73</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>368.55</v>
       </c>
       <c r="N234" t="n">
-        <v>365.8</v>
+        <v>366.67</v>
       </c>
       <c r="O234" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>397.51</v>
       </c>
       <c r="N235" t="n">
-        <v>394.36</v>
+        <v>393.8</v>
       </c>
       <c r="O235" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>386.91</v>
       </c>
       <c r="N236" t="n">
-        <v>379.69</v>
+        <v>379.21</v>
       </c>
       <c r="O236" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>387.08</v>
       </c>
       <c r="N237" t="n">
-        <v>386.21</v>
+        <v>386.44</v>
       </c>
       <c r="O237" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>390.63</v>
       </c>
       <c r="N238" t="n">
-        <v>388.66</v>
+        <v>388.78</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>382.92</v>
       </c>
       <c r="N239" t="n">
-        <v>397.21</v>
+        <v>397.92</v>
       </c>
       <c r="O239" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>388.99</v>
       </c>
       <c r="N240" t="n">
-        <v>378.26</v>
+        <v>378.36</v>
       </c>
       <c r="O240" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>389.05</v>
       </c>
       <c r="N241" t="n">
-        <v>383.76</v>
+        <v>384.44</v>
       </c>
       <c r="O241" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         <v>396.78</v>
       </c>
       <c r="N242" t="n">
-        <v>380.86</v>
+        <v>380.63</v>
       </c>
       <c r="O242" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>382.09</v>
       </c>
       <c r="N243" t="n">
-        <v>391.63</v>
+        <v>391.23</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
       <c r="L244" t="inlineStr"/>
       <c r="M244" t="inlineStr"/>
       <c r="N244" t="n">
-        <v>365.86</v>
+        <v>365.38</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>383.93</v>
       </c>
       <c r="N245" t="n">
-        <v>382.44</v>
+        <v>382.63</v>
       </c>
       <c r="O245" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>385.46</v>
       </c>
       <c r="N246" t="n">
-        <v>380.49</v>
+        <v>380.58</v>
       </c>
       <c r="O246" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>368.35</v>
       </c>
       <c r="N247" t="n">
-        <v>368.38</v>
+        <v>368.8</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>409.31</v>
       </c>
       <c r="N248" t="n">
-        <v>408.52</v>
+        <v>407.92</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>384.46</v>
       </c>
       <c r="N249" t="n">
-        <v>373</v>
+        <v>373.76</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>382.4</v>
       </c>
       <c r="N250" t="n">
-        <v>379.04</v>
+        <v>379.58</v>
       </c>
       <c r="O250" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>386.2</v>
       </c>
       <c r="N251" t="n">
-        <v>379.77</v>
+        <v>380.12</v>
       </c>
       <c r="O251" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>396.98</v>
       </c>
       <c r="N252" t="n">
-        <v>396.94</v>
+        <v>396.49</v>
       </c>
       <c r="O252" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>411.39</v>
       </c>
       <c r="N253" t="n">
-        <v>409.19</v>
+        <v>408.79</v>
       </c>
       <c r="O253" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>398.5</v>
       </c>
       <c r="N254" t="n">
-        <v>393.76</v>
+        <v>393.16</v>
       </c>
       <c r="O254" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>396.84</v>
       </c>
       <c r="N255" t="n">
-        <v>397.26</v>
+        <v>396.54</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>387.39</v>
       </c>
       <c r="N256" t="n">
-        <v>388.05</v>
+        <v>388.24</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>390.39</v>
       </c>
       <c r="N257" t="n">
-        <v>388.25</v>
+        <v>388.4</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>389.22</v>
       </c>
       <c r="N258" t="n">
-        <v>384.7</v>
+        <v>384.82</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>386.07</v>
       </c>
       <c r="N259" t="n">
-        <v>376.02</v>
+        <v>376.59</v>
       </c>
       <c r="O259" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>386.59</v>
       </c>
       <c r="N260" t="n">
-        <v>380.96</v>
+        <v>381.31</v>
       </c>
       <c r="O260" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>402.3</v>
       </c>
       <c r="N261" t="n">
-        <v>394.12</v>
+        <v>393.55</v>
       </c>
       <c r="O261" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>382.83</v>
       </c>
       <c r="N262" t="n">
-        <v>384.5</v>
+        <v>385.35</v>
       </c>
       <c r="O262" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>378.97</v>
       </c>
       <c r="N263" t="n">
-        <v>370.39</v>
+        <v>371.31</v>
       </c>
       <c r="O263" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>379.45</v>
       </c>
       <c r="N264" t="n">
-        <v>357.31</v>
+        <v>358.01</v>
       </c>
       <c r="O264" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>383.27</v>
       </c>
       <c r="N266" t="n">
-        <v>370.76</v>
+        <v>371.39</v>
       </c>
       <c r="O266" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>382.64</v>
       </c>
       <c r="N267" t="n">
-        <v>370</v>
+        <v>370.69</v>
       </c>
       <c r="O267" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>395.15</v>
       </c>
       <c r="N269" t="n">
-        <v>384.56</v>
+        <v>383.84</v>
       </c>
       <c r="O269" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>391.97</v>
       </c>
       <c r="N270" t="n">
-        <v>389.43</v>
+        <v>389.55</v>
       </c>
       <c r="O270" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>399.44</v>
       </c>
       <c r="N271" t="n">
-        <v>383.47</v>
+        <v>383.19</v>
       </c>
       <c r="O271" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>422.92</v>
       </c>
       <c r="N272" t="n">
-        <v>413.11</v>
+        <v>412.64</v>
       </c>
       <c r="O272" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>379.69</v>
       </c>
       <c r="N273" t="n">
-        <v>358.41</v>
+        <v>359.13</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>404.93</v>
       </c>
       <c r="N274" t="n">
-        <v>388.57</v>
+        <v>388.24</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>396.62</v>
       </c>
       <c r="N275" t="n">
-        <v>388.31</v>
+        <v>387.9</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>402.46</v>
       </c>
       <c r="N276" t="n">
-        <v>394.64</v>
+        <v>394.29</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>390.42</v>
       </c>
       <c r="N277" t="n">
-        <v>384.89</v>
+        <v>385.05</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>388.24</v>
       </c>
       <c r="N278" t="n">
-        <v>371.06</v>
+        <v>371.98</v>
       </c>
       <c r="O278" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>392.42</v>
       </c>
       <c r="N279" t="n">
-        <v>388.43</v>
+        <v>389.28</v>
       </c>
       <c r="O279" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>391.51</v>
       </c>
       <c r="N280" t="n">
-        <v>385.06</v>
+        <v>385.91</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>390.49</v>
       </c>
       <c r="N281" t="n">
-        <v>391.52</v>
+        <v>392.13</v>
       </c>
       <c r="O281" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>386.27</v>
       </c>
       <c r="N282" t="n">
-        <v>379.33</v>
+        <v>379.89</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
@@ -13841,7 +13841,7 @@
         <v>403.29</v>
       </c>
       <c r="N283" t="n">
-        <v>399.25</v>
+        <v>398.73</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>401.43</v>
       </c>
       <c r="N284" t="n">
-        <v>401.36</v>
+        <v>401.03</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>384.72</v>
       </c>
       <c r="N285" t="n">
-        <v>383.36</v>
+        <v>382.88</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>405.14</v>
       </c>
       <c r="N286" t="n">
-        <v>406.52</v>
+        <v>405.95</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>401.72</v>
       </c>
       <c r="N287" t="n">
-        <v>396.65</v>
+        <v>396.4</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>396.84</v>
       </c>
       <c r="N288" t="n">
-        <v>388.92</v>
+        <v>388.94</v>
       </c>
       <c r="O288" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>381.15</v>
       </c>
       <c r="N289" t="n">
-        <v>382.11</v>
+        <v>382.48</v>
       </c>
       <c r="O289" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>389.42</v>
       </c>
       <c r="N290" t="n">
-        <v>385.26</v>
+        <v>385.49</v>
       </c>
       <c r="O290" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>380.71</v>
       </c>
       <c r="N291" t="n">
-        <v>380.35</v>
+        <v>381.09</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>403.68</v>
       </c>
       <c r="N292" t="n">
-        <v>410.82</v>
+        <v>410.27</v>
       </c>
       <c r="O292" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>387.35</v>
       </c>
       <c r="N293" t="n">
-        <v>386.94</v>
+        <v>387.47</v>
       </c>
       <c r="O293" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>396.66</v>
       </c>
       <c r="N294" t="n">
-        <v>389.02</v>
+        <v>388.44</v>
       </c>
       <c r="O294" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>398.87</v>
       </c>
       <c r="N296" t="n">
-        <v>381.5</v>
+        <v>381.19</v>
       </c>
       <c r="O296" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>390.26</v>
       </c>
       <c r="N298" t="n">
-        <v>387.13</v>
+        <v>387.81</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>407.4</v>
       </c>
       <c r="N299" t="n">
-        <v>400.42</v>
+        <v>400.02</v>
       </c>
       <c r="O299" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>391.83</v>
       </c>
       <c r="N300" t="n">
-        <v>387.65</v>
+        <v>388.45</v>
       </c>
       <c r="O300" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>417.41</v>
       </c>
       <c r="N301" t="n">
-        <v>405.55</v>
+        <v>404.9</v>
       </c>
       <c r="O301" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>403.25</v>
       </c>
       <c r="N303" t="n">
-        <v>397.01</v>
+        <v>396.77</v>
       </c>
       <c r="O303" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>403.63</v>
       </c>
       <c r="N304" t="n">
-        <v>389.97</v>
+        <v>390.02</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>399.89</v>
       </c>
       <c r="N305" t="n">
-        <v>386.67</v>
+        <v>386.54</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>412.24</v>
       </c>
       <c r="N306" t="n">
-        <v>403.6</v>
+        <v>402.97</v>
       </c>
       <c r="O306" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>411.53</v>
       </c>
       <c r="N307" t="n">
-        <v>413.36</v>
+        <v>414.16</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>367.55</v>
       </c>
       <c r="N308" t="n">
-        <v>367.68</v>
+        <v>368.3</v>
       </c>
       <c r="O308" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>403.63</v>
       </c>
       <c r="N309" t="n">
-        <v>397.5</v>
+        <v>396.92</v>
       </c>
       <c r="O309" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>381.81</v>
       </c>
       <c r="N310" t="n">
-        <v>380.3</v>
+        <v>380.55</v>
       </c>
       <c r="O310" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>411.37</v>
       </c>
       <c r="N312" t="n">
-        <v>402.97</v>
+        <v>402.62</v>
       </c>
       <c r="O312" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>404.03</v>
       </c>
       <c r="N313" t="n">
-        <v>392.17</v>
+        <v>392.36</v>
       </c>
       <c r="O313" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>399.31</v>
       </c>
       <c r="N314" t="n">
-        <v>383.74</v>
+        <v>383.76</v>
       </c>
       <c r="O314" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>385.77</v>
       </c>
       <c r="N315" t="n">
-        <v>379.76</v>
+        <v>380.09</v>
       </c>
       <c r="O315" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>404.77</v>
       </c>
       <c r="N316" t="n">
-        <v>397.28</v>
+        <v>396.9</v>
       </c>
       <c r="O316" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>406.93</v>
       </c>
       <c r="N317" t="n">
-        <v>398.42</v>
+        <v>398.14</v>
       </c>
       <c r="O317" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>401.8</v>
       </c>
       <c r="N318" t="n">
-        <v>398.12</v>
+        <v>398.06</v>
       </c>
       <c r="O318" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>403.5</v>
       </c>
       <c r="N319" t="n">
-        <v>399.99</v>
+        <v>399.67</v>
       </c>
       <c r="O319" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>402.21</v>
       </c>
       <c r="N320" t="n">
-        <v>396.57</v>
+        <v>397.25</v>
       </c>
       <c r="O320" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>403.69</v>
       </c>
       <c r="N323" t="n">
-        <v>397.89</v>
+        <v>397.79</v>
       </c>
       <c r="O323" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>398.59</v>
       </c>
       <c r="N324" t="n">
-        <v>386.06</v>
+        <v>385.95</v>
       </c>
       <c r="O324" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>392.03</v>
       </c>
       <c r="N325" t="n">
-        <v>387.82</v>
+        <v>388.42</v>
       </c>
       <c r="O325" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>393.07</v>
       </c>
       <c r="N326" t="n">
-        <v>386.88</v>
+        <v>387.35</v>
       </c>
       <c r="O326" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>384.74</v>
       </c>
       <c r="N327" t="n">
-        <v>381.05</v>
+        <v>381.17</v>
       </c>
       <c r="O327" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>404.04</v>
       </c>
       <c r="N328" t="n">
-        <v>399.12</v>
+        <v>399</v>
       </c>
       <c r="O328" t="inlineStr">
         <is>
@@ -16065,7 +16065,7 @@
         <v>399.43</v>
       </c>
       <c r="N329" t="n">
-        <v>393.19</v>
+        <v>392.61</v>
       </c>
       <c r="O329" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>395.11</v>
       </c>
       <c r="N330" t="n">
-        <v>390.34</v>
+        <v>390.81</v>
       </c>
       <c r="O330" t="inlineStr">
         <is>
@@ -16167,7 +16167,7 @@
         <v>404.27</v>
       </c>
       <c r="N331" t="n">
-        <v>395.18</v>
+        <v>395.21</v>
       </c>
       <c r="O331" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>404.76</v>
       </c>
       <c r="N332" t="n">
-        <v>389.06</v>
+        <v>389.24</v>
       </c>
       <c r="O332" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>399.42</v>
       </c>
       <c r="N333" t="n">
-        <v>386.58</v>
+        <v>386.18</v>
       </c>
       <c r="O333" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>407.23</v>
       </c>
       <c r="N334" t="n">
-        <v>393.6</v>
+        <v>394.2</v>
       </c>
       <c r="O334" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>385.35</v>
       </c>
       <c r="N336" t="n">
-        <v>380.45</v>
+        <v>381.41</v>
       </c>
       <c r="O336" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>413.01</v>
       </c>
       <c r="N338" t="n">
-        <v>394.56</v>
+        <v>394.61</v>
       </c>
       <c r="O338" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>401.51</v>
       </c>
       <c r="N339" t="n">
-        <v>397.65</v>
+        <v>397.48</v>
       </c>
       <c r="O339" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
       <c r="L340" t="inlineStr"/>
       <c r="M340" t="inlineStr"/>
       <c r="N340" t="n">
-        <v>403.9</v>
+        <v>403.46</v>
       </c>
       <c r="O340" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>423.23</v>
       </c>
       <c r="N341" t="n">
-        <v>406.81</v>
+        <v>406.03</v>
       </c>
       <c r="O341" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>403.45</v>
       </c>
       <c r="N342" t="n">
-        <v>401.41</v>
+        <v>401.71</v>
       </c>
       <c r="O342" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>431.9</v>
       </c>
       <c r="N343" t="n">
-        <v>411.68</v>
+        <v>411.13</v>
       </c>
       <c r="O343" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>407.02</v>
       </c>
       <c r="N344" t="n">
-        <v>403.86</v>
+        <v>404.01</v>
       </c>
       <c r="O344" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>387.27</v>
       </c>
       <c r="N345" t="n">
-        <v>384.3</v>
+        <v>384.62</v>
       </c>
       <c r="O345" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>420.44</v>
       </c>
       <c r="N346" t="n">
-        <v>401.48</v>
+        <v>400.87</v>
       </c>
       <c r="O346" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>387.95</v>
       </c>
       <c r="N347" t="n">
-        <v>383.81</v>
+        <v>384.28</v>
       </c>
       <c r="O347" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>422.1</v>
       </c>
       <c r="N348" t="n">
-        <v>410.93</v>
+        <v>410.4</v>
       </c>
       <c r="O348" t="inlineStr">
         <is>
@@ -17025,7 +17025,7 @@
         <v>376.52</v>
       </c>
       <c r="N349" t="n">
-        <v>369.32</v>
+        <v>370.17</v>
       </c>
       <c r="O349" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>392.58</v>
       </c>
       <c r="N350" t="n">
-        <v>386.95</v>
+        <v>387.53</v>
       </c>
       <c r="O350" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>389.26</v>
       </c>
       <c r="N351" t="n">
-        <v>376.11</v>
+        <v>377.01</v>
       </c>
       <c r="O351" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>393.25</v>
       </c>
       <c r="N352" t="n">
-        <v>387.47</v>
+        <v>388.27</v>
       </c>
       <c r="O352" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>404.67</v>
       </c>
       <c r="N353" t="n">
-        <v>395.79</v>
+        <v>395.56</v>
       </c>
       <c r="O353" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>387.68</v>
       </c>
       <c r="N354" t="n">
-        <v>377.18</v>
+        <v>377.83</v>
       </c>
       <c r="O354" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>390.34</v>
       </c>
       <c r="N356" t="n">
-        <v>382.49</v>
+        <v>382.69</v>
       </c>
       <c r="O356" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>417.5</v>
       </c>
       <c r="N357" t="n">
-        <v>404.63</v>
+        <v>404.3</v>
       </c>
       <c r="O357" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>376.32</v>
       </c>
       <c r="N358" t="n">
-        <v>368.78</v>
+        <v>369.65</v>
       </c>
       <c r="O358" t="inlineStr">
         <is>
@@ -17519,7 +17519,7 @@
         <v>391.49</v>
       </c>
       <c r="N359" t="n">
-        <v>391.76</v>
+        <v>392.39</v>
       </c>
       <c r="O359" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>400.2</v>
       </c>
       <c r="N360" t="n">
-        <v>395.45</v>
+        <v>395</v>
       </c>
       <c r="O360" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>395.08</v>
       </c>
       <c r="N361" t="n">
-        <v>390.8</v>
+        <v>391.37</v>
       </c>
       <c r="O361" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>395.51</v>
       </c>
       <c r="N362" t="n">
-        <v>386.81</v>
+        <v>387.12</v>
       </c>
       <c r="O362" t="inlineStr">
         <is>
@@ -17699,7 +17699,7 @@
         <v>410.79</v>
       </c>
       <c r="N363" t="n">
-        <v>405.18</v>
+        <v>405.08</v>
       </c>
       <c r="O363" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>386.12</v>
       </c>
       <c r="N364" t="n">
-        <v>372.92</v>
+        <v>373.19</v>
       </c>
       <c r="O364" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>389.62</v>
       </c>
       <c r="N365" t="n">
-        <v>385.12</v>
+        <v>385.7</v>
       </c>
       <c r="O365" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>413.28</v>
       </c>
       <c r="N366" t="n">
-        <v>397.7</v>
+        <v>397.35</v>
       </c>
       <c r="O366" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>392.86</v>
       </c>
       <c r="N368" t="n">
-        <v>388.63</v>
+        <v>388.84</v>
       </c>
       <c r="O368" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>422.72</v>
       </c>
       <c r="N369" t="n">
-        <v>410.05</v>
+        <v>409.55</v>
       </c>
       <c r="O369" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>398.05</v>
       </c>
       <c r="N371" t="n">
-        <v>387.92</v>
+        <v>388.22</v>
       </c>
       <c r="O371" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>399.91</v>
       </c>
       <c r="N372" t="n">
-        <v>388.12</v>
+        <v>388.29</v>
       </c>
       <c r="O372" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>395.81</v>
       </c>
       <c r="N373" t="n">
-        <v>390.63</v>
+        <v>391.08</v>
       </c>
       <c r="O373" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>387</v>
       </c>
       <c r="N374" t="n">
-        <v>378</v>
+        <v>377.67</v>
       </c>
       <c r="O374" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>378.87</v>
       </c>
       <c r="N375" t="n">
-        <v>372.39</v>
+        <v>373.05</v>
       </c>
       <c r="O375" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>389.01</v>
       </c>
       <c r="N376" t="n">
-        <v>389.33</v>
+        <v>389.7</v>
       </c>
       <c r="O376" t="inlineStr">
         <is>
@@ -18353,7 +18353,7 @@
         <v>378.44</v>
       </c>
       <c r="N377" t="n">
-        <v>384.67</v>
+        <v>385.12</v>
       </c>
       <c r="O377" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>384.64</v>
       </c>
       <c r="N378" t="n">
-        <v>384.51</v>
+        <v>384.43</v>
       </c>
       <c r="O378" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>404.26</v>
       </c>
       <c r="N379" t="n">
-        <v>395.75</v>
+        <v>395.35</v>
       </c>
       <c r="O379" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>385.18</v>
       </c>
       <c r="N380" t="n">
-        <v>382.43</v>
+        <v>383.05</v>
       </c>
       <c r="O380" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>401.81</v>
       </c>
       <c r="N381" t="n">
-        <v>392.56</v>
+        <v>392.14</v>
       </c>
       <c r="O381" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>380.28</v>
       </c>
       <c r="N382" t="n">
-        <v>381.38</v>
+        <v>381.96</v>
       </c>
       <c r="O382" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>388.77</v>
       </c>
       <c r="N383" t="n">
-        <v>386.02</v>
+        <v>386.47</v>
       </c>
       <c r="O383" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>398.89</v>
       </c>
       <c r="N384" t="n">
-        <v>386.29</v>
+        <v>385.71</v>
       </c>
       <c r="O384" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>381.77</v>
       </c>
       <c r="N385" t="n">
-        <v>377.96</v>
+        <v>377.97</v>
       </c>
       <c r="O385" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>391.58</v>
       </c>
       <c r="N386" t="n">
-        <v>387.59</v>
+        <v>387.81</v>
       </c>
       <c r="O386" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>399.04</v>
       </c>
       <c r="N387" t="n">
-        <v>391.51</v>
+        <v>391.26</v>
       </c>
       <c r="O387" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>372.31</v>
       </c>
       <c r="N388" t="n">
-        <v>368.66</v>
+        <v>368.86</v>
       </c>
       <c r="O388" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>404.03</v>
       </c>
       <c r="N389" t="n">
-        <v>396.76</v>
+        <v>396.46</v>
       </c>
       <c r="O389" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>414.45</v>
       </c>
       <c r="N390" t="n">
-        <v>404.85</v>
+        <v>404.3</v>
       </c>
       <c r="O390" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>380.7</v>
       </c>
       <c r="N391" t="n">
-        <v>381.92</v>
+        <v>382.59</v>
       </c>
       <c r="O391" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>388.29</v>
       </c>
       <c r="N392" t="n">
-        <v>389.14</v>
+        <v>389.92</v>
       </c>
       <c r="O392" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>374.99</v>
       </c>
       <c r="N393" t="n">
-        <v>372.8</v>
+        <v>373.33</v>
       </c>
       <c r="O393" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>386.74</v>
       </c>
       <c r="N394" t="n">
-        <v>383.94</v>
+        <v>384.48</v>
       </c>
       <c r="O394" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>405.4</v>
       </c>
       <c r="N395" t="n">
-        <v>393.4</v>
+        <v>392.73</v>
       </c>
       <c r="O395" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>394.13</v>
       </c>
       <c r="N396" t="n">
-        <v>379.11</v>
+        <v>378.94</v>
       </c>
       <c r="O396" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>395.47</v>
       </c>
       <c r="N398" t="n">
-        <v>377.73</v>
+        <v>377.18</v>
       </c>
       <c r="O398" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>403.11</v>
       </c>
       <c r="N399" t="n">
-        <v>389.66</v>
+        <v>389.94</v>
       </c>
       <c r="O399" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>390.08</v>
       </c>
       <c r="N400" t="n">
-        <v>382.87</v>
+        <v>383.37</v>
       </c>
       <c r="O400" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>381.98</v>
       </c>
       <c r="N401" t="n">
-        <v>377.18</v>
+        <v>377.2</v>
       </c>
       <c r="O401" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>381.33</v>
       </c>
       <c r="N402" t="n">
-        <v>370.86</v>
+        <v>370.68</v>
       </c>
       <c r="O402" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
       </c>
       <c r="M403" t="inlineStr"/>
       <c r="N403" t="n">
-        <v>372.23</v>
+        <v>372.58</v>
       </c>
       <c r="O403" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>380.32</v>
       </c>
       <c r="N404" t="n">
-        <v>348.59</v>
+        <v>349.11</v>
       </c>
       <c r="O404" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>378.54</v>
       </c>
       <c r="N405" t="n">
-        <v>373.7</v>
+        <v>374.6</v>
       </c>
       <c r="O405" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>392.63</v>
       </c>
       <c r="N406" t="n">
-        <v>378.72</v>
+        <v>378.25</v>
       </c>
       <c r="O406" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>385.08</v>
       </c>
       <c r="N407" t="n">
-        <v>376.51</v>
+        <v>376.14</v>
       </c>
       <c r="O407" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>379.37</v>
       </c>
       <c r="N408" t="n">
-        <v>366.88</v>
+        <v>366.67</v>
       </c>
       <c r="O408" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>385.78</v>
       </c>
       <c r="N409" t="n">
-        <v>376.48</v>
+        <v>376.9</v>
       </c>
       <c r="O409" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>372.32</v>
       </c>
       <c r="N410" t="n">
-        <v>364.4</v>
+        <v>364.76</v>
       </c>
       <c r="O410" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>386.87</v>
       </c>
       <c r="N411" t="n">
-        <v>376.87</v>
+        <v>376.74</v>
       </c>
       <c r="O411" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>395.71</v>
       </c>
       <c r="N412" t="n">
-        <v>392.36</v>
+        <v>391.69</v>
       </c>
       <c r="O412" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>395</v>
       </c>
       <c r="N413" t="n">
-        <v>386.99</v>
+        <v>386.44</v>
       </c>
       <c r="O413" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>381.68</v>
       </c>
       <c r="N414" t="n">
-        <v>352.29</v>
+        <v>352.82</v>
       </c>
       <c r="O414" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>387.97</v>
       </c>
       <c r="N415" t="n">
-        <v>385.42</v>
+        <v>385.8</v>
       </c>
       <c r="O415" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>377.9</v>
       </c>
       <c r="N416" t="n">
-        <v>373.68</v>
+        <v>374.2</v>
       </c>
       <c r="O416" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>388.35</v>
       </c>
       <c r="N417" t="n">
-        <v>387.45</v>
+        <v>387.65</v>
       </c>
       <c r="O417" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>383.92</v>
       </c>
       <c r="N418" t="n">
-        <v>378.14</v>
+        <v>377.84</v>
       </c>
       <c r="O418" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>396.18</v>
       </c>
       <c r="N420" t="n">
-        <v>385.17</v>
+        <v>384.92</v>
       </c>
       <c r="O420" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>388.25</v>
       </c>
       <c r="N421" t="n">
-        <v>384.81</v>
+        <v>385.51</v>
       </c>
       <c r="O421" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>389.93</v>
       </c>
       <c r="N422" t="n">
-        <v>388.99</v>
+        <v>389.29</v>
       </c>
       <c r="O422" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>396.76</v>
       </c>
       <c r="N423" t="n">
-        <v>391.48</v>
+        <v>391.96</v>
       </c>
       <c r="O423" t="inlineStr">
         <is>
@@ -20684,7 +20684,7 @@
         <v>391.65</v>
       </c>
       <c r="N424" t="n">
-        <v>390.38</v>
+        <v>390.82</v>
       </c>
       <c r="O424" t="inlineStr">
         <is>
@@ -20735,7 +20735,7 @@
         <v>394.67</v>
       </c>
       <c r="N425" t="n">
-        <v>382.42</v>
+        <v>382.24</v>
       </c>
       <c r="O425" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>378.13</v>
       </c>
       <c r="N426" t="n">
-        <v>373.21</v>
+        <v>373.93</v>
       </c>
       <c r="O426" t="inlineStr">
         <is>
@@ -20837,7 +20837,7 @@
         <v>389.29</v>
       </c>
       <c r="N427" t="n">
-        <v>370.99</v>
+        <v>370.49</v>
       </c>
       <c r="O427" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
         <v>386.32</v>
       </c>
       <c r="N428" t="n">
-        <v>391.02</v>
+        <v>391.72</v>
       </c>
       <c r="O428" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>394.91</v>
       </c>
       <c r="N429" t="n">
-        <v>392.35</v>
+        <v>392.68</v>
       </c>
       <c r="O429" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>383.18</v>
       </c>
       <c r="N430" t="n">
-        <v>372.79</v>
+        <v>372.87</v>
       </c>
       <c r="O430" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>384.74</v>
       </c>
       <c r="N431" t="n">
-        <v>391.07</v>
+        <v>391.99</v>
       </c>
       <c r="O431" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>394.94</v>
       </c>
       <c r="N432" t="n">
-        <v>389.83</v>
+        <v>389.48</v>
       </c>
       <c r="O432" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>390.57</v>
       </c>
       <c r="N433" t="n">
-        <v>394.14</v>
+        <v>394.81</v>
       </c>
       <c r="O433" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>402.06</v>
       </c>
       <c r="N434" t="n">
-        <v>392.23</v>
+        <v>392.73</v>
       </c>
       <c r="O434" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>400.22</v>
       </c>
       <c r="N435" t="n">
-        <v>386.31</v>
+        <v>386.48</v>
       </c>
       <c r="O435" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>412.03</v>
       </c>
       <c r="N436" t="n">
-        <v>400.01</v>
+        <v>399.57</v>
       </c>
       <c r="O436" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>388.11</v>
       </c>
       <c r="N437" t="n">
-        <v>387.3</v>
+        <v>387.87</v>
       </c>
       <c r="O437" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>393.85</v>
       </c>
       <c r="N438" t="n">
-        <v>394.36</v>
+        <v>395.06</v>
       </c>
       <c r="O438" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>403.76</v>
       </c>
       <c r="N439" t="n">
-        <v>391.32</v>
+        <v>390.85</v>
       </c>
       <c r="O439" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>407.86</v>
       </c>
       <c r="N440" t="n">
-        <v>396.93</v>
+        <v>396.42</v>
       </c>
       <c r="O440" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>414.57</v>
       </c>
       <c r="N441" t="n">
-        <v>403.91</v>
+        <v>403.16</v>
       </c>
       <c r="O441" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>391.93</v>
       </c>
       <c r="N442" t="n">
-        <v>390.4</v>
+        <v>390.93</v>
       </c>
       <c r="O442" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>391.35</v>
       </c>
       <c r="N443" t="n">
-        <v>388.9</v>
+        <v>389.13</v>
       </c>
       <c r="O443" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>400.08</v>
       </c>
       <c r="N444" t="n">
-        <v>396.18</v>
+        <v>395.85</v>
       </c>
       <c r="O444" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>393.32</v>
       </c>
       <c r="N445" t="n">
-        <v>386.99</v>
+        <v>387.01</v>
       </c>
       <c r="O445" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>397.35</v>
       </c>
       <c r="N446" t="n">
-        <v>386.62</v>
+        <v>386.72</v>
       </c>
       <c r="O446" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>390.89</v>
       </c>
       <c r="N447" t="n">
-        <v>391.7</v>
+        <v>392.25</v>
       </c>
       <c r="O447" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>405.24</v>
       </c>
       <c r="N448" t="n">
-        <v>406.08</v>
+        <v>405.79</v>
       </c>
       <c r="O448" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>389.17</v>
       </c>
       <c r="N449" t="n">
-        <v>390.24</v>
+        <v>390.94</v>
       </c>
       <c r="O449" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>385.66</v>
       </c>
       <c r="N450" t="n">
-        <v>388.12</v>
+        <v>388.99</v>
       </c>
       <c r="O450" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>411.76</v>
       </c>
       <c r="N451" t="n">
-        <v>404.2</v>
+        <v>403.58</v>
       </c>
       <c r="O451" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>400.82</v>
       </c>
       <c r="N452" t="n">
-        <v>396.38</v>
+        <v>395.95</v>
       </c>
       <c r="O452" t="inlineStr">
         <is>
@@ -22151,7 +22151,7 @@
         <v>380.69</v>
       </c>
       <c r="N453" t="n">
-        <v>379.79</v>
+        <v>380.48</v>
       </c>
       <c r="O453" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>381.92</v>
       </c>
       <c r="N454" t="n">
-        <v>385.17</v>
+        <v>385.91</v>
       </c>
       <c r="O454" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>391.1</v>
       </c>
       <c r="N455" t="n">
-        <v>394.14</v>
+        <v>394.62</v>
       </c>
       <c r="O455" t="inlineStr">
         <is>
@@ -22278,7 +22278,7 @@
         <v>398.81</v>
       </c>
       <c r="N456" t="n">
-        <v>384.98</v>
+        <v>384.7</v>
       </c>
       <c r="O456" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>406.43</v>
       </c>
       <c r="N457" t="n">
-        <v>399.15</v>
+        <v>399.05</v>
       </c>
       <c r="O457" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>416.39</v>
       </c>
       <c r="N458" t="n">
-        <v>406.44</v>
+        <v>406.85</v>
       </c>
       <c r="O458" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>399.71</v>
       </c>
       <c r="N459" t="n">
-        <v>384.37</v>
+        <v>384.36</v>
       </c>
       <c r="O459" t="inlineStr">
         <is>
@@ -22482,7 +22482,7 @@
         <v>389.5</v>
       </c>
       <c r="N460" t="n">
-        <v>384.67</v>
+        <v>384.82</v>
       </c>
       <c r="O460" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>392.1</v>
       </c>
       <c r="N461" t="n">
-        <v>392.12</v>
+        <v>392.6</v>
       </c>
       <c r="O461" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>386.72</v>
       </c>
       <c r="N463" t="n">
-        <v>389.39</v>
+        <v>390.37</v>
       </c>
       <c r="O463" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>399.08</v>
       </c>
       <c r="N464" t="n">
-        <v>395.98</v>
+        <v>395.58</v>
       </c>
       <c r="O464" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>371.89</v>
       </c>
       <c r="N465" t="n">
-        <v>381.65</v>
+        <v>381.35</v>
       </c>
       <c r="O465" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>393.32</v>
       </c>
       <c r="N466" t="n">
-        <v>386.29</v>
+        <v>386.89</v>
       </c>
       <c r="O466" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>398.12</v>
       </c>
       <c r="N467" t="n">
-        <v>394.17</v>
+        <v>394.04</v>
       </c>
       <c r="O467" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>407.26</v>
       </c>
       <c r="N468" t="n">
-        <v>400.9</v>
+        <v>400.53</v>
       </c>
       <c r="O468" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>381.82</v>
       </c>
       <c r="N469" t="n">
-        <v>382.59</v>
+        <v>382.74</v>
       </c>
       <c r="O469" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>387.95</v>
       </c>
       <c r="N470" t="n">
-        <v>386.57</v>
+        <v>386.93</v>
       </c>
       <c r="O470" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>399.83</v>
       </c>
       <c r="N471" t="n">
-        <v>397.45</v>
+        <v>397.3</v>
       </c>
       <c r="O471" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>409.49</v>
       </c>
       <c r="N472" t="n">
-        <v>403.54</v>
+        <v>403.08</v>
       </c>
       <c r="O472" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>404.4</v>
       </c>
       <c r="N474" t="n">
-        <v>399.2</v>
+        <v>398.63</v>
       </c>
       <c r="O474" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>382.75</v>
       </c>
       <c r="N475" t="n">
-        <v>381.24</v>
+        <v>381.69</v>
       </c>
       <c r="O475" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>409.48</v>
       </c>
       <c r="N476" t="n">
-        <v>404.86</v>
+        <v>404.08</v>
       </c>
       <c r="O476" t="inlineStr">
         <is>
@@ -23325,7 +23325,7 @@
         <v>409.28</v>
       </c>
       <c r="N477" t="n">
-        <v>403.3</v>
+        <v>402.57</v>
       </c>
       <c r="O477" t="inlineStr">
         <is>
@@ -23376,7 +23376,7 @@
         <v>382.08</v>
       </c>
       <c r="N478" t="n">
-        <v>378.76</v>
+        <v>379.33</v>
       </c>
       <c r="O478" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>385.5</v>
       </c>
       <c r="N479" t="n">
-        <v>382.63</v>
+        <v>382.96</v>
       </c>
       <c r="O479" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>395.89</v>
       </c>
       <c r="N481" t="n">
-        <v>382.25</v>
+        <v>381.9</v>
       </c>
       <c r="O481" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>379.65</v>
       </c>
       <c r="N482" t="n">
-        <v>372.18</v>
+        <v>372.25</v>
       </c>
       <c r="O482" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>393</v>
       </c>
       <c r="N483" t="n">
-        <v>385.5</v>
+        <v>385.31</v>
       </c>
       <c r="O483" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         <v>384.88</v>
       </c>
       <c r="N484" t="n">
-        <v>377.48</v>
+        <v>377.7</v>
       </c>
       <c r="O484" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>379.49</v>
       </c>
       <c r="N485" t="n">
-        <v>380.73</v>
+        <v>380.21</v>
       </c>
       <c r="O485" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>399.2</v>
       </c>
       <c r="N487" t="n">
-        <v>381.88</v>
+        <v>381.65</v>
       </c>
       <c r="O487" t="inlineStr">
         <is>
@@ -23882,7 +23882,7 @@
         <v>391.78</v>
       </c>
       <c r="N488" t="n">
-        <v>379.02</v>
+        <v>378.84</v>
       </c>
       <c r="O488" t="inlineStr">
         <is>
@@ -23933,7 +23933,7 @@
         <v>388.13</v>
       </c>
       <c r="N489" t="n">
-        <v>384.21</v>
+        <v>384.49</v>
       </c>
       <c r="O489" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>388.56</v>
       </c>
       <c r="N490" t="n">
-        <v>387.72</v>
+        <v>388.29</v>
       </c>
       <c r="O490" t="inlineStr">
         <is>
@@ -30524,7 +30524,7 @@
         <v>0.1633</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1924071891950308</v>
+        <v>0.1934935300834046</v>
       </c>
       <c r="J14" t="n">
         <v>489</v>
@@ -30533,19 +30533,19 @@
         <v>444</v>
       </c>
       <c r="L14" t="n">
-        <v>0.020020499164354</v>
+        <v>0.02083838484894518</v>
       </c>
       <c r="M14" t="n">
-        <v>7.786398075060514</v>
+        <v>7.694796388070332</v>
       </c>
       <c r="N14" t="n">
-        <v>108.3589062711581</v>
+        <v>105.1969513625745</v>
       </c>
       <c r="O14" t="n">
-        <v>10.40955840903725</v>
+        <v>10.25655650608792</v>
       </c>
       <c r="P14" t="n">
-        <v>383.3197180878914</v>
+        <v>383.3916553714729</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30736,7 +30736,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>-34.992857709567815,173.46919226904834</t>
+          <t>-34.99286095420984,173.46919360770963</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -30813,7 +30813,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-34.99294249718107,173.46922725041617</t>
+          <t>-34.9929412164015,173.46922672199616</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -30886,7 +30886,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-34.992812028421845,173.46917342211813</t>
+          <t>-34.99281774923844,173.46917578238674</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -30963,7 +30963,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-34.99305494961662,173.46927364575686</t>
+          <t>-34.99305298575499,173.46927283551062</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -31036,7 +31036,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-34.9931022530647,173.46929316213445</t>
+          <t>-34.993104985393714,173.46929428943494</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -31113,7 +31113,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-34.99309567839795,173.46929044956798</t>
+          <t>-34.99309311683945,173.46928939272402</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -31190,7 +31190,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>-34.99295556113249,173.46923264030107</t>
+          <t>-34.992949157234776,173.4692299982004</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -31267,7 +31267,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>-34.99298049364036,173.46924292688362</t>
+          <t>-34.99298220134634,173.46924363144433</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -31340,7 +31340,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>-34.992880422061546,173.46920163967948</t>
+          <t>-34.99288511825375,173.46920357721666</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -31413,7 +31413,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>-34.99290979460858,173.46921375809745</t>
+          <t>-34.9929139784887,173.46921548426818</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -31486,7 +31486,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>-34.993283952917636,173.4693681277819</t>
+          <t>-34.99327951288428,173.4693662959106</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -31555,7 +31555,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>-34.992956756526745,173.46923313349325</t>
+          <t>-34.99295564651781,173.4692326755291</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -31608,7 +31608,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>-34.992928664761585,173.46922154348107</t>
+          <t>-34.99292764013789,173.46922112074523</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -31685,7 +31685,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>-34.993012940053156,173.46925631354165</t>
+          <t>-34.99300636538543,173.46925360098112</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -31762,7 +31762,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>-34.99288230053843,173.46920241469434</t>
+          <t>-34.99288426440064,173.46920322493716</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -31839,7 +31839,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>-34.99296367273619,173.46923598696253</t>
+          <t>-34.992960257324135,173.46923457784183</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -31912,7 +31912,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>-34.99291474695648,173.46921580131996</t>
+          <t>-34.99291858929534,173.46921738657898</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -31981,7 +31981,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>-34.99300192535005,173.46925176912234</t>
+          <t>-34.9930053407619,173.46925317824446</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -32050,7 +32050,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>-34.99294309487819,173.46922749701218</t>
+          <t>-34.992949157234776,173.4692299982004</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -32103,7 +32103,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>-34.99292362702849,173.4692194650299</t>
+          <t>-34.99292559089055,173.46922027527353</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -32176,7 +32176,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>-34.992898096821115,173.469208931866</t>
+          <t>-34.992893486014324,173.46920702955617</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -32253,7 +32253,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>-34.99294386334594,173.46922781406417</t>
+          <t>-34.992941045630886,173.46922665154017</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -32330,7 +32330,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>-34.99300260843243,173.46925205094675</t>
+          <t>-34.99299620453519,173.46924940884304</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -32407,7 +32407,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-34.9929139784887,173.46921548426818</t>
+          <t>-34.992908428443634,173.4692131944499</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -32476,7 +32476,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>-34.99304359337312,173.46926896042046</t>
+          <t>-34.993046154931825,173.46927001726314</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -32553,7 +32553,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>-34.99298544598769,173.46924497010968</t>
+          <t>-34.9929845067494,173.4692445826013</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -32630,7 +32630,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>-34.992880592832165,173.4692017101354</t>
+          <t>-34.99288255669437,173.4692025203782</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -32707,7 +32707,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>-34.99284029096303,173.46918508255283</t>
+          <t>-34.99284387714641,173.4691865621252</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -32784,7 +32784,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>-34.99292243163418,173.46921897183813</t>
+          <t>-34.992921748551716,173.4692186900143</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -32861,7 +32861,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>-34.99294394873124,173.46922784929217</t>
+          <t>-34.992940533319064,173.46922644017218</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -32938,7 +32938,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>-34.992968368927755,173.46923792450366</t>
+          <t>-34.99296153810366,173.4692351062621</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -33015,7 +33015,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>-34.992743890930434,173.46914531028781</t>
+          <t>-34.9927483309677,173.46914714213497</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -33092,7 +33092,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>-34.99300423075304,173.46925272027974</t>
+          <t>-34.993002352276534,173.46925194526258</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -33161,7 +33161,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>-34.99288725288656,173.46920445791545</t>
+          <t>-34.99288665518938,173.46920421131978</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -33202,7 +33202,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>-34.992921919322335,173.46921876047023</t>
+          <t>-34.99292448088155,173.46921981730975</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -33336,7 +33336,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>-34.9928646257784,173.46919512251065</t>
+          <t>-34.99286616271407,173.46919575661346</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -33446,7 +33446,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>-34.99287307892457,173.46919861007638</t>
+          <t>-34.992868809658844,173.46919684867947</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -33519,7 +33519,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>-34.99289801143582,173.46920889663804</t>
+          <t>-34.992896986812084,173.4692084739025</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -33596,7 +33596,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>-34.99284976873335,173.46918899285149</t>
+          <t>-34.99284934180675,173.4691888167119</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -33673,7 +33673,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>-34.9926760095874,173.46911730418796</t>
+          <t>-34.992680108083796,173.46911899512097</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -33750,7 +33750,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>-34.99297810285198,173.46924194049873</t>
+          <t>-34.992977334384285,173.46924162344646</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -33827,7 +33827,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>-34.99283081319257,173.4691811722551</t>
+          <t>-34.99282569007333,173.46917905858103</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -33900,7 +33900,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>-34.99279990370588,173.46916841975892</t>
+          <t>-34.99279349980651,173.46916577766837</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -33973,7 +33973,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>-34.99280075755913,173.46916877203768</t>
+          <t>-34.99279665906354,173.46916708109964</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -34095,7 +34095,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>-34.99290330532504,173.4692110807718</t>
+          <t>-34.99289758450926,173.46920872049822</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -34168,7 +34168,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>-34.99275140483963,173.46914841033697</t>
+          <t>-34.99275635718883,173.4691504535515</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -34245,7 +34245,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>-34.99277497119062,173.46915813322212</t>
+          <t>-34.9927758250439,173.46915848550066</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -34322,7 +34322,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>-34.99285574570555,173.46919145880605</t>
+          <t>-34.99285830726504,173.46919251564384</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -34399,7 +34399,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>-34.99285139105437,173.469189662182</t>
+          <t>-34.99285420876984,173.46919082470342</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -34444,7 +34444,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>-34.99285412338452,173.4691907894755</t>
+          <t>-34.99285455031111,173.46919096561513</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -34591,7 +34591,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>-34.99279845215536,173.46916782088502</t>
+          <t>-34.992803319118856,173.46916982887404</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -34664,7 +34664,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>-34.992657566353266,173.46910969499157</t>
+          <t>-34.9926626894739,173.4691118086569</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -34741,7 +34741,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>-34.99289314447308,173.46920688864435</t>
+          <t>-34.99288887520749,173.46920512724657</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -34818,7 +34818,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>-34.99285881957694,173.4691927270114</t>
+          <t>-34.99285429415516,173.46919085993136</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -34895,7 +34895,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>-34.99288323977688,173.46920280220178</t>
+          <t>-34.99288605749219,173.46920396472413</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -34993,7 +34993,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>-34.992857965723765,173.46919237473216</t>
+          <t>-34.99286308884273,173.46919448840788</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -35038,7 +35038,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>-34.992851732595646,173.46918980309366</t>
+          <t>-34.992850622586516,173.4691893451307</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -35115,7 +35115,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>-34.99289476679399,173.46920755797555</t>
+          <t>-34.99289322985839,173.4692069238723</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -35192,7 +35192,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>-34.99280912532086,173.46917222437003</t>
+          <t>-34.99280613683454,173.46917099139412</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -35241,7 +35241,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>-34.99283132550449,173.46918138362253</t>
+          <t>-34.992825433917375,173.46917895289735</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -35318,7 +35318,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>-34.992816809999894,173.46917539487993</t>
+          <t>-34.99280955224747,173.46917240050945</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -35395,7 +35395,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>-34.992914405415235,173.46921566040805</t>
+          <t>-34.99291432002994,173.46921562518008</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -35472,7 +35472,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>-34.992784619732596,173.46916211397019</t>
+          <t>-34.992786925136414,173.46916306512253</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -35549,7 +35549,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>-34.992827141623785,173.46917965745533</t>
+          <t>-34.99281954233021,173.4691765221725</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -35626,7 +35626,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>-34.9927029059695,173.4691284009389</t>
+          <t>-34.992694794362336,173.46912505429896</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -35687,7 +35687,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>-34.99287401816302,173.46919899758373</t>
+          <t>-34.992867870420376,173.46919646117215</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -35752,7 +35752,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>-34.992949498775985,173.46923013911243</t>
+          <t>-34.99295163340857,173.46923101981264</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -35890,7 +35890,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>-34.99294027716314,173.46922633448816</t>
+          <t>-34.99293882561295,173.4692257356122</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -36089,7 +36089,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>-34.99281715154118,173.4691755357915</t>
+          <t>-34.99282107926598,173.46917715627458</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -36166,7 +36166,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>-34.99279290210923,173.4691655310733</t>
+          <t>-34.99279631752225,173.4691669401882</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -36243,7 +36243,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>-34.992735010855796,173.4691416465941</t>
+          <t>-34.99273432777313,173.46914136477153</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -36381,7 +36381,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>-34.992843535605125,173.46918642121355</t>
+          <t>-34.992842852522585,173.46918613939022</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -36458,7 +36458,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>-34.99280570990792,173.4691708152547</t>
+          <t>-34.99280673453181,173.4691712379893</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -36535,7 +36535,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>-34.9928787997406,173.4692009703485</t>
+          <t>-34.99287470124553,173.46919927940726</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -36629,7 +36629,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>-34.99268676814037,173.46912174288747</t>
+          <t>-34.99269120817807,173.46912357473204</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -36678,7 +36678,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>-34.99281066225667,173.46917285847198</t>
+          <t>-34.99280767377036,173.46917162549602</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -36755,7 +36755,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>-34.99287461586023,173.46919924417932</t>
+          <t>-34.992872908153934,173.4691985396205</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -36869,7 +36869,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>-34.99282765393571,173.46917986882272</t>
+          <t>-34.99282569007333,173.46917905858103</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -37020,7 +37020,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>-34.992873164309884,173.46919864530432</t>
+          <t>-34.99286676041128,173.469196003209</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -37097,7 +37097,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>-34.992792219026626,173.46916524925032</t>
+          <t>-34.99279537828367,173.46916655268157</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -37174,7 +37174,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>-34.99283943710985,173.46918473027372</t>
+          <t>-34.99283832710069,173.4691842723109</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -37251,7 +37251,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>-34.99287521355742,173.46919949077488</t>
+          <t>-34.99286778503507,173.46919642594423</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -37324,7 +37324,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>-34.99289126599622,173.4692061136293</t>
+          <t>-34.992894937564614,173.46920762843146</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -37478,7 +37478,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>-34.9928787997406,173.4692009703485</t>
+          <t>-34.99287521355742,173.46919949077488</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -37527,7 +37527,7 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
-          <t>-34.99289211984934,173.46920646590885</t>
+          <t>-34.99289229061997,173.46920653636477</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -37604,7 +37604,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>-34.99282398236691,173.46917835402306</t>
+          <t>-34.9928263731559,173.46917934040422</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -37771,7 +37771,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>-34.99284012019239,173.469185012097</t>
+          <t>-34.992834997073224,173.46918289842247</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -37848,7 +37848,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>-34.99281254073377,173.46917363348547</t>
+          <t>-34.99280818608231,173.4691718368633</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -37917,7 +37917,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>-34.9928820443825,173.4692023090105</t>
+          <t>-34.99288093437343,173.46920185104716</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -37994,7 +37994,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>-34.99287068813577,173.46919762369407</t>
+          <t>-34.99286983428262,173.46919727141469</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -38051,7 +38051,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>-34.99287897051122,173.46920104080442</t>
+          <t>-34.992875725869304,173.46919970214253</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -38128,7 +38128,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>-34.992829361642116,173.46918057338075</t>
+          <t>-34.99283106934852,173.46918127793882</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -38205,7 +38205,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>-34.992761053382,173.46915239108273</t>
+          <t>-34.99276446879519,173.4691538001965</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -38282,7 +38282,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>-34.99281091841264,173.4691729641556</t>
+          <t>-34.99280622221986,173.46917102662198</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -38359,7 +38359,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>-34.99285881957694,173.4691927270114</t>
+          <t>-34.99285309876072,173.46919036674043</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -38436,7 +38436,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>-34.992825519302684,173.46917898812524</t>
+          <t>-34.992827824706346,173.46917993927855</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -38513,7 +38513,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>-34.99285788033845,173.46919233950422</t>
+          <t>-34.992853525687295,173.46919054288003</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -38590,7 +38590,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>-34.992857453411865,173.46919216336457</t>
+          <t>-34.99285557493491,173.4691913883502</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -38667,7 +38667,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>-34.99284541408213,173.46918719622767</t>
+          <t>-34.992844304072996,173.46918673826477</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -38704,7 +38704,7 @@
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
-          <t>-34.992697270537164,173.46912607590477</t>
+          <t>-34.992701539804095,173.46912783729422</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -38810,7 +38810,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>-34.99257781643626,173.4690767923025</t>
+          <t>-34.99257243715882,173.46907457295856</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -38887,7 +38887,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>-34.99268027885448,173.46911906557654</t>
+          <t>-34.99268403580948,173.4691206155986</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -38964,7 +38964,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>-34.9929473641434,173.4692292584123</t>
+          <t>-34.99294403411653,173.46922788452017</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -39098,7 +39098,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>-34.99281774923844,173.46917578238674</t>
+          <t>-34.992820481568735,173.46917690967933</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -39232,7 +39232,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>-34.992827056238475,173.46917962222741</t>
+          <t>-34.992824067752245,173.46917838925097</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -39305,7 +39305,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>-34.99287077352108,173.46919765892204</t>
+          <t>-34.992867101952555,173.46919614412076</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -39378,7 +39378,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>-34.99288375208876,173.46920301356948</t>
+          <t>-34.992889558289995,173.46920540907018</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -39455,7 +39455,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>-34.992700429794695,173.46912737933295</t>
+          <t>-34.99270461367626,173.46912910549477</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -39528,7 +39528,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>-34.992751319454285,173.46914837510914</t>
+          <t>-34.99275285639026,173.46914900921016</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -39605,7 +39605,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>-34.99276284647392,173.46915313086745</t>
+          <t>-34.992760711840674,173.46915225017136</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -39682,7 +39682,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>-34.99286445500778,173.4691950520548</t>
+          <t>-34.99285651417338,173.46919177585738</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -39735,7 +39735,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>-34.992896986812084,173.4692084739025</t>
+          <t>-34.99289357139965,173.46920706478411</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -39812,7 +39812,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>-34.992898267591755,173.46920900232195</t>
+          <t>-34.99289169292278,173.4692062897691</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -39889,7 +39889,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>-34.99285070797183,173.4691893803586</t>
+          <t>-34.992844047917046,173.46918663258103</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -39966,7 +39966,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>-34.99296136733306,173.46923503580604</t>
+          <t>-34.9929643558186,173.46923626878666</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -40039,7 +40039,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>-34.992842852522585,173.46918613939022</t>
+          <t>-34.99283644862367,173.4691834972969</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -40145,7 +40145,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>-34.992905354572486,173.46921192624302</t>
+          <t>-34.99290791613177,173.46921298308212</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -40222,7 +40222,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>-34.992834570146634,173.4691827222829</t>
+          <t>-34.99282944702743,173.46918060860867</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -40299,7 +40299,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>-34.99281792000909,173.46917585284254</t>
+          <t>-34.992822616201764,173.46917779037673</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -40385,7 +40385,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>-34.992812626119104,173.46917366871335</t>
+          <t>-34.99281390689894,173.46917419713168</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -40462,7 +40462,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>-34.99277975276896,173.4691601059821</t>
+          <t>-34.99277573965856,173.4691584502728</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -40535,7 +40535,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>-34.99298647061127,173.46924539284615</t>
+          <t>-34.99298809293194,173.46924606217888</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -40649,7 +40649,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>-34.99291662543326,173.46921657633547</t>
+          <t>-34.99292080931333,173.46921830250645</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -40714,7 +40714,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>-34.99287666510776,173.46920008964992</t>
+          <t>-34.99287111506234,173.46919779983378</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -40791,7 +40791,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>-34.99284276713726,173.4691861041623</t>
+          <t>-34.99283687555026,173.46918367343642</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -40844,7 +40844,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>-34.99285164721033,173.46918976786574</t>
+          <t>-34.9928510495131,173.4691895212703</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -40921,7 +40921,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>-34.99287248122737,173.46919836348079</t>
+          <t>-34.99287120044765,173.46919783506172</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -40998,7 +40998,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>-34.99285386722856,173.46919068379174</t>
+          <t>-34.992850878742466,173.46918945081447</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -41075,7 +41075,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>-34.99278188740215,173.46916098667862</t>
+          <t>-34.99278120431953,173.4691607048557</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -41152,7 +41152,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>-34.99289596218834,173.469208051167</t>
+          <t>-34.992897072197394,173.46920850913045</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -41221,7 +41221,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>-34.99284012019239,173.469185012097</t>
+          <t>-34.992834143220044,173.4691825461434</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -41270,7 +41270,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>-34.99286283268678,173.4691943827241</t>
+          <t>-34.992863857310574,173.4691948054593</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -41347,7 +41347,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>-34.99286599194346,173.4691956861576</t>
+          <t>-34.99286214960426,173.46919410090064</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -41453,7 +41453,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>-34.992950438014326,173.4692305266205</t>
+          <t>-34.99295393881174,173.46923197096888</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -41563,7 +41563,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>-34.99288298362093,173.46920269651793</t>
+          <t>-34.992887679813116,173.46920463405522</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -41640,7 +41640,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>-34.992915003112394,173.4692159070039</t>
+          <t>-34.99291858929534,173.46921738657898</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -41717,7 +41717,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>-34.992911929241295,173.46921463879679</t>
+          <t>-34.9929089407555,173.46921340581775</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -41794,7 +41794,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>-34.992911929241295,173.46921463879679</t>
+          <t>-34.99291363694748,173.46921534335627</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -41867,7 +41867,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>-34.99295889115929,173.4692340141936</t>
+          <t>-34.992953341114635,173.4692317243728</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -41940,7 +41940,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>-34.99284908565081,173.46918871102812</t>
+          <t>-34.99285207413691,173.46918994400534</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -42013,7 +42013,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>-34.993032151744124,173.46926423985735</t>
+          <t>-34.99303582331167,173.46926575466478</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -42115,7 +42115,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>-34.99288691134532,173.46920431700366</t>
+          <t>-34.99288665518938,173.46920421131978</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -42176,7 +42176,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>-34.99284968334803,173.46918895762357</t>
+          <t>-34.99284840256827,173.4691884292048</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -42253,7 +42253,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>-34.99293447096239,173.46922393898444</t>
+          <t>-34.99293985023662,173.4692261583482</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -42330,7 +42330,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>-34.99280434374275,173.4691702516086</t>
+          <t>-34.99280775915569,173.46917166072387</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -42407,7 +42407,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>-34.992828080862324,173.46918004496223</t>
+          <t>-34.99282364082563,173.46917821311146</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -42460,7 +42460,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>-34.99292917707343,173.469221754849</t>
+          <t>-34.992933190182804,173.46922341056455</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -42533,7 +42533,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>-34.9929214070105,173.46921854910235</t>
+          <t>-34.992920126230885,173.46921802068263</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -42610,7 +42610,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>-34.992835082458555,173.46918293365036</t>
+          <t>-34.9928318378164,173.46918159498995</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -42687,7 +42687,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>-34.99298074979625,173.46924303256773</t>
+          <t>-34.99297391897229,173.46924021432528</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -42764,7 +42764,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>-34.99292670089953,173.46922073323736</t>
+          <t>-34.99292917707343,173.469221754849</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -42841,7 +42841,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>-34.9929590619299,173.46923408464963</t>
+          <t>-34.99296205041547,173.46923531763017</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -42914,7 +42914,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>-34.9929214070105,173.46921854910235</t>
+          <t>-34.99291568619487,173.46921618882772</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -42991,7 +42991,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>-34.99286641887004,173.46919586229728</t>
+          <t>-34.99286616271407,173.46919575661346</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -43068,7 +43068,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>-34.99284942719207,173.4691888519398</t>
+          <t>-34.992853013375395,173.4691903315125</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -43145,7 +43145,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>-34.992923712413784,173.46921950025788</t>
+          <t>-34.99292695705545,173.4692208389213</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -43222,7 +43222,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>-34.99296307503908,173.4692357403664</t>
+          <t>-34.99295837884749,173.4692338028255</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -43275,7 +43275,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>-34.99287461586023,173.46919924417932</t>
+          <t>-34.992874274318964,173.46919910326753</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -43352,7 +43352,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>-34.992918930836574,173.46921752749088</t>
+          <t>-34.992921748551716,173.4692186900143</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -43429,7 +43429,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>-34.99289579141772,173.46920798071105</t>
+          <t>-34.99289049752842,173.46920579657768</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -43539,7 +43539,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>-34.99289024137249,173.46920569089383</t>
+          <t>-34.99288571595094,173.4692038238123</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -43616,7 +43616,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>-34.99283772940346,173.46918402571552</t>
+          <t>-34.992834997073224,173.46918289842247</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -43693,7 +43693,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>-34.99284746332977,173.46918804169766</t>
+          <t>-34.99284814641231,173.46918832352102</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -43738,7 +43738,7 @@
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr">
         <is>
-          <t>-34.99281655384393,173.46917528919624</t>
+          <t>-34.99282022541277,173.46917680399565</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -43844,7 +43844,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>-34.992950181858404,173.4692304209365</t>
+          <t>-34.99294873030825,173.46922982206038</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -44011,7 +44011,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>-34.99270171057477,173.46912790774982</t>
+          <t>-34.992706406768356,173.46912984527845</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -44056,7 +44056,7 @@
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr">
         <is>
-          <t>-34.99283943710985,173.46918473027372</t>
+          <t>-34.99284592639404,173.46918740759517</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -44133,7 +44133,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>-34.99297135741328,173.4692391574845</t>
+          <t>-34.99296845431307,173.4692379597317</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -44210,7 +44210,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>-34.99283909556856,173.46918458936207</t>
+          <t>-34.992843194063866,173.4691862803019</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -44255,7 +44255,7 @@
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr">
         <is>
-          <t>-34.992934044035856,173.4692237628445</t>
+          <t>-34.99293686175094,173.4692249253683</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -44332,7 +44332,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>-34.99290757459053,173.46921284217024</t>
+          <t>-34.99290450071938,173.46921157396335</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -44409,7 +44409,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>-34.992908684599556,173.46921330013384</t>
+          <t>-34.99290783074647,173.46921294785415</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -44486,7 +44486,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>-34.99288383747407,173.46920304879743</t>
+          <t>-34.992879824364366,173.4692013930839</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -44559,7 +44559,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>-34.99276412725386,173.46915365928513</t>
+          <t>-34.99276925037363,173.469155772956</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -44632,7 +44632,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>-34.992921492395794,173.46921858433032</t>
+          <t>-34.99291483234179,173.46921583654793</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -44697,7 +44697,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>-34.992861466521724,173.46919381907722</t>
+          <t>-34.992866675025965,173.46919596798108</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -44774,7 +44774,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>-34.99291312463562,173.46921513198845</t>
+          <t>-34.992909709223255,173.46921372286948</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -44823,7 +44823,7 @@
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr">
         <is>
-          <t>-34.99283866864196,173.46918441322254</t>
+          <t>-34.99283858325665,173.46918437799462</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -44900,7 +44900,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>-34.99289818220643,173.46920896709395</t>
+          <t>-34.99289997529794,173.46920970688117</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -44977,7 +44977,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>-34.99289485217931,173.46920759320352</t>
+          <t>-34.99289229061997,173.46920653636477</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -45123,7 +45123,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>-34.99289476679399,173.46920755797555</t>
+          <t>-34.992887679813116,173.46920463405522</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -45196,7 +45196,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>-34.99286206421894,173.46919406567272</t>
+          <t>-34.99286676041128,173.469196003209</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -45273,7 +45273,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>-34.992918503910026,173.469217351351</t>
+          <t>-34.99291611312141,173.4692163649676</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -45350,7 +45350,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>-34.99287393277772,173.4691989623558</t>
+          <t>-34.992876238181196,173.4691999135102</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -45427,7 +45427,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>-34.99290262224257,173.4692107989481</t>
+          <t>-34.99289775527988,173.46920879095416</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -45504,7 +45504,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>-34.992811174568615,173.46917306983926</t>
+          <t>-34.99280861300891,173.46917201300272</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -45581,7 +45581,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>-34.99289988991265,173.46920967165323</t>
+          <t>-34.99289391294088,173.46920720569597</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -45658,7 +45658,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>-34.99287581125463,173.4691997373705</t>
+          <t>-34.99287734819026,173.46920037147348</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -45735,7 +45735,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>-34.99289331524371,173.46920695910023</t>
+          <t>-34.99289519372055,173.46920773411534</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -45812,7 +45812,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>-34.99292277317541,173.46921911275007</t>
+          <t>-34.99292687167016,173.46922080369333</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -45889,7 +45889,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>-34.99298783677603,173.4692459564948</t>
+          <t>-34.992981603649234,173.46924338484808</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -45966,7 +45966,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>-34.992812711504435,173.46917370394124</t>
+          <t>-34.992817834623764,173.46917581761465</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -46043,7 +46043,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>-34.992965721983424,173.46923683243497</t>
+          <t>-34.992963331195,173.46923584605045</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -46120,7 +46120,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>-34.99287743357558,173.46920040670142</t>
+          <t>-34.99288025129093,173.4692015692236</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -46274,7 +46274,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>-34.99281809077972,173.46917592329834</t>
+          <t>-34.992820481568735,173.46917690967933</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -46351,7 +46351,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>-34.992890582913724,173.46920583180565</t>
+          <t>-34.99288972906062,173.4692054795261</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -46428,7 +46428,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>-34.9929089407555,173.46921340581775</t>
+          <t>-34.992903646866296,173.46921122168368</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -46505,7 +46505,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>-34.99294804722583,173.46922954023634</t>
+          <t>-34.99294437565776,173.46922802543216</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -46538,7 +46538,7 @@
       <c r="M232" t="inlineStr"/>
       <c r="N232" t="inlineStr">
         <is>
-          <t>-34.99293686175094,173.4692249253683</t>
+          <t>-34.99293600789789,173.46922457308835</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -46611,7 +46611,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>-34.99302532092074,173.46926142161132</t>
+          <t>-34.99302045395903,173.46925941361133</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -46688,7 +46688,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>-34.99303693332046,173.46926621262986</t>
+          <t>-34.99302950480007,173.46926314778696</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -46765,7 +46765,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>-34.99279307287988,173.46916560152903</t>
+          <t>-34.99279785445808,173.46916757428988</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -46842,7 +46842,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>-34.99291833313942,173.469217280895</t>
+          <t>-34.99292243163418,173.46921897183813</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -46915,7 +46915,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>-34.99286266191614,173.46919431226823</t>
+          <t>-34.99286069805388,173.46919350202583</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -46988,7 +46988,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>-34.99284174251345,173.46918568142735</t>
+          <t>-34.99284071788962,173.46918525869242</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -47065,7 +47065,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>-34.99276873806165,173.4691555615889</t>
+          <t>-34.992762675703254,173.46915306041177</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -47142,7 +47142,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>-34.992930543238316,173.46922231849683</t>
+          <t>-34.992929689385264,173.46922196621694</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -47219,7 +47219,7 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>-34.992883581318125,173.46920294311357</t>
+          <t>-34.99287777511683,173.46920054761318</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -47296,7 +47296,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>-34.992908343058325,173.46921315922194</t>
+          <t>-34.99291030692043,173.4692139694653</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -47353,7 +47353,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>-34.99281638307328,173.46917521874047</t>
+          <t>-34.99281979848616,173.46917662785617</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -47398,7 +47398,7 @@
       <c r="M244" t="inlineStr"/>
       <c r="N244" t="inlineStr">
         <is>
-          <t>-34.9930364210087,173.46926600126136</t>
+          <t>-34.99304051950268,173.46926769220937</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -47475,7 +47475,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>-34.99289485217931,173.46920759320352</t>
+          <t>-34.99289322985839,173.4692069238723</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -47552,7 +47552,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>-34.99291150231476,173.4692144626569</t>
+          <t>-34.99291073384697,173.46921414560515</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -47629,7 +47629,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>-34.993014903914926,173.46925712378706</t>
+          <t>-34.99301131773255,173.4692556442085</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -47702,7 +47702,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>-34.99267216724701,173.46911571893844</t>
+          <t>-34.992677290367524,173.4691178326045</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -47779,7 +47779,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>-34.99297545590769,173.4692408484298</t>
+          <t>-34.99296896662487,173.46923817109982</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -47856,7 +47856,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>-34.992923883184396,173.46921957071385</t>
+          <t>-34.992919272377804,173.46921766840282</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -47933,7 +47933,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>-34.99291765005695,173.46921699907122</t>
+          <t>-34.99291466157117,173.469215766092</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -48010,7 +48010,7 @@
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>-34.99277104346551,173.46915651274085</t>
+          <t>-34.99277488580529,173.46915809799427</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -48071,7 +48071,7 @@
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>-34.99266644642902,173.4691133586783</t>
+          <t>-34.99266986184274,173.4691147677888</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -48112,7 +48112,7 @@
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>-34.99279819599938,173.4691677152014</t>
+          <t>-34.992803319118856,173.46916982887404</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -48189,7 +48189,7 @@
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>-34.99276831113499,173.46915538544965</t>
+          <t>-34.992774458878635,173.469157921855</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -48266,7 +48266,7 @@
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>-34.99284695101787,173.46918783033018</t>
+          <t>-34.992845328696816,173.46918716099975</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -48343,7 +48343,7 @@
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>-34.9928452433115,173.46918712577184</t>
+          <t>-34.99284396253173,173.46918659735312</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -48420,7 +48420,7 @@
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>-34.99287555509869,173.46919963168668</t>
+          <t>-34.99287453047492,173.46919920895135</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -48497,7 +48497,7 @@
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>-34.99294966954659,173.46923020956845</t>
+          <t>-34.99294480258428,173.46922820157218</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -48574,7 +48574,7 @@
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>-34.99290748920522,173.46921280694227</t>
+          <t>-34.99290450071938,173.46921157396335</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -48647,7 +48647,7 @@
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>-34.992795122127696,173.46916644699795</t>
+          <t>-34.992799989091196,173.46916845498677</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -48724,7 +48724,7 @@
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>-34.99287726280496,173.46920033624554</t>
+          <t>-34.992870005053256,173.46919734187057</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -48801,7 +48801,7 @@
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>-34.99299774147054,173.4692500429479</t>
+          <t>-34.99298988602319,173.46924680196776</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -48878,7 +48878,7 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>-34.99310942542834,173.4692961212984</t>
+          <t>-34.993103448458655,173.4692936553284</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -49016,7 +49016,7 @@
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>-34.99299458221456,173.46924873951014</t>
+          <t>-34.9929892029408,173.46924652014343</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -49093,7 +49093,7 @@
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>-34.993001071497105,173.46925141684184</t>
+          <t>-34.99299517991164,173.46924898610646</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -49223,7 +49223,7 @@
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>-34.992876750493075,173.46920012487786</t>
+          <t>-34.992882898235635,173.46920266128998</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -49300,7 +49300,7 @@
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>-34.99283516784388,173.46918296887827</t>
+          <t>-34.992834143220044,173.4691825461434</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -49377,7 +49377,7 @@
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>-34.99288605749219,173.46920396472413</t>
+          <t>-34.99288844828093,173.4692049511068</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -49454,7 +49454,7 @@
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>-34.99263297537355,173.46909954940176</t>
+          <t>-34.99263698848489,173.46910120510523</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -49523,7 +49523,7 @@
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>-34.99310003304737,173.46929224620285</t>
+          <t>-34.993093885307005,173.4692897097772</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -49600,7 +49600,7 @@
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>-34.99284251098131,173.46918599847857</t>
+          <t>-34.992845328696816,173.46918716099975</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -49677,7 +49677,7 @@
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>-34.99284473099959,173.46918691440433</t>
+          <t>-34.99284823179762,173.46918835874897</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -49754,7 +49754,7 @@
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>-34.99279068209077,173.46916461514869</t>
+          <t>-34.99279367057716,173.4691658481241</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -49827,7 +49827,7 @@
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>-34.99287393277772,173.4691989623558</t>
+          <t>-34.99287256661268,173.46919839870876</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -49904,7 +49904,7 @@
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>-34.99299202065562,173.46924768266882</t>
+          <t>-34.992984165208206,173.46924444168914</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -49981,7 +49981,7 @@
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>-34.99284370637577,173.46918649166938</t>
+          <t>-34.99283644862367,173.4691834972969</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -50058,7 +50058,7 @@
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>-34.99287248122737,173.46919836348079</t>
+          <t>-34.992865223475604,173.4691953691062</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -50135,7 +50135,7 @@
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>-34.99281732231183,173.4691756062473</t>
+          <t>-34.992812113807155,173.46917345734605</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -50212,7 +50212,7 @@
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>-34.9929214070105,173.46921854910235</t>
+          <t>-34.99291662543326,173.46921657633547</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -50281,7 +50281,7 @@
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>-34.992751319454285,173.46914837510914</t>
+          <t>-34.992755759491516,173.46915020695664</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -50358,7 +50358,7 @@
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>-34.99273330314913,173.4691409420377</t>
+          <t>-34.992736120865125,173.46914210455577</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -50435,7 +50435,7 @@
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>-34.99288699673062,173.4692043522316</t>
+          <t>-34.9928910952256,173.46920604317336</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -50508,7 +50508,7 @@
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>-34.99268924431525,173.46912276449308</t>
+          <t>-34.992694111279604,173.46912477247668</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -50585,7 +50585,7 @@
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>-34.99277351964003,173.46915753434857</t>
+          <t>-34.99277565427324,173.46915841504497</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -50662,7 +50662,7 @@
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>-34.99283952249515,173.46918476550164</t>
+          <t>-34.99283935172452,173.4691846950458</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -50735,7 +50735,7 @@
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>-34.99289766989456,173.4692087557262</t>
+          <t>-34.99289451063805,173.46920745229167</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -50812,7 +50812,7 @@
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>-34.99287077352108,173.46919765892204</t>
+          <t>-34.992868809658844,173.46919684867947</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -50889,7 +50889,7 @@
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>-34.99291269770907,173.46921495584854</t>
+          <t>-34.9929063791962,173.46921234897863</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -50966,7 +50966,7 @@
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>-34.9926525286179,173.46910761655428</t>
+          <t>-34.992657224811886,173.46910955408055</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -51031,7 +51031,7 @@
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>-34.99285642878807,173.46919174062947</t>
+          <t>-34.99285190336628,173.4691898735495</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -51108,7 +51108,7 @@
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>-34.99283866864196,173.46918441322254</t>
+          <t>-34.99284362099045,173.46918645644143</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -51214,7 +51214,7 @@
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>-34.992902878398496,173.46921090463198</t>
+          <t>-34.9929055253431,173.46921199669896</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -51356,7 +51356,7 @@
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>-34.99285480646706,173.4691910712989</t>
+          <t>-34.99284900026548,173.4691886758002</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -51433,7 +51433,7 @@
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>-34.99274132937045,173.469144253453</t>
+          <t>-34.99274474478376,173.4691456625661</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -51510,7 +51510,7 @@
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>-34.99285036643057,173.46918923944693</t>
+          <t>-34.992843535605125,173.46918642121355</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -51583,7 +51583,7 @@
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>-34.992697526693185,173.46912618158814</t>
+          <t>-34.99270307674018,173.4691284713945</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -51689,7 +51689,7 @@
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>-34.992770445768215,173.46915626614592</t>
+          <t>-34.992772495016105,173.46915711161435</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -51766,7 +51766,7 @@
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>-34.992830557036605,173.4691810665714</t>
+          <t>-34.99283013010999,173.46918089043186</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -51843,7 +51843,7 @@
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>-34.992858734191614,173.4691926917835</t>
+          <t>-34.99285984420072,173.46919314974656</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -51916,7 +51916,7 @@
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>-34.992714176834035,173.46913305100816</t>
+          <t>-34.99271955611021,173.46913527035983</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -51961,7 +51961,7 @@
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>-34.99263084073984,173.46909866870848</t>
+          <t>-34.99262400991195,173.46909585049033</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -52038,7 +52038,7 @@
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>-34.9930208808855,173.4692595897517</t>
+          <t>-34.99301558699728,173.4692574056116</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -52111,7 +52111,7 @@
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>-34.992766261887105,173.46915453998128</t>
+          <t>-34.99277121423617,173.46915658319656</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -52184,7 +52184,7 @@
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>-34.99291312463562,173.46921513198845</t>
+          <t>-34.992910990002905,173.4692142512891</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -52318,7 +52318,7 @@
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>-34.99271955611021,173.46913527035983</t>
+          <t>-34.99272254459696,173.46913650333312</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -52395,7 +52395,7 @@
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>-34.992811772265874,173.46917331643448</t>
+          <t>-34.99281014994474,173.46917264710464</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -52472,7 +52472,7 @@
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>-34.99288375208876,173.46920301356948</t>
+          <t>-34.992883581318125,173.46920294311357</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -52549,7 +52549,7 @@
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>-34.99291773544226,173.4692170342992</t>
+          <t>-34.99291491772709,173.4692158717759</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -52626,7 +52626,7 @@
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>-34.99276814036433,173.46915531499397</t>
+          <t>-34.992771385006826,173.46915665365228</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -52703,7 +52703,7 @@
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>-34.99275840643676,173.46915129901964</t>
+          <t>-34.992760797226,173.46915228539922</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -52780,7 +52780,7 @@
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>-34.99276096799666,173.4691523558549</t>
+          <t>-34.99276148030864,173.46915256722195</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -52857,7 +52857,7 @@
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>-34.99274500093975,173.46914576824958</t>
+          <t>-34.99274773327037,173.46914689554015</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -52934,7 +52934,7 @@
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>-34.992774202722664,173.46915781617142</t>
+          <t>-34.99276839652032,173.4691554206775</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -53121,7 +53121,7 @@
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>-34.99276293185925,173.46915316609528</t>
+          <t>-34.99276378571255,173.46915351837376</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -53198,7 +53198,7 @@
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>-34.99286394269588,173.4691948406872</t>
+          <t>-34.99286488193435,173.46919522819445</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -53275,7 +53275,7 @@
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>-34.992848914880156,173.46918864057227</t>
+          <t>-34.99284379176108,173.4691865268973</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -53352,7 +53352,7 @@
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>-34.99285694109997,173.469191951997</t>
+          <t>-34.992852927990086,173.46919029628458</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -53429,7 +53429,7 @@
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>-34.99290672073744,173.4692124898905</t>
+          <t>-34.992905696113716,173.4692120671549</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -53506,7 +53506,7 @@
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>-34.9927524294636,173.46914883307096</t>
+          <t>-34.99275345408758,173.469149255805</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -53579,7 +53579,7 @@
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>-34.99280306296287,173.4691697231904</t>
+          <t>-34.99280801531166,173.46917176640753</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -53656,7 +53656,7 @@
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>-34.99282739777975,173.469179763139</t>
+          <t>-34.99282338466967,173.46917810742778</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -53733,7 +53733,7 @@
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>-34.99278607128315,173.46916271284388</t>
+          <t>-34.992785815127164,173.46916260716029</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -53810,7 +53810,7 @@
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>-34.99283832710069,173.4691842723109</t>
+          <t>-34.99283679016496,173.46918363820853</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -53887,7 +53887,7 @@
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>-34.99285950265946,173.46919300883482</t>
+          <t>-34.99286291807209,173.46919441795202</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -53964,7 +53964,7 @@
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>-34.992799562164585,173.4691682788474</t>
+          <t>-34.99279443904509,173.46916616517495</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -54106,7 +54106,7 @@
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>-34.992911843855985,173.46921460356882</t>
+          <t>-34.992903646866296,173.46921122168368</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -54216,7 +54216,7 @@
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>-34.99279136517337,173.46916489697165</t>
+          <t>-34.99279093824674,173.46916472083228</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -54293,7 +54293,7 @@
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>-34.992764981107165,173.4691540115636</t>
+          <t>-34.99276643265775,173.469154610437</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -54342,7 +54342,7 @@
       <c r="M340" t="inlineStr"/>
       <c r="N340" t="inlineStr">
         <is>
-          <t>-34.99271161527393,173.46913199417412</t>
+          <t>-34.99271537222874,173.46913354419738</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -54415,7 +54415,7 @@
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>-34.99268676814037,173.46912174288747</t>
+          <t>-34.9926934281969,173.4691244906544</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -54492,7 +54492,7 @@
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>-34.99273287622245,173.46914076589863</t>
+          <t>-34.992730314662424,173.46913970906408</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -54549,7 +54549,7 @@
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>-34.99264518547818,173.46910458696814</t>
+          <t>-34.992649881672214,173.4691065244941</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -54626,7 +54626,7 @@
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>-34.992711956815285,173.46913213508535</t>
+          <t>-34.99271067603522,173.46913160666833</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -54703,7 +54703,7 @@
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>-34.99287897051122,173.46920104080442</t>
+          <t>-34.992876238181196,173.4691999135102</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -54776,7 +54776,7 @@
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>-34.99273227852511,173.4691405193039</t>
+          <t>-34.99273748703046,173.4691426682009</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -54853,7 +54853,7 @@
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>-34.992883154391556,173.4692027669738</t>
+          <t>-34.99287914128186,173.4692011112603</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
@@ -54930,7 +54930,7 @@
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>-34.992651589379115,173.46910722904906</t>
+          <t>-34.99265611480241,173.46910909611978</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -54999,7 +54999,7 @@
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>-34.993006877697205,173.46925381234945</t>
+          <t>-34.99299961994706,173.46925081796496</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -55076,7 +55076,7 @@
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>-34.99285634340276,173.46919170540153</t>
+          <t>-34.99285139105437,173.469189662182</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -55153,7 +55153,7 @@
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>-34.99294890107886,173.46922989251638</t>
+          <t>-34.9929412164015,173.46922672199616</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -55230,7 +55230,7 @@
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>-34.99285190336628,173.4691898735495</t>
+          <t>-34.99284507254086,173.469187055316</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -55307,7 +55307,7 @@
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>-34.99278086277822,173.46916056394429</t>
+          <t>-34.99278282664074,173.46916137418506</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -55384,7 +55384,7 @@
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>-34.99293976485131,173.46922612312017</t>
+          <t>-34.992934214806475,173.46922383330048</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -55522,7 +55522,7 @@
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>-34.99289442525276,173.4692074170637</t>
+          <t>-34.992892717546525,173.46920671250456</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -55583,7 +55583,7 @@
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>-34.99270538214431,173.4691294225449</t>
+          <t>-34.992708199860445,173.46913058506217</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
@@ -55660,7 +55660,7 @@
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>-34.99301148850316,173.4692557146646</t>
+          <t>-34.993004059982454,173.46925264982366</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
@@ -55737,7 +55737,7 @@
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>-34.9928152730641,173.46917476077792</t>
+          <t>-34.99280989378877,173.469172541421</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
@@ -55810,7 +55810,7 @@
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>-34.99278376587934,173.46916176169157</t>
+          <t>-34.99278760821903,173.46916334694546</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
@@ -55887,7 +55887,7 @@
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>-34.99282347005499,173.4691781426557</t>
+          <t>-34.99281860309166,173.46917613466567</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -55964,7 +55964,7 @@
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>-34.99285753879718,173.4691921985925</t>
+          <t>-34.992854891852375,173.4691911065268</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -55997,7 +55997,7 @@
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>-34.99270068595071,173.46912748501632</t>
+          <t>-34.992701539804095,173.46912783729422</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -56074,7 +56074,7 @@
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>-34.99297613899009,173.46924113025403</t>
+          <t>-34.99297383358699,173.46924017909726</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
@@ -56151,7 +56151,7 @@
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>-34.99287196891549,173.46919815211317</t>
+          <t>-34.99286701656724,173.46919610889282</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
@@ -56208,7 +56208,7 @@
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>-34.99276455418052,173.46915383542435</t>
+          <t>-34.99276754266704,173.469155068399</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
@@ -56350,7 +56350,7 @@
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>-34.992841998669405,173.4691857871111</t>
+          <t>-34.9928402055777,173.46918504732494</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -56423,7 +56423,7 @@
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>-34.99265910328946,173.46911032909114</t>
+          <t>-34.992663372556656,173.46911209047894</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -56493,7 +56493,7 @@
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>-34.99284806102699,173.4691882882931</t>
+          <t>-34.99284549946745,173.4691872314556</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -56570,7 +56570,7 @@
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>-34.99284635332062,173.46918758373474</t>
+          <t>-34.992844901770226,173.46918698486016</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
@@ -56647,7 +56647,7 @@
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>-34.99282492160545,173.46917874152993</t>
+          <t>-34.99282107926598,173.46917715627458</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
@@ -56724,7 +56724,7 @@
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>-34.99293276325628,173.4692232344246</t>
+          <t>-34.992935580971356,173.46922439694836</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
@@ -56801,7 +56801,7 @@
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>-34.99298066441096,173.4692429973397</t>
+          <t>-34.9929750289812,173.46924067228966</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
@@ -56878,7 +56878,7 @@
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>-34.992836021697066,173.46918332115735</t>
+          <t>-34.992832862440245,173.46918201772482</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -56955,7 +56955,7 @@
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>-34.99287581125463,173.4691997373705</t>
+          <t>-34.99287196891549,173.46919815211317</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
@@ -57032,7 +57032,7 @@
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>-34.99287717741964,173.4692003010176</t>
+          <t>-34.99287786050215,173.46920058284113</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -57109,7 +57109,7 @@
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>-34.99278120431953,173.4691607048557</t>
+          <t>-34.992784619732596,173.46916211397019</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -57186,7 +57186,7 @@
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>-34.992894937564614,173.46920762843146</t>
+          <t>-34.992889643675305,173.46920544429815</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -57263,7 +57263,7 @@
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>-34.99280844223828,173.46917194254695</t>
+          <t>-34.992812028421845,173.46917342211813</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -57340,7 +57340,7 @@
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>-34.992903903022224,173.4692113273676</t>
+          <t>-34.992898950674224,173.46920928414562</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
@@ -57417,7 +57417,7 @@
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>-34.99286428423714,173.46919498159895</t>
+          <t>-34.99286044189794,173.46919339634206</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -57490,7 +57490,7 @@
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>-34.992861978833616,173.46919403044478</t>
+          <t>-34.992866931181915,173.46919607366488</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -57563,7 +57563,7 @@
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>-34.9929331047975,173.46922337533658</t>
+          <t>-34.99293301941219,173.46922334010858</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -57640,7 +57640,7 @@
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>-34.992850878742466,173.46918945081447</t>
+          <t>-34.99284900026548,173.4691886758002</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -57717,7 +57717,7 @@
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>-34.99281740769715,173.46917564147518</t>
+          <t>-34.99281954233021,173.4691765221725</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -57794,7 +57794,7 @@
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>-34.99301251312668,173.46925613740135</t>
+          <t>-34.993010805420795,173.46925543284013</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -57871,7 +57871,7 @@
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>-34.99277258040142,173.4691571468422</t>
+          <t>-34.99277514196127,173.4691582036778</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -57944,7 +57944,7 @@
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>-34.992703503666874,173.46912864753347</t>
+          <t>-34.992708199860445,173.46913058506217</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -58021,7 +58021,7 @@
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>-34.99289929221546,173.46920942505747</t>
+          <t>-34.99289357139965,173.46920706478411</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -58098,7 +58098,7 @@
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>-34.99283764401813,173.46918399048764</t>
+          <t>-34.9928309839632,173.46918124271093</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -58151,7 +58151,7 @@
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>-34.99297716361368,173.46924155299038</t>
+          <t>-34.99297263819279,173.46923968590488</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -58228,7 +58228,7 @@
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>-34.9928820443825,173.4692023090105</t>
+          <t>-34.99287743357558,173.46920040670142</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -58301,7 +58301,7 @@
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>-34.99280126987107,173.46916898340496</t>
+          <t>-34.99280699068776,173.46917134367294</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -58378,7 +58378,7 @@
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>-34.99292328548726,173.46921932411794</t>
+          <t>-34.99292473703747,173.4692199229937</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -58528,7 +58528,7 @@
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>-34.992935068659534,173.4692241855804</t>
+          <t>-34.99293976485131,173.46922612312017</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
@@ -58605,7 +58605,7 @@
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>-34.99283320398152,173.46918215863641</t>
+          <t>-34.99283081319257,173.4691811722551</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -58682,7 +58682,7 @@
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>-34.992891180610926,173.46920607840136</t>
+          <t>-34.99288691134532,173.46920431700366</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -58759,7 +58759,7 @@
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>-34.99293976485131,173.46922612312017</t>
+          <t>-34.99293959408072,173.4692260526642</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -58824,7 +58824,7 @@
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>-34.99299372836157,173.4692483872297</t>
+          <t>-34.99299526529692,173.4692490213345</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -58865,7 +58865,7 @@
       <c r="M403" t="inlineStr"/>
       <c r="N403" t="inlineStr">
         <is>
-          <t>-34.99298203057574,173.46924356098825</t>
+          <t>-34.992979042090276,173.46924232800708</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -58942,7 +58942,7 @@
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>-34.99318388138881,173.46932684026916</t>
+          <t>-34.99317944135472,173.46932500840234</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -59019,7 +59019,7 @@
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>-34.992969478936665,173.46923838246798</t>
+          <t>-34.992961794259564,173.46923521194614</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -59096,7 +59096,7 @@
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>-34.99292661551422,173.4692206980094</t>
+          <t>-34.992930628623625,173.46922235372483</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -59173,7 +59173,7 @@
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>-34.992945485666716,173.46922848339622</t>
+          <t>-34.992948644922954,173.46922978683236</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -59250,7 +59250,7 @@
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>-34.99302771170894,173.46926240799738</t>
+          <t>-34.99302950480007,173.46926314778696</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -59327,7 +59327,7 @@
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>-34.99294574182262,173.46922858908022</t>
+          <t>-34.99294215563985,173.46922710950415</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -59388,7 +59388,7 @@
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>-34.993048887261104,173.46927114456207</t>
+          <t>-34.993045813390665,173.4692698763508</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -59449,7 +59449,7 @@
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>-34.99294241179576,173.46922721518817</t>
+          <t>-34.99294352180471,173.46922767315218</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -59522,7 +59522,7 @@
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>-34.99281014994474,173.46917264710464</t>
+          <t>-34.992815870761355,173.46917500737314</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -59595,7 +59595,7 @@
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>-34.99285600186149,173.46919156448985</t>
+          <t>-34.99286069805388,173.46919350202583</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -59672,7 +59672,7 @@
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>-34.9931522888379,173.4693138058366</t>
+          <t>-34.99314776341829,173.46931193874306</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -59749,7 +59749,7 @@
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>-34.992869407356054,173.469197095275</t>
+          <t>-34.99286616271407,173.46919575661346</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -59826,7 +59826,7 @@
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>-34.99296964970728,173.469238452924</t>
+          <t>-34.992965209671624,173.46923662106687</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -59903,7 +59903,7 @@
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>-34.99285207413691,173.46918994400534</t>
+          <t>-34.99285036643057,173.46918923944693</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -59980,7 +59980,7 @@
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>-34.992931567861994,173.46922274123273</t>
+          <t>-34.992934129421165,173.46922379807248</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -60134,7 +60134,7 @@
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>-34.99287154198892,173.46919797597346</t>
+          <t>-34.99287367662178,173.46919885667197</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -60211,7 +60211,7 @@
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>-34.99287461586023,173.46919924417932</t>
+          <t>-34.99286863888821,173.4691967782236</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -60288,7 +60288,7 @@
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>-34.992838924797915,173.46918451890625</t>
+          <t>-34.992836363238354,173.46918346206897</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -60365,7 +60365,7 @@
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>-34.99281766385312,173.46917574715886</t>
+          <t>-34.99281356535765,173.46917405622014</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -60442,7 +60442,7 @@
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>-34.992827056238475,173.46917962222741</t>
+          <t>-34.99282329928434,173.4691780721999</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -60519,7 +60519,7 @@
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>-34.99289502294993,173.4692076636594</t>
+          <t>-34.99289655988553,173.46920829776272</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -60596,7 +60596,7 @@
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>-34.99297366281639,173.4692401086412</t>
+          <t>-34.99296751507476,173.46923757222342</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -60673,7 +60673,7 @@
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>-34.99299261835272,173.46924792926512</t>
+          <t>-34.992996887617565,173.4692496906674</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -60750,7 +60750,7 @@
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>-34.992821591577915,173.46917736764198</t>
+          <t>-34.992815614605384,173.46917490168948</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -60827,7 +60827,7 @@
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>-34.992810235330055,173.46917268233256</t>
+          <t>-34.99280741761439,173.46917151981236</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
@@ -60904,7 +60904,7 @@
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>-34.99297724899899,173.4692415882184</t>
+          <t>-34.992976565916585,173.46924130639417</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
@@ -60981,7 +60981,7 @@
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>-34.9928211646513,173.4691771915025</t>
+          <t>-34.992813309201686,173.46917395053646</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
@@ -61058,7 +61058,7 @@
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>-34.99283175243108,173.46918155976203</t>
+          <t>-34.992834740917274,173.46918279273874</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -61135,7 +61135,7 @@
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>-34.99279495135704,173.4691663765422</t>
+          <t>-34.99278923054022,173.46916401627493</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
@@ -61212,7 +61212,7 @@
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>-34.99281125995393,173.46917310506717</t>
+          <t>-34.99280699068776,173.46917134367294</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -61289,7 +61289,7 @@
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>-34.99286180806299,173.46919395998893</t>
+          <t>-34.992860356512615,173.46919336111412</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -61362,7 +61362,7 @@
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>-34.99274483016909,173.46914569779392</t>
+          <t>-34.99274858712369,173.46914724781848</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
@@ -61439,7 +61439,7 @@
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>-34.992853354916676,173.4691904724242</t>
+          <t>-34.99284848795358,173.4691884644327</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -61516,7 +61516,7 @@
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>-34.99279307287988,173.46916560152903</t>
+          <t>-34.99278709590706,173.46916313557827</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
@@ -61589,7 +61589,7 @@
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>-34.99281903001827,173.46917631080515</t>
+          <t>-34.992823043128375,173.46917796651618</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -61666,7 +61666,7 @@
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>-34.99277112885085,173.4691565479687</t>
+          <t>-34.99277548350259,173.46915834458923</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
@@ -61739,7 +61739,7 @@
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>-34.992711529888595,173.46913195894632</t>
+          <t>-34.99271793378883,173.46913460103153</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
@@ -61816,7 +61816,7 @@
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>-34.99282688546782,173.46917955177162</t>
+          <t>-34.992822360045814,173.46917768469302</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
@@ -61893,7 +61893,7 @@
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>-34.992839693265786,173.46918483595746</t>
+          <t>-34.99283772940346,173.46918402571552</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -61966,7 +61966,7 @@
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>-34.992777532750445,173.46915919005778</t>
+          <t>-34.99278035046626,173.46916035257712</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
@@ -62043,7 +62043,7 @@
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>-34.99285600186149,173.46919156448985</t>
+          <t>-34.99285583109086,173.469191494034</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -62120,7 +62120,7 @@
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>-34.9928591611182,173.46919286792314</t>
+          <t>-34.99285830726504,173.46919251564384</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -62197,7 +62197,7 @@
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>-34.992815785376024,173.46917497214525</t>
+          <t>-34.992811089183284,173.4691730346114</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -62270,7 +62270,7 @@
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>-34.992693001270204,173.46912431451548</t>
+          <t>-34.99269547744505,173.46912533612124</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
@@ -62347,7 +62347,7 @@
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>-34.99282825163295,173.46918011541806</t>
+          <t>-34.99282227466048,173.46917764946514</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -62424,7 +62424,7 @@
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>-34.99284635332062,173.46918758373474</t>
+          <t>-34.992838924797915,173.46918451890625</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
@@ -62497,7 +62497,7 @@
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>-34.99270905371383,173.46913093734014</t>
+          <t>-34.992714347604704,173.46913312146376</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
@@ -62574,7 +62574,7 @@
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>-34.9927758250439,173.46915848550066</t>
+          <t>-34.992779496612975,173.46916000029853</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
@@ -62651,7 +62651,7 @@
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>-34.99291747928634,173.46921692861523</t>
+          <t>-34.99291158770006,173.46921449788488</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
@@ -62720,7 +62720,7 @@
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>-34.99287154198892,173.46919797597346</t>
+          <t>-34.992865223475604,173.4691953691062</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
@@ -62797,7 +62797,7 @@
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>-34.99279495135704,173.4691663765422</t>
+          <t>-34.99279085286142,173.46916468560443</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
@@ -62830,7 +62830,7 @@
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>-34.992873164309884,173.46919864530432</t>
+          <t>-34.99287555509869,173.46919963168668</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
@@ -62907,7 +62907,7 @@
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>-34.992752173307615,173.46914872738748</t>
+          <t>-34.99275302716092,173.46914907966584</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
@@ -62984,7 +62984,7 @@
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>-34.992689927397976,173.4691230463153</t>
+          <t>-34.99268642659902,173.46912160197635</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
@@ -63061,7 +63061,7 @@
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>-34.99287837281403,173.4692007942088</t>
+          <t>-34.99287845819934,173.46920082943674</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
@@ -63138,7 +63138,7 @@
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>-34.99287581125463,173.4691997373705</t>
+          <t>-34.99287453047492,173.46919920895135</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
@@ -63215,7 +63215,7 @@
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>-34.992812199192485,173.4691734925739</t>
+          <t>-34.99280810069698,173.46917180163544</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
@@ -63349,7 +63349,7 @@
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>-34.99283550938515,173.4691831097899</t>
+          <t>-34.992827141623785,173.46917965745533</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
@@ -63422,7 +63422,7 @@
       </c>
       <c r="N464" t="inlineStr">
         <is>
-          <t>-34.992779240457004,173.46915989461496</t>
+          <t>-34.99278265587009,173.46916130372935</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
@@ -63495,7 +63495,7 @@
       </c>
       <c r="N465" t="inlineStr">
         <is>
-          <t>-34.99290159761886,173.4692103762125</t>
+          <t>-34.992904159178146,173.4692114330515</t>
         </is>
       </c>
       <c r="O465" t="inlineStr">
@@ -63572,7 +63572,7 @@
       </c>
       <c r="N466" t="inlineStr">
         <is>
-          <t>-34.992861978833616,173.46919403044478</t>
+          <t>-34.992856855714656,173.4691919167691</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
@@ -63649,7 +63649,7 @@
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>-34.99279469520106,173.46916627085858</t>
+          <t>-34.9927958052103,173.46916672882094</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
@@ -63726,7 +63726,7 @@
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>-34.99273723087446,173.46914256251745</t>
+          <t>-34.99274039013179,173.46914386594693</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
@@ -63803,7 +63803,7 @@
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>-34.99289357139965,173.46920706478411</t>
+          <t>-34.99289229061997,173.46920653636477</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -63880,7 +63880,7 @@
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>-34.99285958804477,173.46919304406276</t>
+          <t>-34.99285651417338,173.46919177585738</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -63957,7 +63957,7 @@
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>-34.99276668881374,173.46915471612053</t>
+          <t>-34.992767969593686,173.46915524453826</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
@@ -64034,7 +64034,7 @@
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>-34.992714689146055,173.46913326237498</t>
+          <t>-34.99271861687152,173.46913488285398</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
@@ -64176,7 +64176,7 @@
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>-34.99275174638096,173.4691485512483</t>
+          <t>-34.99275661334481,173.469150559235</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
@@ -64253,7 +64253,7 @@
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>-34.992905098416564,173.4692118205591</t>
+          <t>-34.992901256077616,173.46921023530064</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -64326,7 +64326,7 @@
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>-34.99270341828153,173.46912861230567</t>
+          <t>-34.99271007833786,173.46913136007373</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
@@ -64399,7 +64399,7 @@
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>-34.99271673839413,173.46913410784225</t>
+          <t>-34.992722971523634,173.46913667947217</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
@@ -64476,7 +64476,7 @@
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>-34.992926273973005,173.46922055709743</t>
+          <t>-34.9929214070105,173.46921854910235</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
@@ -64553,7 +64553,7 @@
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>-34.99289322985839,173.4692069238723</t>
+          <t>-34.99289041214311,173.46920576134974</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
@@ -64703,7 +64703,7 @@
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>-34.99289647450021,173.46920826253472</t>
+          <t>-34.992899462986095,173.4692094955134</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
@@ -64780,7 +64780,7 @@
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>-34.99298245750223,173.46924373712844</t>
+          <t>-34.99298185980514,173.46924349053216</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
@@ -64857,7 +64857,7 @@
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>-34.99286872427354,173.4691968134515</t>
+          <t>-34.992870346594515,173.46919748278233</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
@@ -64934,7 +64934,7 @@
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>-34.992937203292165,173.46922506628027</t>
+          <t>-34.992935324815456,173.4692242912644</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
@@ -65011,7 +65011,7 @@
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>-34.99290945306733,173.46921361718557</t>
+          <t>-34.992913893103406,173.4692154490402</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -65161,7 +65161,7 @@
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>-34.992899633756714,173.46920956596932</t>
+          <t>-34.99290159761886,173.4692103762125</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
@@ -65238,7 +65238,7 @@
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>-34.99292405395503,173.46921964116981</t>
+          <t>-34.99292559089055,173.46922027527353</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
@@ -65315,7 +65315,7 @@
       </c>
       <c r="N489" t="inlineStr">
         <is>
-          <t>-34.992879738979056,173.46920135785592</t>
+          <t>-34.99287734819026,173.46920037147348</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
@@ -65360,7 +65360,7 @@
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>-34.99284976873335,173.46918899285149</t>
+          <t>-34.992844901770226,173.46918698486016</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
